--- a/dataset/lg/venugopaala.xlsx
+++ b/dataset/lg/venugopaala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>కౌస్తుభవక్ష శ్రీకరపాదరాజీవ । దీనశరణ్య మహానుభావ
 కరిరాజవరద భాస్కరకోటిసంకాశ । పవనభుగ్వరశాయి పరమపురుష
@@ -477,63 +474,57 @@
 వైకుంఠపట్టణవాస యోగానంద । విహగరాడ్వాహన విశ్వరూప</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('కౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('వ', 'U'), ('క్ష', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('పా', 'U'), ('ద', '|'), ('రా', 'U'), ('జీ', 'U'), ('వ', '|'), ('దీ', 'U'), ('న', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('క', '|'), ('రి', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('ప', '|'), ('వ', '|'), ('న', '|'), ('భు', 'U'), ('గ్వ', '|'), ('ర', '|'), ('శా', 'U'), ('యి', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('ద్యా', 'U'), ('నం', 'U'), ('త', '|'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('చ', '|'), ('తు', '|'), ('ర్ద', '|'), ('శ', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('శో', 'U'), ('భ', '|'), ('న', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('వా', 'U'), ('స', '|'), ('యో', 'U'), ('గా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', '|'), ('హ', '|'), ('గ', '|'), ('రా', 'U'), ('డ్వా', 'U'), ('హ', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('ప', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీలనిభగాత్ర శ్రీరమణీకళత్ర । సద్గుణస్తోమ యదుకులసార్వభౌమ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>నీలనిభగాత్ర శ్రీరమణీకళత్ర । సద్గుణస్తోమ యదుకులసార్వభౌమ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('ల', '|'), ('ని', '|'), ('భ', '|'), ('గా', 'U'), ('త్ర', 'U'), ('శ్రీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్తో', 'U'), ('మ', '|'), ('య', '|'), ('దు', '|'), ('కు', '|'), ('ల', '|'), ('సా', 'U'), ('ర్వ', '|'), ('భౌ', 'U'), ('మ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>నిను సదా హృత్కంజమునఁ బాయకుండ నా । ప్రహ్లాదువలెను నేర్పరిని గాను
 ఏవేళ నిను ధ్యానించుచుండుటకు నా । దృఢచిత్తుఁ డైనట్టి ధ్రువుఁడ గాను
@@ -541,63 +532,57 @@
 నీ విశ్వరూపంబు సేవించుటకు సహ- । స్రాక్షముల్ గల్గు వాసవుఁడఁ గాను</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('స', '|'), ('దా', 'U'), ('హృ', 'U'), ('త్కం', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డ', '|'), ('నా', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('ని', '|'), ('గా', 'U'), ('ను', '|'), ('ఏ', 'U'), ('వే', 'U'), ('ళ', '|'), ('ని', '|'), ('ను', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నా', 'U'), ('దృ', '|'), ('ఢ', '|'), ('చి', 'U'), ('త్తు', '|'), ('డై', 'U'), ('న', 'U'), ('ట్టి', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్ను', '|'), ('సం', 'U'), ('స్తు', '|'), ('తి', '|'), ('చే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('వే', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('స', 'U'), ('ర్ప', '|'), ('వి', '|'), ('భు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('నీ', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('స', '|'), ('హ', 'U'), ('స్రా', 'U'), ('క్ష', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('స', '|'), ('వు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఇట్టివారలఁ గృపజూచు టెచ్చుగాదు । దేవ నా వంటి దీనుని బ్రోవవలయు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ఇట్టివారలఁ గృపజూచు టెచ్చుగాదు । దేవ నా వంటి దీనుని బ్రోవవలయు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('గృ', '|'), ('ప', '|'), ('జూ', 'U'), ('చు', '|'), ('టె', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('దు', '|'), ('దే', 'U'), ('వ', '|'), ('నా', 'U'), ('వం', 'U'), ('టి', '|'), ('దీ', 'U'), ('ను', '|'), ('ని', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>శ్రీరుక్మిణీ ముఖసారసమార్తాండ । సత్యభామా మనశ్శశిచకోర
 జాంబవతీ కుచశైలకంధర మిత్ర- । విందా సుధాధరబింబకీర
@@ -605,63 +590,57 @@
 లక్షణా శృంగారవీక్షణకాసార- । హంస సుధేష్ణా గుణాపహార</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రు', 'U'), ('క్మి', '|'), ('ణీ', 'U'), ('ము', '|'), ('ఖ', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మా', 'U'), ('మ', '|'), ('న', 'U'), ('శ్శ', '|'), ('శి', '|'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('జాం', 'U'), ('బ', '|'), ('వ', '|'), ('తీ', 'U'), ('కు', '|'), ('చ', '|'), ('శై', 'U'), ('ల', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('మి', 'U'), ('త్ర', '|'), ('విం', 'U'), ('దా', 'U'), ('సు', '|'), ('ధా', 'U'), ('ధ', '|'), ('ర', '|'), ('బిం', 'U'), ('బ', '|'), ('కీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రా', 'U'), ('వ', '|'), ('యో', 'U'), ('వ', '|'), ('న', '|'), ('భ', '|'), ('ద్రే', 'U'), ('భ', '|'), ('రా', 'U'), ('జ', '|'), ('క', '|'), ('శిం', 'U'), ('దా', 'U'), ('త్మ', '|'), ('జా', 'U'), ('చి', '|'), ('దా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('కా', 'U'), ('సా', 'U'), ('ర', '|'), ('హం', 'U'), ('స', '|'), ('సు', '|'), ('ధే', 'U'), ('ష్ణా', 'U'), ('గు', '|'), ('ణా', 'U'), ('ప', '|'), ('హా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సుందరకపోల విబుధసంస్తుత కృపాల- । వాల ధృతశైల కాంచనవర్ణచేల
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>సుందరకపోల విబుధసంస్తుత కృపాల- । వాల ధృతశైల కాంచనవర్ణచేల
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('క', '|'), ('పో', 'U'), ('ల', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('సం', 'U'), ('స్తు', '|'), ('త', '|'), ('కృ', '|'), ('పా', 'U'), ('ల', '|'), ('వా', 'U'), ('ల', '|'), ('ధృ', '|'), ('త', '|'), ('శై', 'U'), ('ల', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('చే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>భానుకోటి ప్రభాభాసురంబగు వెల్గు । పరులు చూచినఁ గానఁబడని వెల్గు
 గురుకృపచేఁ గాక నరయనేరని వెల్గు । నమృతంపు వృష్టిచే నమరు వెల్గు
@@ -669,64 +648,58 @@
 దశవిధప్రణవనాదములు గల్గిన వెల్గు । మౌనులెన్నఁగ రమ్యమైన వెల్గు</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('ను', '|'), ('కో', 'U'), ('టి', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('భా', 'U'), ('సు', '|'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('ని', '|'), ('వె', 'U'), ('ల్గు', '|'), ('గు', '|'), ('రు', '|'), ('కృ', '|'), ('ప', '|'), ('చే', 'U'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('వె', 'U'), ('ల్గు', '|'), ('న', '|'), ('మృ', '|'), ('తం', 'U'), ('పు', '|'), ('వృ', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('న', '|'), ('మ', '|'), ('రు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('వి', 'U'), ('ద్యు', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('ప', '|'), ('రి', '|'), ('వే', 'U'), ('ష్టి', '|'), ('తం', 'U'), ('బ', '|'), ('గు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('ఘ', '|'), ('న', '|'), ('నీ', 'U'), ('ల', '|'), ('కాం', 'U'), ('తు', '|'), ('ల', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('ద', '|'), ('శ', '|'), ('వి', '|'), ('ధ', 'U'), ('ప్ర', '|'), ('ణ', '|'), ('వ', '|'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వె', 'U'), ('ల్గు', '|'), ('మౌ', 'U'), ('ను', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', '|'), ('ర', 'U'), ('మ్య', '|'), ('మై', 'U'), ('న', '|'), ('వె', 'U'), ('ల్గు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>ఆదిమధ్యాంతరరహితమైనట్టి వెల్గు । నిట్టి వెల్గును సేవింపనట్టి చెట్ట-
 వారికే లభించు కైవల్యపదము
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ది', '|'), ('మ', 'U'), ('ధ్యాం', 'U'), ('త', '|'), ('ర', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వె', 'U'), ('ల్గు', '|'), ('ని', 'U'), ('ట్టి', '|'), ('వె', 'U'), ('ల్గు', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్టి', '|'), ('చె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('రి', '|'), ('కే', 'U'), ('ల', '|'), ('భిం', 'U'), ('చు', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>వేదంబులును నీవె వేదాంగములు నీవె । జలధులు నీవె భూజములు నీవె
 క్రతువులు నీవె సద్వ్రతములు నీవె కో- । విదుఁ డటంచన నీవె నదులు నీవె
@@ -734,63 +707,57 @@
 యణురూపములు నీవె యవనీతలము నీవె । బ్రహ్మము నీవె గోపతియు నీవె</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('వే', 'U'), ('దాం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('జ', '|'), ('ల', '|'), ('ధు', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('భూ', 'U'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', 'U'), ('క్ర', '|'), ('తు', '|'), ('వు', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('స', '|'), ('ద్వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('కో', 'U'), ('వి', '|'), ('దు', '|'), ('డ', '|'), ('టం', 'U'), ('చ', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('న', '|'), ('దు', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('క', '|'), ('న', '|'), ('కా', 'U'), ('ద్రి', '|'), ('నీ', 'U'), ('వె', '|'), ('యా', 'U'), ('కా', 'U'), ('శం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వె', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('ప్త', '|'), ('సో', 'U'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('య', 'U'), ('గ్ని', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('ణు', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('వ', '|'), ('నీ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('గో', 'U'), ('ప', '|'), ('తి', '|'), ('యు', '|'), ('నీ', 'U'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఇట్టి నిన్ను సన్నుతింప నేనెంతవాఁడ । గించనుఁడ నన్ను బ్రోవుని కింకరునిగ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ఇట్టి నిన్ను సన్నుతింప నేనెంతవాఁడ । గించనుఁడ నన్ను బ్రోవుని కింకరునిగ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ట్టి', '|'), ('ని', 'U'), ('న్ను', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('గిం', 'U'), ('చ', '|'), ('ను', '|'), ('డ', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('ని', '|'), ('కిం', 'U'), ('క', '|'), ('రు', '|'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>వేదాంతమనుచు బ్రహ్మాదులెంచిన వెల్గు । నాదాంతసీమల నడరు వెల్గు
 సాధుజనానందసంపూర్ణమౌ వెల్గు । బోధకు నిలయమై పొసగు వెల్గు
@@ -798,63 +765,57 @@
 చూడఁజూడఁగ మహాశోభితంబగు వెల్గు । నిఖిలజగంబుల నిండు వెల్గు</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('మ', '|'), ('ను', '|'), ('చు', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('దు', '|'), ('లెం', 'U'), ('చి', '|'), ('న', '|'), ('వె', 'U'), ('ల్గు', '|'), ('నా', 'U'), ('దాం', 'U'), ('త', '|'), ('సీ', 'U'), ('మ', '|'), ('ల', '|'), ('న', '|'), ('డ', '|'), ('రు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('సా', 'U'), ('ధు', '|'), ('జ', '|'), ('నా', 'U'), ('నం', 'U'), ('ద', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('మౌ', 'U'), ('వె', 'U'), ('ల్గు', '|'), ('బో', 'U'), ('ధ', '|'), ('కు', '|'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('మై', 'U'), ('పొ', '|'), ('స', '|'), ('గు', '|'), ('వె', 'U'), ('ల్గు', 'U'), ('ద్వి', '|'), ('ద', '|'), ('శా', 'U'), ('బ్జ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మం', 'U'), ('దు', '|'), ('ద', '|'), ('య', '|'), ('మౌ', 'U'), ('వె', 'U'), ('ల్గు', '|'), ('సు', '|'), ('షు', 'U'), ('మ్న', '|'), ('నా', 'U'), ('ళం', 'U'), ('బు', '|'), ('న', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('చూ', 'U'), ('డ', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('మ', '|'), ('హా', 'U'), ('శో', 'U'), ('భి', '|'), ('తం', 'U'), ('బ', '|'), ('గు', '|'), ('వె', 'U'), ('ల్గు', '|'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('నిం', 'U'), ('డు', '|'), ('వె', 'U'), ('ల్గు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శతకోటిసారస హితుల మించిన వెల్గు । మేరువు శిఖరంబుమీఁది వెల్గు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>శతకోటిసారస హితుల మించిన వెల్గు । మేరువు శిఖరంబుమీఁది వెల్గు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('హి', '|'), ('తు', '|'), ('ల', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('వె', 'U'), ('ల్గు', '|'), ('మే', 'U'), ('రు', '|'), ('వు', '|'), ('శి', '|'), ('ఖ', '|'), ('రం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ది', '|'), ('వె', 'U'), ('ల్గు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>వేదాంతయుక్తులు విని రెండు నేర్చుక । వాగునాతఁడు రాజయోగి గాఁడు
 కల్లు లొట్టెడు త్రాగి కైపెక్కి తెలియక । వదరినంతనె శాస్త్రవిదుఁడు గాఁడు
@@ -862,63 +823,57 @@
 ముండపై వలపున రెండెఱుంగక మోవి । యానఁగానె జొల్లు తేనె గాదు</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('యు', 'U'), ('క్తు', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('రెం', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్చు', '|'), ('క', '|'), ('వా', 'U'), ('గు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గి', '|'), ('గా', 'U'), ('డు', '|'), ('క', 'U'), ('ల్లు', '|'), ('లొ', 'U'), ('ట్టె', '|'), ('డు', 'U'), ('త్రా', 'U'), ('గి', '|'), ('కై', 'U'), ('పె', 'U'), ('క్కి', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('క', '|'), ('వ', '|'), ('ద', '|'), ('రి', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('వి', '|'), ('దు', '|'), ('డు', '|'), ('గా', 'U'), ('డు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('పు', '|'), ('రా', 'U'), ('జు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('యుం', 'U'), ('చం', 'U'), ('గా', 'U'), ('నె', '|'), ('గు', '|'), ('డి', '|'), ('సె', '|'), ('వా', 'U'), ('టి', '|'), ('కి', '|'), ('బా', 'U'), ('రి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('రా', 'U'), ('దు', '|'), ('ముం', 'U'), ('డ', '|'), ('పై', 'U'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('న', '|'), ('రెం', 'U'), ('డె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('మో', 'U'), ('వి', '|'), ('యా', 'U'), ('న', '|'), ('గా', 'U'), ('నె', '|'), ('జొ', 'U'), ('ల్లు', '|'), ('తే', 'U'), ('నె', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కోఁతిపై నున్న సింగపుఁగొదమ కాదు । ఎంత చదివిన గుణహీనుఁ డెచ్చుగాఁడు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>కోఁతిపై నున్న సింగపుఁగొదమ కాదు । ఎంత చదివిన గుణహీనుఁ డెచ్చుగాఁడు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('తి', '|'), ('పై', 'U'), ('ను', 'U'), ('న్న', '|'), ('సిం', 'U'), ('గ', '|'), ('పు', '|'), ('గొ', '|'), ('ద', '|'), ('మ', '|'), ('కా', 'U'), ('దు', '|'), ('ఎం', 'U'), ('త', '|'), ('చ', '|'), ('ది', '|'), ('వి', '|'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('హీ', 'U'), ('ను', '|'), ('డె', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>దండకమండలుధారులై కాషాయ- । ములు ధరించిన దాన ముక్తి లేదు
 భూతి గంపెడు పూసి పులిచర్మమును బూని । ముక్కుమూసిన దాన ముక్తి లేదు
@@ -926,63 +881,57 @@
 వాయువుల్ బంధించి ప్రాణంబు నలయఁగ । మూత వేసిన దాన ముక్తిలేదు</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డ', '|'), ('క', '|'), ('మం', 'U'), ('డ', '|'), ('లు', '|'), ('ధా', 'U'), ('రు', '|'), ('లై', 'U'), ('కా', 'U'), ('షా', 'U'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('భూ', 'U'), ('తి', '|'), ('గం', 'U'), ('పె', '|'), ('డు', '|'), ('పూ', 'U'), ('సి', '|'), ('పు', '|'), ('లి', '|'), ('చ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ను', '|'), ('బూ', 'U'), ('ని', '|'), ('ము', 'U'), ('క్కు', '|'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('డు', '|'), ('తీ', 'U'), ('సి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్చి', '|'), ('భు', '|'), ('జ', '|'), ('ము', '|'), ('గా', 'U'), ('ల్చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('వా', 'U'), ('యు', '|'), ('వుల్', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('చి', 'U'), ('ప్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('మూ', 'U'), ('త', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గురుపదాంబుజముల భక్తి కుదిరి తమ్ముఁ । దా మెఱుంగక ముక్తి లేదవనియందు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>గురుపదాంబుజముల భక్తి కుదిరి తమ్ముఁ । దా మెఱుంగక ముక్తి లేదవనియందు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జ', '|'), ('ము', '|'), ('ల', '|'), ('భ', 'U'), ('క్తి', '|'), ('కు', '|'), ('ది', '|'), ('రి', '|'), ('త', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('ద', '|'), ('వ', '|'), ('ని', '|'), ('యం', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>దారిద్ర్యమనెడు భూధరచయంబులు గూల్ప । హరి నీదు భక్తి వజ్రాయుధంబు
 అజ్ఞానమనెడు గాఢాంధకార మణంప । నీదు సపర్య భానూదయంబు
@@ -990,63 +939,57 @@
 చపలం బనెడు రోగసమితిని మాన్ప న- । బ్జాక్ష నీ స్మరణ దివ్యౌషధంబు</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('రి', '|'), ('ద్ర్య', '|'), ('మ', '|'), ('నె', '|'), ('డు', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', 'U'), ('క్తి', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('యు', '|'), ('ధం', 'U'), ('బు', '|'), ('అ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మ', '|'), ('నె', '|'), ('డు', '|'), ('గా', 'U'), ('ఢాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('ణం', 'U'), ('ప', '|'), ('నీ', 'U'), ('దు', '|'), ('స', '|'), ('ప', 'U'), ('ర్య', '|'), ('భా', 'U'), ('నూ', 'U'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('ఘో', 'U'), ('ర', '|'), ('మౌ', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('తాం', 'U'), ('భో', 'U'), ('రా', 'U'), ('శి', '|'), ('నిం', 'U'), ('కిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('దు', '|'), ('సే', 'U'), ('వ', '|'), ('దా', 'U'), ('వా', 'U'), ('న', '|'), ('లం', 'U'), ('బు', '|'), ('చ', '|'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('నె', '|'), ('డు', '|'), ('రో', 'U'), ('గ', '|'), ('స', '|'), ('మి', '|'), ('తి', '|'), ('ని', '|'), ('మా', 'U'), ('న్ప', '|'), ('న', 'U'), ('బ్జా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('ది', 'U'), ('వ్యౌ', 'U'), ('ష', '|'), ('ధం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెన్న గలిగియు నేతికి వెదకినటుల । పరుల దలతురు మీ మహత్తెఱుఁగ లేక
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>వెన్న గలిగియు నేతికి వెదకినటుల । పరుల దలతురు మీ మహత్తెఱుఁగ లేక
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('వె', 'U'), ('న్న', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యు', '|'), ('నే', 'U'), ('తి', '|'), ('కి', '|'), ('వె', '|'), ('ద', '|'), ('కి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('రు', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్తె', '|'), ('ఱు', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>సూక్ష్మస్నానము చేసి సొక్కినవేళ సా- । మితధారణము చేసి మెలఁగువేళ
 బడలిక పైనంబు నడచి వచ్చినవేళ । సురతాప్తి ‘హా’ యని సొక్కువేళ
@@ -1054,63 +997,57 @@
 దెఱఁగొప్ప మనమున దిగులు చెందినవేళ । భక్తి గన్నట్టి విరక్తివేళ</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('క్ష్మ', 'U'), ('స్నా', 'U'), ('న', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('సొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('సా', 'U'), ('మి', '|'), ('త', '|'), ('ధా', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('వే', 'U'), ('ళ', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('పై', 'U'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('సు', '|'), ('ర', '|'), ('తా', 'U'), ('ప్తి', '|'), ('హా', 'U'), ('య', '|'), ('ని', '|'), ('సొ', 'U'), ('క్కు', '|'), ('వే', 'U'), ('ళ', '|'), ('నొం', 'U'), ('ట', '|'), ('రి', '|'), ('గా', 'U'), ('జీ', 'U'), ('క', '|'), ('టిం', 'U'), ('ట', '|'), ('నుం', 'U'), ('డి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('న', '|'), ('లు', '|'), ('క', '|'), ('తో', 'U'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ళ', '|'), ('దె', '|'), ('ఱ', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ది', '|'), ('గు', '|'), ('లు', '|'), ('చెం', 'U'), ('ది', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('వి', '|'), ('ర', 'U'), ('క్తి', '|'), ('వే', 'U'), ('ళ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లక్ష్యభావంబుఁ జూడ సలక్షణముగ । బండువెన్నెల గతిఁ గానబడును ముక్తి
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>లక్ష్యభావంబుఁ జూడ సలక్షణముగ । బండువెన్నెల గతిఁ గానబడును ముక్తి
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ల', 'U'), ('క్ష్య', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('జూ', 'U'), ('డ', '|'), ('స', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('బం', 'U'), ('డు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గ', '|'), ('తి', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>అగ్రజన్మము తీరమందు వాసంబును । వితరణము ననుభవించు నేర్పు
 సంగీతసాహిత్యసంపన్నతయు మఱి । రసికత బంధుసంరక్షణంబు
@@ -1118,63 +1055,57 @@
 సౌందర్య మతిదృఢశక్తి విలాసంబు । జ్ఞానంబు నీ పదధ్యాననిష్ఠ</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('గ్ర', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('తీ', 'U'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('వి', '|'), ('త', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('సా', 'U'), ('హి', 'U'), ('త్య', '|'), ('సం', 'U'), ('ప', 'U'), ('న్న', '|'), ('త', '|'), ('యు', '|'), ('మ', '|'), ('ఱి', '|'), ('ర', '|'), ('సి', '|'), ('క', '|'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('కూ', 'U'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('భా', 'U'), ('ర్య', '|'), ('రా', 'U'), ('జ', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('మా', 'U'), ('ను', '|'), ('షం', 'U'), ('బు', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('దృ', '|'), ('ఢ', '|'), ('శ', 'U'), ('క్తి', '|'), ('వి', '|'), ('లా', 'U'), ('సం', 'U'), ('బు', 'U'), ('జ్ఞా', 'U'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ని', 'U'), ('ష్ఠ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఇన్నివిధములు గలిగి వర్తించు నరుఁడు । భూతలస్వర్గపదములు బొందుచుండు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ఇన్నివిధములు గలిగి వర్తించు నరుఁడు । భూతలస్వర్గపదములు బొందుచుండు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('న్ని', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('లు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('భూ', 'U'), ('త', '|'), ('ల', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('బొం', 'U'), ('దు', '|'), ('చుం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>అబ్బ మేలోర్వలేనట్టివాఁడైనను । మోహంబుగల తల్లి మూఁగదైన
 ఆలు రక్కసియైన నల్లుఁ డనదయైనఁ । గూతురు పెనుఱంకుఁబోతుదైనఁ
@@ -1182,63 +1113,57 @@
 గృహకృత్యములు పొరుగిండ్ల వెంబడిఁ బోయి । చెప్పి యేడ్చెడు చెడ్డచెల్లెలైన</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్బ', '|'), ('మే', 'U'), ('లో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('త', 'U'), ('ల్లి', '|'), ('మూ', 'U'), ('గ', '|'), ('దై', 'U'), ('న', '|'), ('ఆ', 'U'), ('లు', '|'), ('ర', 'U'), ('క్క', '|'), ('సి', '|'), ('యై', 'U'), ('న', '|'), ('న', 'U'), ('ల్లు', '|'), ('డ', '|'), ('న', '|'), ('ద', '|'), ('యై', 'U'), ('న', '|'), ('గూ', 'U'), ('తు', '|'), ('రు', '|'), ('పె', '|'), ('ను', '|'), ('ఱం', 'U'), ('కు', '|'), ('బో', 'U'), ('తు', '|'), ('దై', 'U'), ('న', '|'), ('గొ', '|'), ('డు', '|'), ('కు', '|'), ('తుం', 'U'), ('దు', '|'), ('డు', '|'), ('కై', 'U'), ('న', '|'), ('గో', 'U'), ('డ', '|'), ('లు', '|'), ('దొం', 'U'), ('గై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('సా', 'U'), ('ధ్యు', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('త', 'U'), ('మ్ము', '|'), ('డై', 'U'), ('న', '|'), ('గృ', '|'), ('హ', '|'), ('కృ', 'U'), ('త్య', '|'), ('ము', '|'), ('లు', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('బో', 'U'), ('యి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('యే', 'U'), ('డ్చె', '|'), ('డు', '|'), ('చె', 'U'), ('డ్డ', '|'), ('చె', 'U'), ('ల్లె', '|'), ('లై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నరుని ఖేదంబు వర్ణింపఁ దరము గాదు । అంతటను సన్యసింపంగనగును మేలు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>నరుని ఖేదంబు వర్ణింపఁ దరము గాదు । అంతటను సన్యసింపంగనగును మేలు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('రు', '|'), ('ని', '|'), ('ఖే', 'U'), ('దం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('అం', 'U'), ('త', '|'), ('ట', '|'), ('ను', '|'), ('స', 'U'), ('న్య', '|'), ('సిం', 'U'), ('పం', 'U'), ('గ', '|'), ('న', '|'), ('గు', '|'), ('ను', '|'), ('మే', 'U'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>విధవ చెవులకేల యరిది వజ్రపుఁ గమ్మ । లురుకు తొత్తుకు విటుఁ డుండనేల
 గ్రుడ్డిముండకు మంచి గొప్పయద్దంబేల । సరవి గుడిసెకు బల్ చాందినేల
@@ -1246,63 +1171,57 @@
 కుక్కపోతుకు జరీకుచ్చుల జీనేల । పూఁటకూళ్ళమ్మకుఁ బుణ్యమేల</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ధ', '|'), ('వ', '|'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('య', '|'), ('రి', '|'), ('ది', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('లు', '|'), ('రు', '|'), ('కు', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కు', '|'), ('వి', '|'), ('టు', '|'), ('డుం', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', 'U'), ('గ్రు', 'U'), ('డ్డి', '|'), ('ముం', 'U'), ('డ', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('య', 'U'), ('ద్దం', 'U'), ('బే', 'U'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('వి', '|'), ('గు', '|'), ('డి', '|'), ('సె', '|'), ('కు', '|'), ('బల్', 'U'), ('చాం', 'U'), ('ది', '|'), ('నే', 'U'), ('ల', '|'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('బ', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బే', 'U'), ('ల', '|'), ('బ', '|'), ('ధి', '|'), ('రు', '|'), ('న', '|'), ('క', '|'), ('ల', '|'), ('వీ', 'U'), ('ణ', '|'), ('పా', 'U'), ('ట', '|'), ('లే', 'U'), ('ల', '|'), ('కు', 'U'), ('క్క', '|'), ('పో', 'U'), ('తు', '|'), ('కు', '|'), ('జ', '|'), ('రీ', 'U'), ('కు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('జీ', 'U'), ('నే', 'U'), ('ల', '|'), ('పూ', 'U'), ('ట', '|'), ('కూ', 'U'), ('ళ్ళ', 'U'), ('మ్మ', '|'), ('కు', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తనకు గతిలేక యొకఁడిచ్చు తఱిని వారి । మతులు చెరపెడి రండకుఁ గ్రతువులేల
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>తనకు గతిలేక యొకఁడిచ్చు తఱిని వారి । మతులు చెరపెడి రండకుఁ గ్రతువులేల
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('గ', '|'), ('తి', '|'), ('లే', 'U'), ('క', '|'), ('యొ', '|'), ('క', '|'), ('డి', 'U'), ('చ్చు', '|'), ('త', '|'), ('ఱి', '|'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('మ', '|'), ('తు', '|'), ('లు', '|'), ('చె', '|'), ('ర', '|'), ('పె', '|'), ('డి', '|'), ('రం', 'U'), ('డ', '|'), ('కు', 'U'), ('గ్ర', '|'), ('తు', '|'), ('వు', '|'), ('లే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>అలకాధిపతి నేస్తమైనప్పటికిని బా- । లేందుమౌళికి బిచ్చమెత్తవలసెఁ
 గమలాసనుని కెంత కరుణ రా నడచినఁ । గలహంసలకుఁ దూటి కాడలేదు
@@ -1310,63 +1229,57 @@
 పరగ సాహేబు సుబా యెల్ల నేలిన । బేగంబులకుఁ గుట్టుప్రోగులేను</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('కా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('నే', 'U'), ('స్త', '|'), ('మై', 'U'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('బా', 'U'), ('లేం', 'U'), ('దు', '|'), ('మౌ', 'U'), ('ళి', '|'), ('కి', '|'), ('బి', 'U'), ('చ్చ', '|'), ('మె', 'U'), ('త్త', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('స', '|'), ('ను', '|'), ('ని', '|'), ('కెం', 'U'), ('త', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('రా', 'U'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('ల', '|'), ('కు', '|'), ('దూ', 'U'), ('టి', '|'), ('కా', 'U'), ('డ', '|'), ('లే', 'U'), ('దు', 'U'), ('క్షీ', 'U'), ('రా', 'U'), ('బ్ధి', '|'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('జే', 'U'), ('రి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('గొం', 'U'), ('గ', '|'), ('తిం', 'U'), ('డి', '|'), ('కి', '|'), ('న', 'U'), ('త్త', '|'), ('గు', 'U'), ('ల్ల', '|'), ('లే', 'U'), ('ను', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('సా', 'U'), ('హే', 'U'), ('బు', '|'), ('సు', '|'), ('బా', 'U'), ('యె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('లి', '|'), ('న', '|'), ('బే', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('గు', 'U'), ('ట్టు', 'U'), ('ప్రో', 'U'), ('గు', '|'), ('లే', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఒకరికుండెనటంచు మేలోర్వలేక । నేడ్వఁగరాదు తన ప్రాప్తి నెన్నవలయు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ఒకరికుండెనటంచు మేలోర్వలేక । నేడ్వఁగరాదు తన ప్రాప్తి నెన్నవలయు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('రి', '|'), ('కుం', 'U'), ('డె', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('మే', 'U'), ('లో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('క', '|'), ('నే', 'U'), ('డ్వ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>అల్పునిఁ జేర్చిన నధికప్రసంగియౌ । ముద్దు చేసినఁ గుక్క మూతి నాకు
 గోళ్ళ సాఁకినఁ బొంతకుండలో విష్ఠించుఁ । గొద్దితొత్తుల పొందు రద్ది కీడ్చు
@@ -1374,63 +1287,57 @@
 బలువతో సరసంబు ప్రాణహాని యొనర్చు । దుష్టుడు మంత్రైన దొరను జెఱచుఁ</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ల్పు', '|'), ('ని', '|'), ('జే', 'U'), ('ర్చి', '|'), ('న', '|'), ('న', '|'), ('ధి', '|'), ('క', 'U'), ('ప్ర', '|'), ('సం', 'U'), ('గి', '|'), ('యౌ', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('గు', 'U'), ('క్క', '|'), ('మూ', 'U'), ('తి', '|'), ('నా', 'U'), ('కు', '|'), ('గో', 'U'), ('ళ్ళ', '|'), ('సా', 'U'), ('కి', '|'), ('న', '|'), ('బొం', 'U'), ('త', '|'), ('కుం', 'U'), ('డ', '|'), ('లో', 'U'), ('వి', 'U'), ('ష్ఠిం', 'U'), ('చు', '|'), ('గొ', 'U'), ('ద్ది', '|'), ('తొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('పొం', 'U'), ('దు', '|'), ('ర', 'U'), ('ద్ది', '|'), ('కీ', 'U'), ('డ్చు', '|'), ('గూ', 'U'), ('బ', '|'), ('లు', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('న', '|'), ('గొం', 'U'), ('ప', '|'), ('నా', 'U'), ('శ', '|'), ('ము', '|'), ('జే', 'U'), ('యు', '|'), ('జ', '|'), ('న', '|'), ('వీ', 'U'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('లు', '|'), ('చం', 'U'), ('క', '|'), ('కె', 'U'), ('క్కు', '|'), ('బ', '|'), ('లు', '|'), ('వ', '|'), ('తో', 'U'), ('స', '|'), ('ర', '|'), ('సం', 'U'), ('బు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('దు', 'U'), ('ష్టు', '|'), ('డు', '|'), ('మం', 'U'), ('త్రై', 'U'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('ను', '|'), ('జె', '|'), ('ఱ', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కనుక విని దెల్సి జాగ్రత్తగాను ప్రజలఁ । బాలనముఁ జేయు టది రాజపద్ధతి యగు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>కనుక విని దెల్సి జాగ్రత్తగాను ప్రజలఁ । బాలనముఁ జేయు టది రాజపద్ధతి యగు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ను', '|'), ('క', '|'), ('వి', '|'), ('ని', '|'), ('దె', 'U'), ('ల్సి', '|'), ('జా', 'U'), ('గ్ర', 'U'), ('త్త', '|'), ('గా', 'U'), ('ను', 'U'), ('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('బా', 'U'), ('ల', '|'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('ది', '|'), ('రా', 'U'), ('జ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('య', '|'), ('గు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>అవనీశ్వరుఁడు మందుఁడైన నర్థుల కియ్య- । వద్దని వద్ది దివాను చెప్పు
 మునిషీ యొకడు చెప్పు మొనసి బక్షీ చెప్పుఁ । దరువాత నా మజుందారు చెప్పుఁ
@@ -1438,63 +1345,57 @@
 దేశపాండ్యా తాను దినవలెనని చెప్పు । ముసరద్ది చెవిలోన మొనసి చెప్పు</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('మం', 'U'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('న', 'U'), ('ర్థు', '|'), ('ల', '|'), ('కి', 'U'), ('య్య', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ని', '|'), ('వ', 'U'), ('ద్ది', '|'), ('ది', '|'), ('వా', 'U'), ('ను', '|'), ('చె', 'U'), ('ప్పు', '|'), ('ము', '|'), ('ని', '|'), ('షీ', 'U'), ('యొ', '|'), ('క', '|'), ('డు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('బ', 'U'), ('క్షీ', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('ద', '|'), ('రు', '|'), ('వా', 'U'), ('త', '|'), ('నా', 'U'), ('మ', '|'), ('జుం', 'U'), ('దా', 'U'), ('రు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('ద', '|'), ('ల', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('చు', '|'), ('ను', '|'), ('శి', '|'), ('ర', 'U'), ('స్తా', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('వెం', 'U'), ('ట', '|'), ('నే', 'U'), ('కే', 'U'), ('లు', '|'), ('మొ', '|'), ('గి', 'U'), ('డ్చి', '|'), ('వ', '|'), ('కీ', 'U'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('దే', 'U'), ('శ', '|'), ('పాం', 'U'), ('డ్యా', 'U'), ('తా', 'U'), ('ను', '|'), ('ది', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('ము', '|'), ('స', '|'), ('ర', 'U'), ('ద్ది', '|'), ('చె', '|'), ('వి', '|'), ('లో', 'U'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('చె', 'U'), ('ప్పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యశము గోరిన దొరకొడుకైనవాఁడు । ఇన్ని చెప్పులు కడఁ ద్రోసి యియ్యవలయు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>యశము గోరిన దొరకొడుకైనవాఁడు । ఇన్ని చెప్పులు కడఁ ద్రోసి యియ్యవలయు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('శ', '|'), ('ము', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('ఇ', 'U'), ('న్ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('ద్రో', 'U'), ('సి', '|'), ('యి', 'U'), ('య్య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>ఆత్మ తెలియని యోగి కద్వైతములు మెండు । నెఱఱంకులాఁడికి నిష్ఠ మెండు
 పాలు పిండని గొడ్డుబఱ్ఱె కదుపు మెండు । కల్లపసిండికిఁ గాంతి మెండు
@@ -1503,63 +1404,57 @@
 వండలేనక్కకు వగపులు బలుమెండు । లేలేని యన్నకు తిండి మెండు</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('త్మ', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('ని', '|'), ('యో', 'U'), ('గి', '|'), ('క', 'U'), ('ద్వై', 'U'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('మెం', 'U'), ('డు', '|'), ('నె', '|'), ('ఱ', '|'), ('ఱం', 'U'), ('కు', '|'), ('లా', 'U'), ('డి', '|'), ('కి', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('మెం', 'U'), ('డు', '|'), ('పా', 'U'), ('లు', '|'), ('పిం', 'U'), ('డ', '|'), ('ని', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('బ', 'U'), ('ఱ్ఱె', '|'), ('క', '|'), ('దు', '|'), ('పు', '|'), ('మెం', 'U'), ('డు', '|'), ('క', 'U'), ('ల్ల', '|'), ('ప', '|'), ('సిం', 'U'), ('డి', '|'), ('కి', '|'), ('గాం', 'U'), ('తి', '|'), ('మెం', 'U'), ('డు', '|'), ('గె', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('రా', 'U'), ('జు', '|'), ('కు', '|'), ('బ', '|'), ('లు', '|'), ('గ', 'U'), ('చ్చు', '|'), ('లు', '|'), ('ను', '|'), ('మెం', 'U'), ('డు', '|'), ('వం', 'U'), ('ధ్య', '|'), ('కు', '|'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('పై', 'U'), ('వాం', 'U'), ('ఛ', '|'), ('మెం', 'U'), ('డు', '|'), ('ద', 'U'), ('బ్బ', '|'), ('ర', '|'), ('వా', 'U'), ('ట', '|'), ('కు', '|'), ('ద', '|'), ('ల', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('ట', '|'), ('లు', '|'), ('మెం', 'U'), ('డు', '|'), ('ప', '|'), ('సి', '|'), ('మి', '|'), ('రో', 'U'), ('గ', '|'), ('పు', '|'), ('లొ', 'U'), ('త్తు', '|'), ('మి', '|'), ('సి', '|'), ('మి', '|'), ('మెం', 'U'), ('డు', '|'), ('వం', 'U'), ('డ', '|'), ('లే', 'U'), ('న', 'U'), ('క్క', '|'), ('కు', '|'), ('వ', '|'), ('గ', '|'), ('పు', '|'), ('లు', '|'), ('బ', '|'), ('లు', '|'), ('మెం', 'U'), ('డు', '|'), ('లే', 'U'), ('లే', 'U'), ('ని', '|'), ('య', 'U'), ('న్న', '|'), ('కు', '|'), ('తిం', 'U'), ('డి', '|'), ('మెం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కూటికియ్యని విటకాని పోటు మెండు । మాచకమ్మకు మోహంబు మదిని మెండు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>కూటికియ్యని విటకాని పోటు మెండు । మాచకమ్మకు మోహంబు మదిని మెండు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('టి', '|'), ('కి', 'U'), ('య్య', '|'), ('ని', '|'), ('వి', '|'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('పో', 'U'), ('టు', '|'), ('మెం', 'U'), ('డు', '|'), ('మా', 'U'), ('చ', '|'), ('క', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('మెం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>ఆలిని వంచుకోఁజాలక తగవర్ల । బ్రతిమాలుకొనువాని బ్రతుకు రోఁత
 నర్తనాంగనల వెన్కను జేరి తాళముల్ । వాయించువాని జీవనము రోఁత
@@ -1567,63 +1462,57 @@
 బంధుకోటికి సరిపడని దుర్వృత్తిని । బడియున్న మనుజుని నడత రోఁత</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లి', '|'), ('ని', '|'), ('వం', 'U'), ('చు', '|'), ('కో', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('త', '|'), ('గ', '|'), ('వ', 'U'), ('ర్ల', 'U'), ('బ్ర', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('రో', 'U'), ('త', '|'), ('న', 'U'), ('ర్త', '|'), ('నాం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('వె', 'U'), ('న్క', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('తా', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('వా', 'U'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('రో', 'U'), ('త', 'U'), ('వ్య', '|'), ('భి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('న', '|'), ('బు', '|'), ('రు', '|'), ('ష', 'U'), ('త్వ', '|'), ('ము', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('రో', 'U'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('స', '|'), ('రి', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('రో', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యరసికుండైన నరపతి నాశ్రయించి । కృతులొనర్చెడి కవి నెత్తిగీఁత రోఁత
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>యరసికుండైన నరపతి నాశ్రయించి । కృతులొనర్చెడి కవి నెత్తిగీఁత రోఁత
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ర', '|'), ('సి', '|'), ('కుం', 'U'), ('డై', 'U'), ('న', '|'), ('న', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('కృ', '|'), ('తు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('డి', '|'), ('క', '|'), ('వి', '|'), ('నె', 'U'), ('త్తి', '|'), ('గీ', 'U'), ('త', '|'), ('రో', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>ఆస్థానమందు విద్వాంసుల గని లేచి । మ్రొక్కులేయని వారమోహినులను
 దల గొరిగించి మెత్తని సున్నమును బూసి । బొగ్గుగంధమున బొట్టమర్చి
@@ -1631,63 +1520,57 @@
 తటుకునఁ గ్రామప్రదక్షిణం బొనరించి । నిల్చినచోటఁ బేణ్ణీళ్ళు చల్లి</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('స్థా', 'U'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('లే', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లే', 'U'), ('య', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('మో', 'U'), ('హి', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('గొ', '|'), ('రి', '|'), ('గిం', 'U'), ('చి', '|'), ('మె', 'U'), ('త్త', '|'), ('ని', '|'), ('సు', 'U'), ('న్న', '|'), ('ము', '|'), ('ను', '|'), ('బూ', 'U'), ('సి', '|'), ('బొ', 'U'), ('గ్గు', '|'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('బొ', 'U'), ('ట్ట', '|'), ('మ', 'U'), ('ర్చి', '|'), ('చె', 'U'), ('ప్పు', '|'), ('లు', '|'), ('మె', '|'), ('డ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('చిం', 'U'), ('పి', '|'), ('చే', 'U'), ('ట', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('పై', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('కా', 'U'), ('ల', '|'), ('మె', 'U'), ('ట్టి', '|'), ('త', '|'), ('టు', '|'), ('కు', '|'), ('న', 'U'), ('గ్రా', 'U'), ('మ', 'U'), ('ప్ర', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('చో', 'U'), ('ట', '|'), ('బే', 'U'), ('ణ్ణీ', 'U'), ('ళ్ళు', '|'), ('చ', 'U'), ('ల్లి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>విప్రదూషకులగువారి వెంట నిచ్చి । సాగ నంపించవలయును శమనపురికి
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>విప్రదూషకులగువారి వెంట నిచ్చి । సాగ నంపించవలయును శమనపురికి
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('ప్ర', '|'), ('దూ', 'U'), ('ష', '|'), ('కు', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('రి', '|'), ('వెం', 'U'), ('ట', '|'), ('ని', 'U'), ('చ్చి', '|'), ('సా', 'U'), ('గ', '|'), ('నం', 'U'), ('పిం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('శ', '|'), ('మ', '|'), ('న', '|'), ('పు', '|'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>పెట్టనేరని రండ పెక్కునీతులఁ బెద్ద । గొడ్రాలిముండకు గొంతు పెద్ద
 మంకుబుద్ధికిఁ దన మాట సాగుటె పెద్ద । రిక్తుని మదిని కోరికలు పెద్ద
@@ -1695,63 +1578,57 @@
 గుడ్డిగుఱ్ఱము తట్టగుగ్గిళ్ళు తినఁ బెద్ద । వెలయ నాఁబోతుకండలను బెద్ద</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('ట్ట', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('రం', 'U'), ('డ', '|'), ('పె', 'U'), ('క్కు', '|'), ('నీ', 'U'), ('తు', '|'), ('ల', '|'), ('బె', 'U'), ('ద్ద', '|'), ('గొ', 'U'), ('డ్రా', 'U'), ('లి', '|'), ('ముం', 'U'), ('డ', '|'), ('కు', '|'), ('గొం', 'U'), ('తు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('మం', 'U'), ('కు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('కి', '|'), ('ద', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('సా', 'U'), ('గు', '|'), ('టె', '|'), ('పె', 'U'), ('ద్ద', '|'), ('రి', 'U'), ('క్తు', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('లు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('అ', 'U'), ('ల్ప', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సుం', 'U'), ('డు', '|'), ('నా', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ణ', '|'), ('కు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('మూ', 'U'), ('ర్ఖ', '|'), ('చి', 'U'), ('త్తు', '|'), ('డు', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('గు', 'U'), ('డ్డి', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('ము', '|'), ('త', 'U'), ('ట్ట', '|'), ('గు', 'U'), ('గ్గి', 'U'), ('ళ్ళు', '|'), ('తి', '|'), ('న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('నా', 'U'), ('బో', 'U'), ('తు', '|'), ('కం', 'U'), ('డ', '|'), ('ల', '|'), ('ను', '|'), ('బె', 'U'), ('ద్ద', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మధ్యవైష్ణవునకు నామములు పెద్ద । పెట్టనేరని విభుఁడు కోపించ పెద్ద
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>మధ్యవైష్ణవునకు నామములు పెద్ద । పెట్టనేరని విభుఁడు కోపించ పెద్ద
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('ధ్య', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('పె', 'U'), ('ట్ట', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('కో', 'U'), ('పిం', 'U'), ('చ', '|'), ('పె', 'U'), ('ద్ద', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>ఈడిగె ముత్తికి జోడుశాలువలిస్తి । కురుబ గంగికి జరీకోకలిస్తి
 కడియాలు కుమ్మర కనకంకు దీసిస్తి । పోఁగులు గోసంగి పోలికిస్తి
@@ -1759,63 +1636,57 @@
 దాసరచ్చికి దేవతార్చన లమ్మిస్తి । గుఱ్ఱాల యుప్పర కొండికిస్తి</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('డి', '|'), ('గె', '|'), ('ము', 'U'), ('త్తి', '|'), ('కి', '|'), ('జో', 'U'), ('డు', '|'), ('శా', 'U'), ('లు', '|'), ('వ', '|'), ('లి', 'U'), ('స్తి', '|'), ('కు', '|'), ('రు', '|'), ('బ', '|'), ('గం', 'U'), ('గి', '|'), ('కి', '|'), ('జ', '|'), ('రీ', 'U'), ('కో', 'U'), ('క', '|'), ('లి', 'U'), ('స్తి', '|'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('లు', '|'), ('కు', 'U'), ('మ్మ', '|'), ('ర', '|'), ('క', '|'), ('న', '|'), ('కం', 'U'), ('కు', '|'), ('దీ', 'U'), ('సి', 'U'), ('స్తి', '|'), ('పో', 'U'), ('గు', '|'), ('లు', '|'), ('గో', 'U'), ('సం', 'U'), ('గి', '|'), ('పో', 'U'), ('లి', '|'), ('కి', 'U'), ('స్తి', '|'), ('పో', 'U'), ('చీ', 'U'), ('లు', '|'), ('చా', 'U'), ('క', '|'), ('లి', '|'), ('పు', 'U'), ('ల్లి', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('వే', 'U'), ('స్తి', '|'), ('దా', 'U'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('కి', '|'), ('నూ', 'U'), ('ఱు', '|'), ('దా', 'U'), ('ర', '|'), ('బో', 'U'), ('స్తి', '|'), ('దా', 'U'), ('స', '|'), ('ర', 'U'), ('చ్చి', '|'), ('కి', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ర్చ', '|'), ('న', '|'), ('ల', 'U'), ('మ్మి', 'U'), ('స్తి', '|'), ('గు', 'U'), ('ఱ్ఱా', 'U'), ('ల', '|'), ('యు', 'U'), ('ప్ప', '|'), ('ర', '|'), ('కొం', 'U'), ('డి', '|'), ('కి', 'U'), ('స్తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచుఁ బాత్ర మపాత్రము ననక యిచ్చి । చెప్పుకొందురు మూఢులు సిగ్గులేక
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ననుచుఁ బాత్ర మపాత్రము ననక యిచ్చి । చెప్పుకొందురు మూఢులు సిగ్గులేక
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('త్ర', '|'), ('మ', '|'), ('పా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('క', '|'), ('యి', 'U'), ('చ్చి', '|'), ('చె', 'U'), ('ప్పు', '|'), ('కొం', 'U'), ('దు', '|'), ('రు', '|'), ('మూ', 'U'), ('ఢు', '|'), ('లు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('లే', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>ఈనెగాండ్లంటరో యీండ్లను బగిసార- । సెన్నంగిసుద్దులు సెప్పలేరు
 యేదగాండ్లంటరో యీండ్లింట పొగవెల్ల । గొర్లాల బిగ్గెన గొసుగుతారు
@@ -1823,63 +1694,57 @@
 వాసివేలంట తమాసగా ఱొమ్మున । దప్పెట వేసుక తట్టలేరు</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('నె', '|'), ('గాం', 'U'), ('డ్లం', 'U'), ('ట', '|'), ('రో', 'U'), ('యీం', 'U'), ('డ్ల', '|'), ('ను', '|'), ('బ', '|'), ('గి', '|'), ('సా', 'U'), ('ర', '|'), ('సె', 'U'), ('న్నం', 'U'), ('గి', '|'), ('సు', 'U'), ('ద్దు', '|'), ('లు', '|'), ('సె', 'U'), ('ప్ప', '|'), ('లే', 'U'), ('రు', '|'), ('యే', 'U'), ('ద', '|'), ('గాం', 'U'), ('డ్లం', 'U'), ('ట', '|'), ('రో', 'U'), ('యీం', 'U'), ('డ్లిం', 'U'), ('ట', '|'), ('పొ', '|'), ('గ', '|'), ('వె', 'U'), ('ల్ల', '|'), ('గొ', 'U'), ('ర్లా', 'U'), ('ల', '|'), ('బి', 'U'), ('గ్గె', '|'), ('న', '|'), ('గొ', '|'), ('సు', '|'), ('గు', '|'), ('తా', 'U'), ('రు', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('గాం', 'U'), ('డ్లం', 'U'), ('ట', '|'), ('రో', 'U'), ('కా', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('టిం', 'U'), ('చు', '|'), ('క', '|'), ('చి', 'U'), ('న్న', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('రు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('లే', 'U'), ('రు', '|'), ('వా', 'U'), ('సి', '|'), ('వే', 'U'), ('లం', 'U'), ('ట', '|'), ('త', '|'), ('మా', 'U'), ('స', '|'), ('గా', 'U'), ('ఱొ', 'U'), ('మ్ము', '|'), ('న', '|'), ('ద', 'U'), ('ప్పె', '|'), ('ట', '|'), ('వే', 'U'), ('సు', '|'), ('క', '|'), ('త', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అనుచు విప్రోత్తములఁ గన్నయట్టివేళ । మోటుమనుజు లనియెడి మాటలిట్లు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>అనుచు విప్రోత్తములఁ గన్నయట్టివేళ । మోటుమనుజు లనియెడి మాటలిట్లు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('చు', '|'), ('వి', 'U'), ('ప్రో', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('గ', 'U'), ('న్న', '|'), ('య', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ళ', '|'), ('మో', 'U'), ('టు', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('ని', '|'), ('యె', '|'), ('డి', '|'), ('మా', 'U'), ('ట', '|'), ('లి', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>ఉండి యియ్యని లోభి రండకొంపను శ్రాద్ధ- । మైననేమి శుభంబులైననేమి
 చండాలు వాకిట వండుకొన్నది యంబ- । లైననే మతిరసాలైననేమి
@@ -1887,63 +1752,57 @@
 కులనాశకుండయిన కొడుకు దీర్ఘాయువై । యుండిననేమి లేకున్ననేమి</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('ఉం', 'U'), ('డి', '|'), ('యి', 'U'), ('య్య', '|'), ('ని', '|'), ('లో', 'U'), ('భి', '|'), ('రం', 'U'), ('డ', '|'), ('కొం', 'U'), ('ప', '|'), ('ను', 'U'), ('శ్రా', 'U'), ('ద్ధ', '|'), ('మై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('శు', '|'), ('భం', 'U'), ('బు', '|'), ('లై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('వా', 'U'), ('కి', '|'), ('ట', '|'), ('వం', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ది', '|'), ('యం', 'U'), ('బ', '|'), ('లై', 'U'), ('న', '|'), ('నే', 'U'), ('మ', '|'), ('తి', '|'), ('ర', '|'), ('సా', 'U'), ('లై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('మా', 'U'), ('చ', '|'), ('క', 'U'), ('మ్మ', '|'), ('స', '|'), ('మ', 'U'), ('ర్త', '|'), ('మ', '|'), ('ఖ', '|'), ('పు', 'U'), ('బ్బ', '|'), ('హ', 'U'), ('స్త', '|'), ('చి', 'U'), ('త్త', '|'), ('యి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('పు', '|'), ('న', 'U'), ('ర్వ', '|'), ('సై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('కు', '|'), ('ల', '|'), ('నా', 'U'), ('శ', '|'), ('కుం', 'U'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', '|'), ('వై', 'U'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బవరమునఁ జొచ్చి పొడువని బంటుచేతి । దాయుధంబైననేమి తెడ్డయిననేమి
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>బవరమునఁ జొచ్చి పొడువని బంటుచేతి । దాయుధంబైననేమి తెడ్డయిననేమి
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('పొ', '|'), ('డు', '|'), ('వ', '|'), ('ని', '|'), ('బం', 'U'), ('టు', '|'), ('చే', 'U'), ('తి', '|'), ('దా', 'U'), ('యు', '|'), ('ధం', 'U'), ('బై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('తె', 'U'), ('డ్డ', '|'), ('యి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>ఎనుబోతు వానకు జంకునా యెంతైన । వెలహెచ్చుగల తేజి వెఱచుఁగాక
 గుణహీనుఁడెంతైన గులముకు వెఱచునా । గుణవంతుఁ డెప్పుడు వెఱచుఁగాక
@@ -1951,63 +1810,57 @@
 ఱంకుముండ బజారురచ్చకు వెఱచునా । వీరపతివ్రత వెఱచుఁగాక</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('ను', '|'), ('బో', 'U'), ('తు', '|'), ('వా', 'U'), ('న', '|'), ('కు', '|'), ('జం', 'U'), ('కు', '|'), ('నా', 'U'), ('యెం', 'U'), ('తై', 'U'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('హె', 'U'), ('చ్చు', '|'), ('గ', '|'), ('ల', '|'), ('తే', 'U'), ('జి', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('గా', 'U'), ('క', '|'), ('గు', '|'), ('ణ', '|'), ('హీ', 'U'), ('ను', '|'), ('డెం', 'U'), ('తై', 'U'), ('న', '|'), ('గు', '|'), ('ల', '|'), ('ము', '|'), ('కు', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('నా', 'U'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('డె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('గా', 'U'), ('క', '|'), ('గ', '|'), ('డు', '|'), ('సై', 'U'), ('న', '|'), ('పె', '|'), ('ను', '|'), ('మొ', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('లి', '|'), ('కి', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('నా', 'U'), ('వి', '|'), ('రు', '|'), ('గ', '|'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('మ్రా', 'U'), ('ను', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('గా', 'U'), ('క', '|'), ('ఱం', 'U'), ('కు', '|'), ('ముం', 'U'), ('డ', '|'), ('బ', '|'), ('జా', 'U'), ('రు', '|'), ('ర', 'U'), ('చ్చ', '|'), ('కు', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('నా', 'U'), ('వీ', 'U'), ('ర', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('త', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('గా', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఘనతగల్గిన దొరబిడ్డ గాక సుకవి । నోటితిట్లకు వెఱచునా మోటువాడు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ఘనతగల్గిన దొరబిడ్డ గాక సుకవి । నోటితిట్లకు వెఱచునా మోటువాడు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('త', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('బి', 'U'), ('డ్డ', '|'), ('గా', 'U'), ('క', '|'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('నో', 'U'), ('టి', '|'), ('తి', 'U'), ('ట్ల', '|'), ('కు', '|'), ('వె', '|'), ('ఱ', '|'), ('చు', '|'), ('నా', 'U'), ('మో', 'U'), ('టు', '|'), ('వా', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>ఏదంబులకు మంగలెంకఁడే దగునేటు । ప్రశ్న సెప్పను మాల పాపిగాఁడు
 కయితముల్ సెప్ప బోగము చినెంకఁడె సరి । సంగీత యిద్దెకు సాకలెల్లి
@@ -2015,63 +1868,57 @@
 యీణె గొట్టను కోమటీరేశమే సరి । మతి రతాలకు మాఱుమనుము లచ్చి</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('లెం', 'U'), ('క', '|'), ('డే', 'U'), ('ద', '|'), ('గు', '|'), ('నే', 'U'), ('టు', 'U'), ('ప్ర', 'U'), ('శ్న', '|'), ('సె', 'U'), ('ప్ప', '|'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('పా', 'U'), ('పి', '|'), ('గా', 'U'), ('డు', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('ముల్', 'U'), ('సె', 'U'), ('ప్ప', '|'), ('బో', 'U'), ('గ', '|'), ('ము', '|'), ('చి', '|'), ('నెం', 'U'), ('క', '|'), ('డె', '|'), ('స', '|'), ('రి', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('యి', 'U'), ('ద్దె', '|'), ('కు', '|'), ('సా', 'U'), ('క', '|'), ('లె', 'U'), ('ల్లి', '|'), ('చా', 'U'), ('త్ర', '|'), ('పు', '|'), ('రం', 'U'), ('డా', 'U'), ('ల', '|'), ('సా', 'U'), ('తా', 'U'), ('న', '|'), ('నం', 'U'), ('త', 'U'), ('మ్మ', '|'), ('సిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('పె', '|'), ('ద', 'U'), ('క్క', '|'), ('యీ', 'U'), ('ణె', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('ను', '|'), ('కో', 'U'), ('మ', '|'), ('టీ', 'U'), ('రే', 'U'), ('శ', '|'), ('మే', 'U'), ('స', '|'), ('రి', '|'), ('మ', '|'), ('తి', '|'), ('ర', '|'), ('తా', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('ఱు', '|'), ('మ', '|'), ('ను', '|'), ('ము', '|'), ('ల', 'U'), ('చ్చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అనుచు మూర్ఖాళి యీ రీతి ననుదినంబు । భూతలమునందు వచియింత్రు నీతిలేక
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>అనుచు మూర్ఖాళి యీ రీతి ననుదినంబు । భూతలమునందు వచియింత్రు నీతిలేక
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('చు', '|'), ('మూ', 'U'), ('ర్ఖా', 'U'), ('ళి', '|'), ('యీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('వ', '|'), ('చి', '|'), ('యిం', 'U'), ('త్రు', '|'), ('నీ', 'U'), ('తి', '|'), ('లే', 'U'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>ఒంటిజందెము ద్వాదశోర్ధ్వపుండ్రంబులు । నమరిన పసపు కృష్ణాజినంబు
 దండంబు గోచి కమండలు వక్షమా- । లిక పుస్తకంబు పాదుకలు గొడుగు
@@ -2079,63 +1926,57 @@
 వేదమంత్రములు వినోదమౌ నపరంజి । పడగకుండలములు పంచశిఖల-</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ఒం', 'U'), ('టి', '|'), ('జం', 'U'), ('దె', '|'), ('ము', 'U'), ('ద్వా', 'U'), ('ద', '|'), ('శో', 'U'), ('ర్ధ్వ', '|'), ('పుం', 'U'), ('డ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('న', '|'), ('మ', '|'), ('రి', '|'), ('న', '|'), ('ప', '|'), ('స', '|'), ('పు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('జి', '|'), ('నం', 'U'), ('బు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('గో', 'U'), ('చి', '|'), ('క', '|'), ('మం', 'U'), ('డ', '|'), ('లు', '|'), ('వ', 'U'), ('క్ష', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('పు', 'U'), ('స్త', '|'), ('కం', 'U'), ('బు', '|'), ('పా', 'U'), ('దు', '|'), ('క', '|'), ('లు', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('ద', 'U'), ('ర్భ', '|'), ('మౌం', 'U'), ('జీ', 'U'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('టి', '|'), ('క', '|'), ('రా', 'U'), ('న', '|'), ('చె', '|'), ('వి', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళం', 'U'), ('బు', '|'), ('వే', 'U'), ('ద', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('మౌ', 'U'), ('న', '|'), ('ప', '|'), ('రం', 'U'), ('జి', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('పం', 'U'), ('చ', '|'), ('శి', '|'), ('ఖ', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తో నరుగుదెంచి బలిని భూదాన మడిగి । తెచ్చి సురపతి కిచ్చితి విచ్చతోడ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>తో నరుగుదెంచి బలిని భూదాన మడిగి । తెచ్చి సురపతి కిచ్చితి విచ్చతోడ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('తో', 'U'), ('న', '|'), ('రు', '|'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('బ', '|'), ('లి', '|'), ('ని', '|'), ('భూ', 'U'), ('దా', 'U'), ('న', '|'), ('మ', '|'), ('డి', '|'), ('గి', '|'), ('తె', 'U'), ('చ్చి', '|'), ('సు', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('తో', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>కనుముక్కుతీరు చక్కనికాంతి పొందిన । శుభలక్షణంబులు సూక్ష్మబుద్ధి
 ఘనత వివేకవిక్రమము బాంధవ్యంబు । మర్మవిలాసంబు మానుషంబు
@@ -2144,64 +1985,58 @@
 స్నానసంధ్యాద్యనుష్ఠానసంపన్నత । గాంభీర్యము పరోపకారచింత</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ను', '|'), ('ము', 'U'), ('క్కు', '|'), ('తీ', 'U'), ('రు', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('కాం', 'U'), ('తి', '|'), ('పొం', 'U'), ('ది', '|'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('సూ', 'U'), ('క్ష్మ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('బాం', 'U'), ('ధ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('మ', '|'), ('ర్మ', '|'), ('వి', '|'), ('లా', 'U'), ('సం', 'U'), ('బు', '|'), ('మా', 'U'), ('ను', '|'), ('షం', 'U'), ('బు', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('వా', 'U'), ('చా', 'U'), ('ల', '|'), ('త', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('చ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('వి', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('జ', '|'), ('వి', '|'), ('త', '|'), ('ర', '|'), ('ణ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('యం', 'U'), ('దు', '|'), ('భ', '|'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('తి', '|'), ('యు', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నో', 'U'), ('ర్పు', 'U'), ('స్నా', 'U'), ('న', '|'), ('సం', 'U'), ('ధ్యా', 'U'), ('ద్య', '|'), ('ను', 'U'), ('ష్ఠా', 'U'), ('న', '|'), ('సం', 'U'), ('ప', 'U'), ('న్న', '|'), ('త', '|'), ('గాం', 'U'), ('భీ', 'U'), ('ర్య', '|'), ('ము', '|'), ('ప', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('చిం', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>గలుగు మంత్రిని జేర్చుకొన్నట్టి దొరకుఁ । గీర్తి సౌఖ్యము సకల దిగ్విజయము సిరి
 గలుగుచుండును దోషము ల్దొలగిపోవు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లు', '|'), ('గు', '|'), ('మం', 'U'), ('త్రి', '|'), ('ని', '|'), ('జే', 'U'), ('ర్చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('దొ', '|'), ('ర', '|'), ('కు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('ది', 'U'), ('గ్వి', '|'), ('జ', '|'), ('య', '|'), ('ము', '|'), ('సి', '|'), ('రి', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('ను', '|'), ('దో', 'U'), ('ష', '|'), ('ము', 'U'), ('ల్దొ', '|'), ('ల', '|'), ('గి', '|'), ('పో', 'U'), ('వు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>కన్నెనిచ్చినవానిఁ గబ్బమిచ్చినవాని । సొంపుగా నింపుగాఁ జూడవలయు
 అన్నమిచ్చినవాని నాదరించినవాని । దాతఁగాఁ దండ్రిఁగా దలపవలయు
@@ -2209,63 +2044,57 @@
 కొల్వు గాచినవానిఁ గూర్మి చూపినవాని । సుతునిగా హితునిగాఁ జూడవలయు</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్నె', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('గ', 'U'), ('బ్బ', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('సొం', 'U'), ('పు', '|'), ('గా', 'U'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('అ', 'U'), ('న్న', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('నా', 'U'), ('ద', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('దా', 'U'), ('త', '|'), ('గా', 'U'), ('దం', 'U'), ('డ్రి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్పి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('వె', '|'), ('ఱ', '|'), ('పు', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('గా', 'U'), ('హ', '|'), ('రు', '|'), ('ని', '|'), ('గా', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('కొ', 'U'), ('ల్వు', '|'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('చూ', 'U'), ('పి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('సు', '|'), ('తు', '|'), ('ని', '|'), ('గా', 'U'), ('హి', '|'), ('తు', '|'), ('ని', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిట్టివారలపైఁ బ్రేమ పెట్టుకొనక । కసరుబెట్టిన మనుజుండు గనఁడు కీర్తి
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>నిట్టివారలపైఁ బ్రేమ పెట్టుకొనక । కసరుబెట్టిన మనుజుండు గనఁడు కీర్తి
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('పై', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('పె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('క', '|'), ('క', '|'), ('స', '|'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('గ', '|'), ('న', '|'), ('డు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>కలకొద్దిలోపలఁ కడదెచ్చి మన్నించి । యిచ్చినవారి దీవించవలయు
 సిరిచేత మత్తుఁడై పరు నెఱుంగని లోభి । దేబెను పెళ్ళునఁ దిట్టవలయుఁ
@@ -2273,63 +2102,57 @@
 దీవించినను యల దీర్ఘాయును బొంది । బీదైన నందలం బెక్కవలయు</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('కొ', 'U'), ('ద్ది', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('దె', 'U'), ('చ్చి', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('దీ', 'U'), ('విం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('సి', '|'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('మ', 'U'), ('త్తు', '|'), ('డై', 'U'), ('ప', '|'), ('రు', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('లో', 'U'), ('భి', '|'), ('దే', 'U'), ('బె', '|'), ('ను', '|'), ('పె', 'U'), ('ళ్ళు', '|'), ('న', '|'), ('ది', 'U'), ('ట్ట', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ది', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('ఖే', 'U'), ('ద', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('యిం', 'U'), ('ద్రు', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('బి', 'U'), ('చ్చ', '|'), ('మె', 'U'), ('త్త', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('దీ', 'U'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('య', '|'), ('ల', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', '|'), ('ను', '|'), ('బొం', 'U'), ('ది', '|'), ('బీ', 'U'), ('దై', 'U'), ('న', '|'), ('నం', 'U'), ('ద', '|'), ('లం', 'U'), ('బె', 'U'), ('క్క', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నట్టియాతఁడు సుకవి కానట్టి యతనిఁ । గవియనఁగనేల కవిమాలకాకి గాఁడె
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>నట్టియాతఁడు సుకవి కానట్టి యతనిఁ । గవియనఁగనేల కవిమాలకాకి గాఁడె
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('త', '|'), ('డు', '|'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('కా', 'U'), ('న', 'U'), ('ట్టి', '|'), ('య', '|'), ('త', '|'), ('ని', '|'), ('గ', '|'), ('వి', '|'), ('య', '|'), ('న', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('క', '|'), ('వి', '|'), ('మా', 'U'), ('ల', '|'), ('కా', 'U'), ('కి', '|'), ('గా', 'U'), ('డె', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>కొండసిగల్ తలగుడ్డలు పాకోళ్ళు । చలువవస్త్రములు బొజ్జలు కఠార్లు
 కాసెకోకలు గంపెడేసి జందెములును । దలవార్లు జలతారు డాలువార్లు
@@ -2337,64 +2160,58 @@
 దాడీలు వెదురాకు తరహా సొగసుకోర్లు । నంతకు దొరగార్లటంచుఁ బేర్లు</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('డ', '|'), ('సి', '|'), ('గల్', 'U'), ('త', '|'), ('ల', '|'), ('గు', 'U'), ('డ్డ', '|'), ('లు', '|'), ('పా', 'U'), ('కో', 'U'), ('ళ్ళు', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('క', '|'), ('ఠా', 'U'), ('ర్లు', '|'), ('కా', 'U'), ('సె', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('గం', 'U'), ('పె', '|'), ('డే', 'U'), ('సి', '|'), ('జం', 'U'), ('దె', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('వా', 'U'), ('ర్లు', '|'), ('జ', '|'), ('ల', '|'), ('తా', 'U'), ('రు', '|'), ('డా', 'U'), ('లు', '|'), ('వా', 'U'), ('ర్లు', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('తి', '|'), ('రు', '|'), ('చూ', 'U'), ('ర్ణ', '|'), ('చి', 'U'), ('న్నె', '|'), ('లు', '|'), ('కు', 'U'), ('ట్టా', 'U'), ('లు', '|'), ('జొ', 'U'), ('ల్లు', '|'), ('వీ', 'U'), ('డె', 'U'), ('మ్ము', '|'), ('లు', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('డీ', 'U'), ('లు', '|'), ('వె', '|'), ('దు', '|'), ('రా', 'U'), ('కు', '|'), ('త', '|'), ('ర', '|'), ('హా', 'U'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('కో', 'U'), ('ర్లు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('దొ', '|'), ('ర', '|'), ('గా', 'U'), ('ర్ల', '|'), ('టం', 'U'), ('చు', '|'), ('బే', 'U'), ('ర్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>సమరమున జొచ్చి ఱొమ్ముగాయములకోర్చి । శాత్రవుల ద్రుంచనేరని క్షత్రియులకు
 నేల కాల్పనె యీ వట్టి యెమ్మెలెల్ల
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('గా', 'U'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('కో', 'U'), ('ర్చి', '|'), ('శా', 'U'), ('త్ర', '|'), ('వు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', 'U'), ('క్ష', 'U'), ('త్రి', '|'), ('యు', '|'), ('ల', '|'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('కా', 'U'), ('ల్ప', '|'), ('నె', '|'), ('యీ', 'U'), ('వ', 'U'), ('ట్టి', '|'), ('యె', 'U'), ('మ్మె', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>కోమటి యత్యంతక్షామము గోరును । ధారుణి క్షితిపతి ధనము గోరు
 ధరఁ గరణము గ్రామదండుగ గోరును । జంబుకంబేవేళ శవము గోరు
@@ -2402,63 +2219,57 @@
 అతిశూరులగువారు ధృతిని గోరుచునుందు । రాఁబోతు వేదల యశము గోరుఁ</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('మ', '|'), ('టి', '|'), ('య', 'U'), ('త్యం', 'U'), ('త', 'U'), ('క్షా', 'U'), ('మ', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('ధా', 'U'), ('రు', '|'), ('ణి', 'U'), ('క్షి', '|'), ('తి', '|'), ('ప', '|'), ('తి', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('ధ', '|'), ('ర', '|'), ('గ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('దం', 'U'), ('డు', '|'), ('గ', '|'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('జం', 'U'), ('బు', '|'), ('కం', 'U'), ('బే', 'U'), ('వే', 'U'), ('ళ', '|'), ('శ', '|'), ('వ', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('డౌ', 'U'), ('వై', 'U'), ('ద్యుం', 'U'), ('డు', 'U'), ('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('సా', 'U'), ('మా', 'U'), ('న్య', '|'), ('వి', 'U'), ('ప్రుం', 'U'), ('డు', '|'), ('చా', 'U'), ('వు', '|'), ('గో', 'U'), ('రు', '|'), ('అ', '|'), ('తి', '|'), ('శూ', 'U'), ('రు', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('రు', '|'), ('ధృ', '|'), ('తి', '|'), ('ని', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('నుం', 'U'), ('దు', '|'), ('రా', 'U'), ('బో', 'U'), ('తు', '|'), ('వే', 'U'), ('ద', '|'), ('ల', '|'), ('య', '|'), ('శ', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాఁపువానికి గ్రామాధికారమైన । దేవభూసురవృత్తులు దియ్యఁగోరు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>గాఁపువానికి గ్రామాధికారమైన । దేవభూసురవృత్తులు దియ్యఁగోరు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('పు', '|'), ('వా', 'U'), ('ని', '|'), ('కి', 'U'), ('గ్రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('వృ', 'U'), ('త్తు', '|'), ('లు', '|'), ('ది', 'U'), ('య్య', '|'), ('గో', 'U'), ('రు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>కండచక్కెర పానకముఁ బోసి పెంచిన । ముషిచెట్టుకుఁ దీపి పుట్టబోదు
 పాలమున్నీటి లోపల ముంచి కశిగినఁ । గాకిఱెక్కకుఁ దెల్పు గలుగఁబోదు
@@ -2466,63 +2277,57 @@
 వెదురుబద్దలు చుట్టు వేసి బిగించినఁ । గుక్కతోఁకకు వంక కుదురబోదు</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('డ', '|'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('పా', 'U'), ('న', '|'), ('క', '|'), ('ము', '|'), ('బో', 'U'), ('సి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('ము', '|'), ('షి', '|'), ('చె', 'U'), ('ట్టు', '|'), ('కు', '|'), ('దీ', 'U'), ('పి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('బో', 'U'), ('దు', '|'), ('పా', 'U'), ('ల', '|'), ('ము', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ముం', 'U'), ('చి', '|'), ('క', '|'), ('శి', '|'), ('గి', '|'), ('న', '|'), ('గా', 'U'), ('కి', '|'), ('ఱె', 'U'), ('క్క', '|'), ('కు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ప', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('వి', '|'), ('స', '|'), ('రి', '|'), ('న', '|'), ('దే', 'U'), ('లు', '|'), ('కొం', 'U'), ('డి', '|'), ('వి', '|'), ('సం', 'U'), ('బు', '|'), ('తి', 'U'), ('య్య', '|'), ('బో', 'U'), ('దు', '|'), ('వె', '|'), ('దు', '|'), ('రు', '|'), ('బ', 'U'), ('ద్ద', '|'), ('లు', '|'), ('చు', 'U'), ('ట్టు', '|'), ('వే', 'U'), ('సి', '|'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('న', '|'), ('గు', 'U'), ('క్క', '|'), ('తో', 'U'), ('క', '|'), ('కు', '|'), ('వం', 'U'), ('క', '|'), ('కు', '|'), ('దు', '|'), ('ర', '|'), ('బో', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మంచిమాటల నెంత బోధించి చెప్ప । మడియ రండకుని గుణంబు విడువబోదు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>మంచిమాటల నెంత బోధించి చెప్ప । మడియ రండకుని గుణంబు విడువబోదు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('నెం', 'U'), ('త', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('మ', '|'), ('డి', '|'), ('య', '|'), ('రం', 'U'), ('డ', '|'), ('కు', '|'), ('ని', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('బో', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>ఖేదమోదంబుల భేదంబు తెలియక । గోలనై కడిపితిఁ గొన్నినాళ్ళు
 పరకామినుల కాసపడి పాపమెఱుఁగక । కొమరుప్రాయంబునఁ గొన్నినాళ్ళు
@@ -2530,63 +2335,57 @@
 ఘోరమైనట్టి సంసారసాగర మీఁదు- । కొనుచుఁ బామరముచేఁ గొన్నినాళ్ళు</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ఖే', 'U'), ('ద', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('భే', 'U'), ('దం', 'U'), ('బు', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('క', '|'), ('గో', 'U'), ('ల', '|'), ('నై', 'U'), ('క', '|'), ('డి', '|'), ('పి', '|'), ('తి', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|'), ('ప', '|'), ('ర', '|'), ('కా', 'U'), ('మి', '|'), ('ను', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డి', '|'), ('పా', 'U'), ('ప', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('కొ', '|'), ('మ', '|'), ('రు', 'U'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|'), ('ఉ', '|'), ('ద', '|'), ('ర', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('ర్వీ', 'U'), ('శు', '|'), ('ల', '|'), ('ను', '|'), ('వే', 'U'), ('డి', '|'), ('కొ', '|'), ('ద', '|'), ('వ', '|'), ('చే', 'U'), ('గుం', 'U'), ('దు', '|'), ('చు', '|'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|'), ('ఘో', 'U'), ('ర', '|'), ('మై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మీ', 'U'), ('దు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('గొ', 'U'), ('న్ని', '|'), ('నా', 'U'), ('ళ్ళు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జన్మమెత్తుట మొదలు నీ సరణిఁ గడచె । నెటుల గృపఁ జూచెదో గతం బెంచఁబోకు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>జన్మమెత్తుట మొదలు నీ సరణిఁ గడచె । నెటుల గృపఁ జూచెదో గతం బెంచఁబోకు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('జ', 'U'), ('న్మ', '|'), ('మె', 'U'), ('త్తు', '|'), ('ట', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('నీ', 'U'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('గ', '|'), ('డ', '|'), ('చె', '|'), ('నె', '|'), ('టు', '|'), ('ల', '|'), ('గృ', '|'), ('ప', '|'), ('జూ', 'U'), ('చె', '|'), ('దో', 'U'), ('గ', '|'), ('తం', 'U'), ('బెం', 'U'), ('చ', '|'), ('బో', 'U'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>గజముపై చౌడోలు గాడిదకెత్తితే । మోయునా పడవేసి కూయుఁ గాక
 చిలుక పంజరములోపల గూబ నుంచితే । పలుకునా భయపడి యులుకుఁ గాక
@@ -2594,63 +2393,57 @@
 ధర్మకార్యములలో దరిబేసి నుంచితే । యిచ్చునా తన్నుక చచ్చుఁ గాక</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('జ', '|'), ('ము', '|'), ('పై', 'U'), ('చౌ', 'U'), ('డో', 'U'), ('లు', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('కె', 'U'), ('త్తి', '|'), ('తే', 'U'), ('మో', 'U'), ('యు', '|'), ('నా', 'U'), ('ప', '|'), ('డ', '|'), ('వే', 'U'), ('సి', '|'), ('కూ', 'U'), ('యు', '|'), ('గా', 'U'), ('క', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గూ', 'U'), ('బ', '|'), ('నుం', 'U'), ('చి', '|'), ('తే', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('నా', 'U'), ('భ', '|'), ('య', '|'), ('ప', '|'), ('డి', '|'), ('యు', '|'), ('లు', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('కు', 'U'), ('క్క', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('ము', '|'), ('లో', 'U'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('తే', 'U'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డు', '|'), ('నా', 'U'), ('తో', 'U'), ('ళ్ళు', '|'), ('కొ', '|'), ('ఱు', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('ధ', '|'), ('ర్మ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('ద', '|'), ('రి', '|'), ('బే', 'U'), ('సి', '|'), ('నుం', 'U'), ('చి', '|'), ('తే', 'U'), ('యి', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('త', 'U'), ('న్ను', '|'), ('క', '|'), ('చ', 'U'), ('చ్చు', '|'), ('గా', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చెడి బ్రతికినట్టి శుంఠను జేర్చుకొనిన । వాఁడు చెడు నుంచుకొన్నట్టివాఁడు జెడును
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>చెడి బ్రతికినట్టి శుంఠను జేర్చుకొనిన । వాఁడు చెడు నుంచుకొన్నట్టివాఁడు జెడును
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('డి', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('న', 'U'), ('ట్టి', '|'), ('శుం', 'U'), ('ఠ', '|'), ('ను', '|'), ('జే', 'U'), ('ర్చు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('డు', '|'), ('నుం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('డు', '|'), ('జె', '|'), ('డు', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>గోవుల నఱకంగఁ గోసి వండుక తిను । మాలమాదిగలు భూపాలురయిరి
 మానాభిమానముల్ మాని ప్రవర్తించు । మంకుగులాములు మంత్రులైరి
@@ -2658,63 +2451,57 @@
 బాజారిఱంకుకైఁ బంచాయతీ చెప్పు । పాతలంజెలు వీరమాతలైరి</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('వు', '|'), ('ల', '|'), ('న', '|'), ('ఱ', '|'), ('కం', 'U'), ('గ', '|'), ('గో', 'U'), ('సి', '|'), ('వం', 'U'), ('డు', '|'), ('క', '|'), ('తి', '|'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('మా', 'U'), ('ది', '|'), ('గ', '|'), ('లు', '|'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('ర', '|'), ('యి', '|'), ('రి', '|'), ('మా', 'U'), ('నా', 'U'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ముల్', 'U'), ('మా', 'U'), ('ని', 'U'), ('ప్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('మం', 'U'), ('కు', '|'), ('గు', '|'), ('లా', 'U'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్రు', '|'), ('లై', 'U'), ('రి', '|'), ('అ', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('పు', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('సం', 'U'), ('క', '|'), ('రు', '|'), ('లు', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('లై', 'U'), ('రి', '|'), ('బా', 'U'), ('జా', 'U'), ('రి', '|'), ('ఱం', 'U'), ('కు', '|'), ('కై', 'U'), ('బం', 'U'), ('చా', 'U'), ('య', '|'), ('తీ', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('పా', 'U'), ('త', '|'), ('లం', 'U'), ('జె', '|'), ('లు', '|'), ('వీ', 'U'), ('ర', '|'), ('మా', 'U'), ('త', '|'), ('లై', 'U'), ('రి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అహహ! కలియుగధర్మ మేమనఁగ వచ్చు । నన్నిటికి నోర్చి యూరక యుండదగునే
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>అహహ! కలియుగధర్మ మేమనఁగ వచ్చు । నన్నిటికి నోర్చి యూరక యుండదగునే
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('హ', '|'), ('హ', '|'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మే', 'U'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('న్ని', '|'), ('టి', '|'), ('కి', '|'), ('నో', 'U'), ('ర్చి', '|'), ('యూ', 'U'), ('ర', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('ద', '|'), ('గు', '|'), ('నే', 'U'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>చదువుచుండెడివేళ సభలోనఁ గూర్చుండి । దున్నపోతుల కొడుకెన్నుఁ దప్పు
 విద్యాధికుల కిచ్చువేళడ్డుపడి మాల- । ధగిడీల కొడుకు వద్దనుచుఁ జెప్పు
@@ -2722,63 +2509,57 @@
 బిరుదుగల్గిన యింటఁ బెరిగినఁ గొణతంబు । విప్పినంతనె కుక్క వెదకుఁ జెప్పు</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('దు', '|'), ('వు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('స', '|'), ('భ', '|'), ('లో', 'U'), ('న', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('దు', 'U'), ('న్న', '|'), ('పో', 'U'), ('తు', '|'), ('ల', '|'), ('కొ', '|'), ('డు', '|'), ('కె', 'U'), ('న్ను', '|'), ('ద', 'U'), ('ప్పు', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ధి', '|'), ('కు', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చు', '|'), ('వే', 'U'), ('ళ', 'U'), ('డ్డు', '|'), ('ప', '|'), ('డి', '|'), ('మా', 'U'), ('ల', '|'), ('ధ', '|'), ('గి', '|'), ('డీ', 'U'), ('ల', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ను', '|'), ('చు', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ధ', '|'), ('న', '|'), ('మె', 'U'), ('క్కు', '|'), ('డు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('తి', '|'), ('న', '|'), ('లే', 'U'), ('క', '|'), ('యే', 'U'), ('డ్చె', '|'), ('డి', '|'), ('పె', '|'), ('ను', '|'), ('లు', 'U'), ('బ్ధు', '|'), ('డ', 'U'), ('ర్థు', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('న', '|'), ('ఱొ', 'U'), ('ప్పు', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('యిం', 'U'), ('ట', '|'), ('బె', '|'), ('రి', '|'), ('గి', '|'), ('న', '|'), ('గొ', '|'), ('ణ', '|'), ('తం', 'U'), ('బు', '|'), ('వి', 'U'), ('ప్పి', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('కు', 'U'), ('క్క', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('జె', 'U'), ('ప్పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రాజసభలందుఁ బండితరత్నములకుఁ । బనులు చెఱచును నొక్కొక్క ప్రల్లదుండు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>రాజసభలందుఁ బండితరత్నములకుఁ । బనులు చెఱచును నొక్కొక్క ప్రల్లదుండు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', '|'), ('స', '|'), ('భ', '|'), ('లం', 'U'), ('దు', '|'), ('బం', 'U'), ('డి', '|'), ('త', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('చె', '|'), ('ఱ', '|'), ('చు', '|'), ('ను', '|'), ('నొ', 'U'), ('క్కొ', 'U'), ('క్క', 'U'), ('ప్ర', 'U'), ('ల్ల', '|'), ('దుం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>జన్నిరోగికి బఱ్ఱెజున్ను వేసినయట్లు । పిల్లినెత్తిన వెన్నఁ బెట్టినట్లు
 కుక్కపోతుకు నెయ్యికూడు వేసినయట్లు । చెడ్డజాతికి విద్య చెప్పినట్లు
@@ -2786,63 +2567,57 @@
 ధనపిశాచికి సుదర్శనము గన్పడినట్లు । చలిచీమలకు మ్రుగ్గు చల్లినట్లు</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('జ', 'U'), ('న్ని', '|'), ('రో', 'U'), ('గి', '|'), ('కి', '|'), ('బ', 'U'), ('ఱ్ఱె', '|'), ('జు', 'U'), ('న్ను', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పి', 'U'), ('ల్లి', '|'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కు', 'U'), ('క్క', '|'), ('పో', 'U'), ('తు', '|'), ('కు', '|'), ('నె', 'U'), ('య్యి', '|'), ('కూ', 'U'), ('డు', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('చె', 'U'), ('డ్డ', '|'), ('జా', 'U'), ('తి', '|'), ('కి', '|'), ('వి', 'U'), ('ద్య', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('నొ', '|'), ('స', '|'), ('ట', '|'), ('వి', '|'), ('భూ', 'U'), ('ది', '|'), ('రా', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('గూ', 'U'), ('బ', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('ది', 'U'), ('వ్వె', '|'), ('గూ', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ధ', '|'), ('న', '|'), ('పి', '|'), ('శా', 'U'), ('చి', '|'), ('కి', '|'), ('సు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ము', '|'), ('గ', 'U'), ('న్ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చ', '|'), ('లి', '|'), ('చీ', 'U'), ('మ', '|'), ('ల', '|'), ('కు', '|'), ('మ్రు', 'U'), ('గ్గు', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సురభిబదనిక పాముకుఁ జూపినట్లు । దుష్టునకు నీతి వెగటుగాఁ దోఁచునయ్య
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>సురభిబదనిక పాముకుఁ జూపినట్లు । దుష్టునకు నీతి వెగటుగాఁ దోఁచునయ్య
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('భి', '|'), ('బ', '|'), ('ద', '|'), ('ని', '|'), ('క', '|'), ('పా', 'U'), ('ము', '|'), ('కు', '|'), ('జూ', 'U'), ('పి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దు', 'U'), ('ష్టు', '|'), ('న', '|'), ('కు', '|'), ('నీ', 'U'), ('తి', '|'), ('వె', '|'), ('గ', '|'), ('టు', '|'), ('గా', 'U'), ('దో', 'U'), ('చు', '|'), ('న', 'U'), ('య్య', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>దొరవద్ద నెంత చౌదరియైన దన మనవి । తాఁ జెప్పఁ గార్యసాధకము లేదు
 రంభైన తన కుచకుంభముల్ దన చేత । దా బిగించిన సుఖతరము లేదు
@@ -2850,63 +2625,57 @@
 తనుఁ జేయు పుణ్య మింతని యొరులతోఁ జెప్ప । బ్రహ్మదేవునికైన ఫలము లేదు</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('వ', 'U'), ('ద్ద', '|'), ('నెం', 'U'), ('త', '|'), ('చౌ', 'U'), ('ద', '|'), ('రి', '|'), ('యై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('వి', '|'), ('తా', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ధ', '|'), ('క', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('రం', 'U'), ('భై', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('ముల్', 'U'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('దా', 'U'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('ఖ', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లో', 'U'), ('నా', 'U'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('న', 'U'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('తా', 'U'), ('జె', 'U'), ('ప్పు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('బె', 'U'), ('త్త', '|'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మిం', 'U'), ('త', '|'), ('ని', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('జె', 'U'), ('ప్ప', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గనుక నివియెల్ల నొరులచేఁ గాని భువిని । తమదు శక్తికి మంత్రతంత్రములు లేవు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>గనుక నివియెల్ల నొరులచేఁ గాని భువిని । తమదు శక్తికి మంత్రతంత్రములు లేవు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('ను', '|'), ('క', '|'), ('ని', '|'), ('వి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('నొ', '|'), ('రు', '|'), ('ల', '|'), ('చే', 'U'), ('గా', 'U'), ('ని', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('త', '|'), ('మ', '|'), ('దు', '|'), ('శ', 'U'), ('క్తి', '|'), ('కి', '|'), ('మం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('వు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>దొర సొమ్ము దిని కార్యసరణి వచ్చినవేళఁ । బాఱిపోఁ జూచిన బంటువాని
 నగ్నిసాక్షిగను బెండ్లాడిన తన యింతి । నేలక పరకాంత నెనయువానిఁ
@@ -2914,63 +2683,57 @@
 యిచ్చిన దీవెన లియ్యక యత్యాశ- । తో బోవు యాచకుండైనవాని</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('ది', '|'), ('ని', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('బా', 'U'), ('ఱి', '|'), ('పో', 'U'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('బం', 'U'), ('టు', '|'), ('వా', 'U'), ('ని', '|'), ('న', 'U'), ('గ్ని', '|'), ('సా', 'U'), ('క్షి', '|'), ('గ', '|'), ('ను', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డి', '|'), ('న', '|'), ('త', '|'), ('న', '|'), ('యిం', 'U'), ('తి', '|'), ('నే', 'U'), ('ల', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('నె', '|'), ('న', '|'), ('యు', '|'), ('వా', 'U'), ('ని', '|'), ('గ', 'U'), ('బ్బ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('జ', '|'), ('నా', 'U'), ('ళి', '|'), ('కి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('నే', 'U'), ('మి', 'U'), ('య్య', '|'), ('న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ని', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('దీ', 'U'), ('వె', '|'), ('న', '|'), ('లి', 'U'), ('య్య', '|'), ('క', '|'), ('య', 'U'), ('త్యా', 'U'), ('శ', '|'), ('తో', 'U'), ('బో', 'U'), ('వు', '|'), ('యా', 'U'), ('చ', '|'), ('కుం', 'U'), ('డై', 'U'), ('న', '|'), ('వా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గట్టిముచ్చెలతోఁ బడగొట్టి విఱుగ- । గట్టి పంపించవలయునుఁ గాలుపురికి
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>గట్టిముచ్చెలతోఁ బడగొట్టి విఱుగ- । గట్టి పంపించవలయునుఁ గాలుపురికి
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ట్టి', '|'), ('ము', 'U'), ('చ్చె', '|'), ('ల', '|'), ('తో', 'U'), ('బ', '|'), ('డ', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('వి', '|'), ('ఱు', '|'), ('గ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('పం', 'U'), ('పిం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('గా', 'U'), ('లు', '|'), ('పు', '|'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>నత్తు లేకుండిన ముత్తైదు ముక్కందు । మూలలందును ఋతుస్త్రీలయందు
 మధ్యపక్వస్థలమందుఁ గిన్నెరమీటు । నతనిచేఁ గుమ్మరి యావమందుఁ
@@ -2978,63 +2741,57 @@
 దీపము లేనట్టి దివ్వెకంబమునందు । మార్జాలముఖమందు మాంసమందు</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('త్తు', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ము', 'U'), ('త్తై', 'U'), ('దు', '|'), ('ము', 'U'), ('క్కం', 'U'), ('దు', '|'), ('మూ', 'U'), ('ల', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('ఋ', '|'), ('తు', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ప', 'U'), ('క్వ', 'U'), ('స్థ', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('గి', 'U'), ('న్నె', '|'), ('ర', '|'), ('మీ', 'U'), ('టు', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('చే', 'U'), ('గు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('యా', 'U'), ('వ', '|'), ('మం', 'U'), ('దు', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('పొ', '|'), ('గ', '|'), ('యం', 'U'), ('దు', '|'), ('గా', 'U'), ('ళ్ళ', '|'), ('చ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('లం', 'U'), ('దు', '|'), ('దొ', 'U'), ('మ్మ', '|'), ('రి', '|'), ('వా', 'U'), ('యిం', 'U'), ('చు', '|'), ('డో', 'U'), ('లు', '|'), ('నం', 'U'), ('దు', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('న', 'U'), ('ట్టి', '|'), ('ది', 'U'), ('వ్వె', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మా', 'U'), ('ర్జా', 'U'), ('ల', '|'), ('ము', '|'), ('ఖ', '|'), ('మం', 'U'), ('దు', '|'), ('మాం', 'U'), ('స', '|'), ('మం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ముదముతో సంతతము నీదు వదినెగారు । విడిది చేసియు వీరిని విడువకుండు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ముదముతో సంతతము నీదు వదినెగారు । విడిది చేసియు వీరిని విడువకుండు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('నీ', 'U'), ('దు', '|'), ('వ', '|'), ('ది', '|'), ('నె', '|'), ('గా', 'U'), ('రు', '|'), ('వి', '|'), ('డి', '|'), ('ది', '|'), ('చే', 'U'), ('సి', '|'), ('యు', '|'), ('వీ', 'U'), ('రి', '|'), ('ని', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>పంచాంగములు మోసి బడవాతనముఁ జేసి । పల్లెకూటము చెప్పి పసులఁ గాచి
 హీనవృత్తిని బిచ్చమెత్తి గోడలు దాఁటి । ముష్టికూళ్ళకుఁ బోయి మొత్తెలఁ బడి
@@ -3042,63 +2799,57 @@
 కన్నతొత్తులఁ దమ్మ కళ్ళెత్తి గతి చెడి । యాలుబిడ్డలఁ బరు లంటఁజేయు-</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('చాం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('మో', 'U'), ('సి', '|'), ('బ', '|'), ('డ', '|'), ('వా', 'U'), ('త', '|'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ప', 'U'), ('ల్లె', '|'), ('కూ', 'U'), ('ట', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పి', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('గా', 'U'), ('చి', '|'), ('హీ', 'U'), ('న', '|'), ('వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('బి', 'U'), ('చ్చ', '|'), ('మె', 'U'), ('త్తి', '|'), ('గో', 'U'), ('డ', '|'), ('లు', '|'), ('దా', 'U'), ('టి', '|'), ('ము', 'U'), ('ష్టి', '|'), ('కూ', 'U'), ('ళ్ళ', '|'), ('కు', '|'), ('బో', 'U'), ('యి', '|'), ('మొ', 'U'), ('త్తె', '|'), ('ల', '|'), ('బ', '|'), ('డి', '|'), ('వి', 'U'), ('స్త', 'U'), ('ళ్ళు', '|'), ('గు', 'U'), ('ట్టి', '|'), ('కో', 'U'), ('వె', '|'), ('ల', '|'), ('నం', 'U'), ('బి', '|'), ('వా', 'U'), ('కి', '|'), ('ట', '|'), ('గ', '|'), ('స', '|'), ('వూ', 'U'), ('డ్చి', '|'), ('లం', 'U'), ('జె', '|'), ('ల', '|'), ('కా', 'U'), ('ళ్ళు', '|'), ('పి', '|'), ('సి', '|'), ('కి', '|'), ('క', 'U'), ('న్న', '|'), ('తొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('ద', 'U'), ('మ్మ', '|'), ('క', 'U'), ('ళ్ళె', 'U'), ('త్తి', '|'), ('గ', '|'), ('తి', '|'), ('చె', '|'), ('డి', '|'), ('యా', 'U'), ('లు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ల', '|'), ('బ', '|'), ('రు', '|'), ('లం', 'U'), ('ట', '|'), ('జే', 'U'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నట్టి దేబెకు సిరి గల్గెనేని వాఁడు । కవివరుల దూఱు బంధువర్గముల గేరు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>నట్టి దేబెకు సిరి గల్గెనేని వాఁడు । కవివరుల దూఱు బంధువర్గముల గేరు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('ట్టి', '|'), ('దే', 'U'), ('బె', '|'), ('కు', '|'), ('సి', '|'), ('రి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('క', '|'), ('వి', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('దూ', 'U'), ('ఱు', '|'), ('బం', 'U'), ('ధు', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', '|'), ('గే', 'U'), ('రు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>పతికి మోహములేని సతి జవ్వనంబేల । పరిమళింపని సుమప్రచయమేల
 పండితకవివర్యులుండని సభ యేల । శశి లేని నక్షత్రసమితి యేల
@@ -3106,63 +2857,57 @@
 శుకపికరవ మొకించుక లేని వనమేల । రాజు పాలింపని రాజ్యమేల</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('కి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('జ', 'U'), ('వ్వ', '|'), ('నం', 'U'), ('బే', 'U'), ('ల', '|'), ('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళిం', 'U'), ('ప', '|'), ('ని', '|'), ('సు', '|'), ('మ', 'U'), ('ప్ర', '|'), ('చ', '|'), ('య', '|'), ('మే', 'U'), ('ల', '|'), ('పం', 'U'), ('డి', '|'), ('త', '|'), ('క', '|'), ('వి', '|'), ('వ', 'U'), ('ర్యు', '|'), ('లుం', 'U'), ('డ', '|'), ('ని', '|'), ('స', '|'), ('భ', '|'), ('యే', 'U'), ('ల', '|'), ('శ', '|'), ('శి', '|'), ('లే', 'U'), ('ని', '|'), ('న', 'U'), ('క్ష', 'U'), ('త్ర', '|'), ('స', '|'), ('మి', '|'), ('తి', '|'), ('యే', 'U'), ('ల', '|'), ('పు', 'U'), ('త్ర', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లే', 'U'), ('ని', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ని', '|'), ('క', '|'), ('లి', '|'), ('మే', 'U'), ('ల', '|'), ('క', '|'), ('ల', '|'), ('హం', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('కొ', '|'), ('ల', '|'), ('న', '|'), ('దే', 'U'), ('ల', '|'), ('శు', '|'), ('క', '|'), ('పి', '|'), ('క', '|'), ('ర', '|'), ('వ', '|'), ('మొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('లే', 'U'), ('ని', '|'), ('వ', '|'), ('న', '|'), ('మే', 'U'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('పా', 'U'), ('లిం', 'U'), ('ప', '|'), ('ని', '|'), ('రా', 'U'), ('జ్య', '|'), ('మే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రవివికాసంబు లేనట్టి దివసమేల । ధైర్యమొదవని వస్తాదుతనమదేల
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>రవివికాసంబు లేనట్టి దివసమేల । ధైర్యమొదవని వస్తాదుతనమదేల
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('వి', '|'), ('వి', '|'), ('కా', 'U'), ('సం', 'U'), ('బు', '|'), ('లే', 'U'), ('న', 'U'), ('ట్టి', '|'), ('ది', '|'), ('వ', '|'), ('స', '|'), ('మే', 'U'), ('ల', '|'), ('ధై', 'U'), ('ర్య', '|'), ('మొ', '|'), ('ద', '|'), ('వ', '|'), ('ని', '|'), ('వ', 'U'), ('స్తా', 'U'), ('దు', '|'), ('త', '|'), ('న', '|'), ('మ', '|'), ('దే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>పరకాంతపయి నాసపడెడి మానవులకు । నగుబాటు మనమున తగని దిగులు
 నగుడు విరుద్ధంబు నాచారహీనత । చేసొమ్ముపోవుట సిగ్గుచెడుట
@@ -3171,63 +2916,57 @@
 తన యాలి చేతిపోటునఁ గృశించుట దాని । పరుడు గన్గొనిన జీవంబు విడుట</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ప', '|'), ('యి', '|'), ('నా', 'U'), ('స', '|'), ('ప', '|'), ('డె', '|'), ('డి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('న', '|'), ('గు', '|'), ('బా', 'U'), ('టు', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('త', '|'), ('గ', '|'), ('ని', '|'), ('ది', '|'), ('గు', '|'), ('లు', '|'), ('న', '|'), ('గు', '|'), ('డు', '|'), ('వి', '|'), ('రు', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('నా', 'U'), ('చా', 'U'), ('ర', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('చే', 'U'), ('సొ', 'U'), ('మ్ము', '|'), ('పో', 'U'), ('వు', '|'), ('ట', '|'), ('సి', 'U'), ('గ్గు', '|'), ('చె', '|'), ('డు', '|'), ('ట', '|'), ('య', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('నా', 'U'), ('ళి', '|'), ('దూ', 'U'), ('షిం', 'U'), ('చు', '|'), ('ట', '|'), ('నీ', 'U'), ('తి', '|'), ('యు', '|'), ('దొ', '|'), ('ల', '|'), ('గు', '|'), ('ట', '|'), ('ని', '|'), ('ద్ర', '|'), ('చె', '|'), ('డు', '|'), ('ట', '|'), ('ప', '|'), ('ర', '|'), ('లో', 'U'), ('క', '|'), ('హా', 'U'), ('ని', '|'), ('లం', 'U'), ('ప', '|'), ('ట', '|'), ('నొం', 'U'), ('ది', '|'), ('మూ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('ప', '|'), ('రు', '|'), ('వు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ట', '|'), ('దే', 'U'), ('హ', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('చె', '|'), ('డు', '|'), ('ట', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('లి', '|'), ('చే', 'U'), ('తి', '|'), ('పో', 'U'), ('టు', '|'), ('న', '|'), ('గృ', '|'), ('శిం', 'U'), ('చు', '|'), ('ట', '|'), ('దా', 'U'), ('ని', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('న', '|'), ('జీ', 'U'), ('వం', 'U'), ('బు', '|'), ('వి', '|'), ('డు', '|'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ముజ్జగము లేలు నా విరాణ్మూర్తికయినఁ । గాని దుర్వృత్తి దగదెంతవానికైన
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ముజ్జగము లేలు నా విరాణ్మూర్తికయినఁ । గాని దుర్వృత్తి దగదెంతవానికైన
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('ము', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లే', 'U'), ('లు', '|'), ('నా', 'U'), ('వి', '|'), ('రా', 'U'), ('ణ్మూ', 'U'), ('ర్తి', '|'), ('క', '|'), ('యి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తి', '|'), ('ద', '|'), ('గ', '|'), ('దెం', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>పరదళంబులఁ గాంచి భయముచే నురికిన । రాజుగాఁడతడు గోరాజు గాని
 ధర్మంబులకు విఘాతముసేయ మంత్రిశే- । ఖరుఁడు గాఁడతఁడు సంకరుఁడు గాని
@@ -3235,63 +2974,57 @@
 పతితోడ కలహించి పడుకొని యేడ్చెడి । దాలుగా దది యెఱ్ఱతేలు గాని</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('ద', '|'), ('ళం', 'U'), ('బు', '|'), ('ల', '|'), ('గాం', 'U'), ('చి', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('చే', 'U'), ('ను', '|'), ('రి', '|'), ('కి', '|'), ('న', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('డ', '|'), ('త', '|'), ('డు', '|'), ('గో', 'U'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('ని', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('వి', '|'), ('ఘా', 'U'), ('త', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('మం', 'U'), ('త్రి', '|'), ('శే', 'U'), ('ఖ', '|'), ('రు', '|'), ('డు', '|'), ('గా', 'U'), ('డ', '|'), ('త', '|'), ('డు', '|'), ('సం', 'U'), ('క', '|'), ('రు', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ప్ర', '|'), ('సం', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్వి', '|'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('లే', 'U'), ('ని', 'U'), ('ప్రా', 'U'), ('జ్ఞు', '|'), ('ల', '|'), ('స', '|'), ('భ', '|'), ('గా', 'U'), ('దు', '|'), ('ర', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('ని', '|'), ('ప', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('క', '|'), ('ల', '|'), ('హిం', 'U'), ('చి', '|'), ('ప', '|'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('యే', 'U'), ('డ్చె', '|'), ('డి', '|'), ('దా', 'U'), ('లు', '|'), ('గా', 'U'), ('ద', '|'), ('ది', '|'), ('యె', 'U'), ('ఱ్ఱ', '|'), ('తే', 'U'), ('లు', '|'), ('గా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శాస్త్రముల మించినట్టి యాచారమైన । నిష్ఠగాదతనికి పెనుచేష్టగాని
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>శాస్త్రముల మించినట్టి యాచారమైన । నిష్ఠగాదతనికి పెనుచేష్టగాని
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('మిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('చా', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('గా', 'U'), ('ద', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('పె', '|'), ('ను', '|'), ('చే', 'U'), ('ష్ట', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>పానంబు జూదంబు పరసతిపై బాళి । ధనకాంక్ష మోహంబు తగని యాశ
 యనుదినంబును వేఁట యధికనిద్దుర గొంట । పేదఱికంబును బిఱికితనము
@@ -3299,63 +3032,57 @@
 ఖండితంబాడుట గర్వంబు సంధ్యల । వేళలఁ బయనంబు విప్రనింద</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('నం', 'U'), ('బు', '|'), ('జూ', 'U'), ('దం', 'U'), ('బు', '|'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('పై', 'U'), ('బా', 'U'), ('ళి', '|'), ('ధ', '|'), ('న', '|'), ('కాం', 'U'), ('క్ష', '|'), ('మో', 'U'), ('హం', 'U'), ('బు', '|'), ('త', '|'), ('గ', '|'), ('ని', '|'), ('యా', 'U'), ('శ', '|'), ('య', '|'), ('ను', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('వే', 'U'), ('ట', '|'), ('య', '|'), ('ధి', '|'), ('క', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('గొం', 'U'), ('ట', '|'), ('పే', 'U'), ('ద', '|'), ('ఱి', '|'), ('కం', 'U'), ('బు', '|'), ('ను', '|'), ('బి', '|'), ('ఱి', '|'), ('కి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('తి', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('ను', '|'), ('మం', 'U'), ('ద', '|'), ('గ', '|'), ('తి', '|'), ('హె', 'U'), ('చ్చు', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('మి', '|'), ('త', '|'), ('వా', 'U'), ('చా', 'U'), ('ల', '|'), ('త', '|'), ('య', '|'), ('నృ', '|'), ('త', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('ఖం', 'U'), ('డి', '|'), ('తం', 'U'), ('బా', 'U'), ('డు', '|'), ('ట', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధ్య', '|'), ('ల', '|'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('బ', '|'), ('య', '|'), ('నం', 'U'), ('బు', '|'), ('వి', 'U'), ('ప్ర', '|'), ('నిం', 'U'), ('ద', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యాప్తజనముల దూఱుట నసురుతిండి । మానవేంద్రుల పదవికి హానులివియ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>యాప్తజనముల దూఱుట నసురుతిండి । మానవేంద్రుల పదవికి హానులివియ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('యా', 'U'), ('ప్త', '|'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('దూ', 'U'), ('ఱు', '|'), ('ట', '|'), ('న', '|'), ('సు', '|'), ('రు', '|'), ('తిం', 'U'), ('డి', '|'), ('మా', 'U'), ('న', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('కి', '|'), ('హా', 'U'), ('ను', '|'), ('లి', '|'), ('వి', '|'), ('య', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>పాలనలేని భూపతియైన నతని ద- । గ్గెరనుండు మంత్రి ధగ్డీయునైన
 చెవిటి రాయసమైన సేవకుఁడయినను । వారసుగాఁడు దివాను నయిన
@@ -3363,63 +3090,57 @@
 కోశపాలకునకు గుందేటి తెవులైన । నుగ్రాణగాని కత్యుగ్రమైన</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('యై', 'U'), ('న', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('ద', 'U'), ('గ్గె', '|'), ('ర', '|'), ('నుం', 'U'), ('డు', '|'), ('మం', 'U'), ('త్రి', '|'), ('ధ', 'U'), ('గ్డీ', 'U'), ('యు', '|'), ('నై', 'U'), ('న', '|'), ('చె', '|'), ('వి', '|'), ('టి', '|'), ('రా', 'U'), ('య', '|'), ('స', '|'), ('మై', 'U'), ('న', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ర', '|'), ('సు', '|'), ('గా', 'U'), ('డు', '|'), ('ది', '|'), ('వా', 'U'), ('ను', '|'), ('న', '|'), ('యి', '|'), ('న', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('బ', 'U'), ('క్షీ', 'U'), ('చి', 'U'), ('త్త', '|'), ('వై', 'U'), ('క', 'U'), ('ల్యుం', 'U'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('డు', '|'), ('దీ', 'U'), ('ర', '|'), ('న', 'U'), ('త్తి', '|'), ('వ', '|'), ('కా', 'U'), ('ల', '|'), ('తై', 'U'), ('న', '|'), ('కో', 'U'), ('శ', '|'), ('పా', 'U'), ('ల', '|'), ('కు', '|'), ('న', '|'), ('కు', '|'), ('గుం', 'U'), ('దే', 'U'), ('టి', '|'), ('తె', '|'), ('వు', '|'), ('లై', 'U'), ('న', '|'), ('ను', 'U'), ('గ్రా', 'U'), ('ణ', '|'), ('గా', 'U'), ('ని', '|'), ('క', 'U'), ('త్యు', 'U'), ('గ్ర', '|'), ('మై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దాతలకు మోస మచటి విద్వాంసులకును । బ్రాణసంకట మా భూమిఁ బ్రజకుఁ గీడు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>దాతలకు మోస మచటి విద్వాంసులకును । బ్రాణసంకట మా భూమిఁ బ్రజకుఁ గీడు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('మో', 'U'), ('స', '|'), ('మ', '|'), ('చ', '|'), ('టి', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('ల', '|'), ('కు', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('సం', 'U'), ('క', '|'), ('ట', '|'), ('మా', 'U'), ('భూ', 'U'), ('మి', 'U'), ('బ్ర', '|'), ('జ', '|'), ('కు', '|'), ('గీ', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>పీనుగందపుమోము పిల్లిమీసంబులు । కట్టెశరీరంబు కాకినలుపు
 ఆర్చుకన్నులు వెన్నునంటిన యుదరంబు । జొళ్ళుకారెడి నోరు ఒళ్ళుకంపు
@@ -3427,63 +3148,57 @@
 యొకరిని జూచి మేలోర్చక యేడ్చుట । దౌర్భాగ్యగుణములు తగని యాశ</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('పీ', 'U'), ('ను', '|'), ('గం', 'U'), ('ద', '|'), ('పు', '|'), ('మో', 'U'), ('ము', '|'), ('పి', 'U'), ('ల్లి', '|'), ('మీ', 'U'), ('సం', 'U'), ('బు', '|'), ('లు', '|'), ('క', 'U'), ('ట్టె', '|'), ('శ', '|'), ('రీ', 'U'), ('రం', 'U'), ('బు', '|'), ('కా', 'U'), ('కి', '|'), ('న', '|'), ('లు', '|'), ('పు', '|'), ('ఆ', 'U'), ('ర్చు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('వె', 'U'), ('న్ను', '|'), ('నం', 'U'), ('టి', '|'), ('న', '|'), ('యు', '|'), ('ద', '|'), ('రం', 'U'), ('బు', '|'), ('జొ', 'U'), ('ళ్ళు', '|'), ('కా', 'U'), ('రె', '|'), ('డి', '|'), ('నో', 'U'), ('రు', '|'), ('ఒ', 'U'), ('ళ్ళు', '|'), ('కం', 'U'), ('పు', '|'), ('చే', 'U'), ('చె', 'U'), ('య్యి', '|'), ('ది', '|'), ('గ', '|'), ('రా', 'U'), ('చి', '|'), ('చె', 'U'), ('క్కి', 'U'), ('ళ్ళు', '|'), ('రు', 'U'), ('ద్దు', '|'), ('ట', '|'), ('ద', '|'), ('వ', '|'), ('డ', '|'), ('లు', '|'), ('సొ', 'U'), ('ట్ట', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('మి', 'U'), ('ట్ట', '|'), ('యొ', '|'), ('క', '|'), ('రి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('మే', 'U'), ('లో', 'U'), ('ర్చ', '|'), ('క', '|'), ('యే', 'U'), ('డ్చు', '|'), ('ట', '|'), ('దౌ', 'U'), ('ర్భా', 'U'), ('గ్య', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('త', '|'), ('గ', '|'), ('ని', '|'), ('యా', 'U'), ('శ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యిట్టి యవలక్షణపు మంత్రి నేర్పరింప । దొరకు నపకీర్తి దెచ్చు నా దుర్జనుండు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>యిట్టి యవలక్షణపు మంత్రి నేర్పరింప । దొరకు నపకీర్తి దెచ్చు నా దుర్జనుండు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ట్టి', '|'), ('య', '|'), ('వ', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('పు', '|'), ('మం', 'U'), ('త్రి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రిం', 'U'), ('ప', '|'), ('దొ', '|'), ('ర', '|'), ('కు', '|'), ('న', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('దె', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('దు', 'U'), ('ర్జ', '|'), ('నుం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>పూపొదలో దాఁగి పులి యున్నరీతిని । మొగిలిరేకున ముండ్లు మొలచినట్లు
 నందనవనములో నాగుఁబామున్నట్లు । చందురునకు నల్పు చెందినట్లు
@@ -3492,63 +3207,57 @@
 పద్మరాగమునకుఁ బటలమేర్పడినట్లు । బుగ్గవాకిటి చుట్టు పుట్టినట్లు</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('పొ', '|'), ('ద', '|'), ('లో', 'U'), ('దా', 'U'), ('గి', '|'), ('పు', '|'), ('లి', '|'), ('యు', 'U'), ('న్న', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('మొ', '|'), ('గి', '|'), ('లి', '|'), ('రే', 'U'), ('కు', '|'), ('న', '|'), ('ముం', 'U'), ('డ్లు', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లో', 'U'), ('నా', 'U'), ('గు', '|'), ('బా', 'U'), ('ము', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('ల్పు', '|'), ('చెం', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('లే', 'U'), ('మ', '|'), ('కు', '|'), ('సె', '|'), ('గ', '|'), ('రో', 'U'), ('గ', '|'), ('ము', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('మృ', '|'), ('గ', '|'), ('నా', 'U'), ('భి', '|'), ('లో', 'U'), ('బి', 'U'), ('ప్పి', '|'), ('త', '|'), ('గి', '|'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('జ', '|'), ('ల', '|'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('వి', '|'), ('షం', 'U'), ('బు', '|'), ('సం', 'U'), ('భ', '|'), ('వం', 'U'), ('బై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('ప్తు', '|'), ('న', '|'), ('కు', '|'), ('శ', '|'), ('ని', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('రా', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బ', '|'), ('ట', '|'), ('ల', '|'), ('మే', 'U'), ('ర్ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('బు', 'U'), ('గ్గ', '|'), ('వా', 'U'), ('కి', '|'), ('టి', '|'), ('చు', 'U'), ('ట్టు', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధర్మవిధులైన రాజసంస్థానములను । జేరు నొక్కొక్క చీవాట్లమారిశుంఠ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ధర్మవిధులైన రాజసంస్థానములను । జేరు నొక్కొక్క చీవాట్లమారిశుంఠ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర్మ', '|'), ('వి', '|'), ('ధు', '|'), ('లై', 'U'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('సం', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('జే', 'U'), ('రు', '|'), ('నొ', 'U'), ('క్కొ', 'U'), ('క్క', '|'), ('చీ', 'U'), ('వా', 'U'), ('ట్ల', '|'), ('మా', 'U'), ('రి', '|'), ('శుం', 'U'), ('ఠ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>పయిమాట లొకలక్ష పలికిననే సరా య । హంకారవర్తన నడఁపవలయు
 నడఁపజాలక కానలందుఁబోయిన సరా । యెఱుక దెల్పెడి మూర్తి దొరకవలయు
@@ -3556,63 +3265,57 @@
 కుదిరెనంచని యూరకుండిననే సరా । పాయ కాత్మను బాటి సేయవలయు</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('యి', '|'), ('మా', 'U'), ('ట', '|'), ('లొ', '|'), ('క', '|'), ('ల', 'U'), ('క్ష', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('నే', 'U'), ('స', '|'), ('రా', 'U'), ('య', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('న', '|'), ('డ', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('న', '|'), ('డ', '|'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('కా', 'U'), ('న', '|'), ('లం', 'U'), ('దు', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('స', '|'), ('రా', 'U'), ('యె', '|'), ('ఱు', '|'), ('క', '|'), ('దె', 'U'), ('ల్పె', '|'), ('డి', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('దొ', '|'), ('రి', '|'), ('కి', '|'), ('నా', 'U'), ('డ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్క', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('నే', 'U'), ('స', '|'), ('రా', 'U'), ('గు', '|'), ('రు', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('భ', 'U'), ('క్తి', '|'), ('కు', '|'), ('ద', '|'), ('ర', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('కు', '|'), ('ది', '|'), ('రె', '|'), ('నం', 'U'), ('చ', '|'), ('ని', '|'), ('యూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నే', 'U'), ('స', '|'), ('రా', 'U'), ('పా', 'U'), ('య', '|'), ('కా', 'U'), ('త్మ', '|'), ('ను', '|'), ('బా', 'U'), ('టి', '|'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చేసినను కాదు పాచిని ద్రోసి శుద్ధ- । గంగ యెత్తినయటు ముక్తి గాంచవలయు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>చేసినను కాదు పాచిని ద్రోసి శుద్ధ- । గంగ యెత్తినయటు ముక్తి గాంచవలయు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('సి', '|'), ('న', '|'), ('ను', '|'), ('కా', 'U'), ('దు', '|'), ('పా', 'U'), ('చి', '|'), ('ని', '|'), ('ద్రో', 'U'), ('సి', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('గం', 'U'), ('గ', '|'), ('యె', 'U'), ('త్తి', '|'), ('న', '|'), ('య', '|'), ('టు', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>మంగలకత్తిపై నంగవేసిన యట్లు । క్రోడెత్రాచును ముద్దులాడినట్లు
 కొఱవితో నడినెత్తి గోఁకినట్లీనిన । పులితోడ సాముకుఁ బూనినట్లు
@@ -3620,63 +3323,57 @@
 కొర్తిమీదను గొంతు కూర్చుండుకొనినట్లు । నూతిపైఁ బసిబిడ్డ నునిచినట్లు</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('గ', '|'), ('ల', '|'), ('క', 'U'), ('త్తి', '|'), ('పై', 'U'), ('నం', 'U'), ('గ', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', 'U'), ('క్రో', 'U'), ('డె', 'U'), ('త్రా', 'U'), ('చు', '|'), ('ను', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లా', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కొ', '|'), ('ఱ', '|'), ('వి', '|'), ('తో', 'U'), ('న', '|'), ('డి', '|'), ('నె', 'U'), ('త్తి', '|'), ('గో', 'U'), ('కి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('ని', '|'), ('న', '|'), ('పు', '|'), ('లి', '|'), ('తో', 'U'), ('డ', '|'), ('సా', 'U'), ('ము', '|'), ('కు', '|'), ('బూ', 'U'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('పె', '|'), ('ద', '|'), ('సిం', 'U'), ('గ', '|'), ('ము', '|'), ('ను', '|'), ('ఱా', 'U'), ('ల', '|'), ('న', '|'), ('ద', '|'), ('లిం', 'U'), ('చి', '|'), ('కొ', '|'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('మి', '|'), ('ను', '|'), ('కు', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పు', '|'), ('ర', '|'), ('వ', '|'), ('మ్రిం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కొ', 'U'), ('ర్తి', '|'), ('మీ', 'U'), ('ద', '|'), ('ను', '|'), ('గొం', 'U'), ('తు', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('న', 'U'), ('ట్లు', '|'), ('నూ', 'U'), ('తి', '|'), ('పై', 'U'), ('బ', '|'), ('సి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>క్ష్మాతలేంద్రుని సేవ కష్టంబు వార- । లిచ్చిరని గర్వమున నిక్కి మెచ్చరాదు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>క్ష్మాతలేంద్రుని సేవ కష్టంబు వార- । లిచ్చిరని గర్వమున నిక్కి మెచ్చరాదు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('క్ష్మా', 'U'), ('త', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('సే', 'U'), ('వ', '|'), ('క', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('వా', 'U'), ('ర', '|'), ('లి', 'U'), ('చ్చి', '|'), ('ర', '|'), ('ని', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('క్కి', '|'), ('మె', 'U'), ('చ్చ', '|'), ('రా', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>మకరందపానంబు మధుకరాళికిఁ గాక । జోఱీగఁ చవిగని జుఱ్ఱగలదె
 హరిపదాబ్జధ్యాన మమనస్కులకుఁ గాక । చెనఁటి సద్భక్తితోఁ జేయగలడె
@@ -3684,63 +3381,57 @@
 పద్మినీరతి వేడ్క పాంచాలునకుఁ గాక । దేబైన షండుఁడు తెలియఁగలఁడె</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('పా', 'U'), ('నం', 'U'), ('బు', '|'), ('మ', '|'), ('ధు', '|'), ('క', '|'), ('రా', 'U'), ('ళి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('జో', 'U'), ('ఱీ', 'U'), ('గ', '|'), ('చ', '|'), ('వి', '|'), ('గ', '|'), ('ని', '|'), ('జు', 'U'), ('ఱ్ఱ', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('హ', '|'), ('రి', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మ', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('చె', '|'), ('న', '|'), ('టి', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('సు', '|'), ('వి', '|'), ('వే', 'U'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('చె', '|'), ('వి', '|'), ('యొ', 'U'), ('గ్గి', '|'), ('యా', 'U'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('ప', 'U'), ('ద్మి', '|'), ('నీ', 'U'), ('ర', '|'), ('తి', '|'), ('వే', 'U'), ('డ్క', '|'), ('పాం', 'U'), ('చా', 'U'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('దే', 'U'), ('బై', 'U'), ('న', '|'), ('షం', 'U'), ('డు', '|'), ('డు', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రాజసభలఁ బరోపకారములు తెలుప । శ్రేష్ఠులే కాక దుష్టులు చెప్పఁగలరె
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>రాజసభలఁ బరోపకారములు తెలుప । శ్రేష్ఠులే కాక దుష్టులు చెప్పఁగలరె
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', '|'), ('స', '|'), ('భ', '|'), ('ల', '|'), ('బ', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('తె', '|'), ('లు', '|'), ('ప', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('లే', 'U'), ('కా', 'U'), ('క', '|'), ('దు', 'U'), ('ష్టు', '|'), ('లు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>మద్యపాయీలతో మచ్చిక కారాదు । బడవాల గొప్పగాఁ బట్టరాదు
 శాత్రవునింట భోజనము చేయఁగరాదు । సన్యాసులను గేలి సలుపరాదు
@@ -3748,63 +3439,57 @@
 కంకోష్ఠునకు నధికార మియ్యగరాదు । చెలగి లోభినిఁ జేర బిలువరాదు</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('ద్య', '|'), ('పా', 'U'), ('యీ', 'U'), ('ల', '|'), ('తో', 'U'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('కా', 'U'), ('రా', 'U'), ('దు', '|'), ('బ', '|'), ('డ', '|'), ('వా', 'U'), ('ల', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('దు', '|'), ('శా', 'U'), ('త్ర', '|'), ('వు', '|'), ('నిం', 'U'), ('ట', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('స', 'U'), ('న్యా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('గే', 'U'), ('లి', '|'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('దే', 'U'), ('వ', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('వృ', 'U'), ('త్తి', '|'), ('తె', '|'), ('రు', '|'), ('వు', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('రు', '|'), ('నా', 'U'), ('లి', '|'), ('పై', 'U'), ('నా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('కం', 'U'), ('కో', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('లో', 'U'), ('భి', '|'), ('ని', '|'), ('జే', 'U'), ('ర', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లంచగాండ్లను దగవుల నుంచరాదు । మాతృపితరుల యెడ భక్తి మఱువరాదు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>లంచగాండ్లను దగవుల నుంచరాదు । మాతృపితరుల యెడ భక్తి మఱువరాదు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('లం', 'U'), ('చ', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('ను', '|'), ('ద', '|'), ('గ', '|'), ('వు', '|'), ('ల', '|'), ('నుం', 'U'), ('చ', '|'), ('రా', 'U'), ('దు', '|'), ('మా', 'U'), ('తృ', '|'), ('పి', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('ఱు', '|'), ('వ', '|'), ('రా', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>మన్ననలేని భూమండలేంద్రుని కొల్వు । లాలింపనేరని లంజ పొందు
 వచ్చిపోవనియట్టివాని చుట్టఱికంబు । బుద్ధితక్కువవాని యొద్ద ఋణము
@@ -3812,63 +3497,57 @@
 సామాన్యజాతితో జగడంబు పూనుట । మూర్ఖుని మైత్రికి మోహపడుట</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('న్న', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('కొ', 'U'), ('ల్వు', '|'), ('లా', 'U'), ('లిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('లం', 'U'), ('జ', '|'), ('పొం', 'U'), ('దు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('పో', 'U'), ('వ', '|'), ('ని', '|'), ('య', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ని', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ఱి', '|'), ('కం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('త', 'U'), ('క్కు', '|'), ('వ', '|'), ('వా', 'U'), ('ని', '|'), ('యొ', 'U'), ('ద్ద', '|'), ('ఋ', '|'), ('ణ', '|'), ('ము', '|'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('స', '|'), ('ర', '|'), ('సో', 'U'), ('క్తు', '|'), ('లా', 'U'), ('డు', '|'), ('ట', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('నిం', 'U'), ('ట', '|'), ('ను', '|'), ('బ', '|'), ('డు', '|'), ('చు', '|'), ('గొ', '|'), ('ను', '|'), ('ట', '|'), ('సా', 'U'), ('మా', 'U'), ('న్య', '|'), ('జా', 'U'), ('తి', '|'), ('తో', 'U'), ('జ', '|'), ('గ', '|'), ('డం', 'U'), ('బు', '|'), ('పూ', 'U'), ('ను', '|'), ('ట', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ని', '|'), ('మై', 'U'), ('త్రి', '|'), ('కి', '|'), ('మో', 'U'), ('హ', '|'), ('ప', '|'), ('డు', '|'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అధమమిది భువి నరులకు నజునకైన । మఱచి యప్పని చేసిన మానహాని
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>అధమమిది భువి నరులకు నజునకైన । మఱచి యప్పని చేసిన మానహాని
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ధ', '|'), ('మ', '|'), ('మి', '|'), ('ది', '|'), ('భు', '|'), ('వి', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('న', '|'), ('జు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('య', 'U'), ('ప్ప', '|'), ('ని', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('హా', 'U'), ('ని', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>మన్నించు నరపతి మమత తప్పిన వెన్క । నుత్తముం డాభూమి నుండరాదు
 పైవిటుం డొక్కఁ డేర్పడినట్టి వేశ్యపై । నెంతవాఁడైన నాసింపరాదు
@@ -3876,63 +3555,57 @@
 పగతుఁడు నెనరుగా భాషించినను వాని । నెయ్యంబుగొని చనువియ్యరాదు</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('న', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('త', 'U'), ('ప్పి', '|'), ('న', '|'), ('వె', 'U'), ('న్క', '|'), ('ను', 'U'), ('త్త', '|'), ('ముం', 'U'), ('డా', 'U'), ('భూ', 'U'), ('మి', '|'), ('నుం', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('పై', 'U'), ('వి', '|'), ('టుం', 'U'), ('డొ', 'U'), ('క్క', '|'), ('డే', 'U'), ('ర్ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('శ్య', '|'), ('పై', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('నా', 'U'), ('సిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('అ', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('తో', 'U'), ('గొ', 'U'), ('ట్లా', 'U'), ('డి', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('ని', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('క', '|'), ('తా', 'U'), ('తా', 'U'), ('మ', '|'), ('సిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('గ', '|'), ('తు', '|'), ('డు', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('గా', 'U'), ('భా', 'U'), ('షిం', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('నె', 'U'), ('య్యం', 'U'), ('బు', '|'), ('గొ', '|'), ('ని', '|'), ('చ', '|'), ('ను', '|'), ('వి', 'U'), ('య్య', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చెలులతో రాజకార్యముల్ చెప్పరాదు । పలువ మంత్రైన దొరలకుఁ బరువులేదు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>చెలులతో రాజకార్యముల్ చెప్పరాదు । పలువ మంత్రైన దొరలకుఁ బరువులేదు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('చె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('వ', '|'), ('మం', 'U'), ('త్రై', 'U'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('లే', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>రణభేరి తగవైన రాజు శ్వేతచ్ఛత్ర । మేనుఁగు నివి నాలు గేకరాశి
 మారుండు కీరంబు మందసమీరుండు । రాకాసుధాకరుం డేకరాశి
@@ -3940,63 +3613,57 @@
 మూఢాత్ముఁ డత్యంతమూర్ఖుఁడు గాడిద । కాకి వీరలు నాలు గేకరాశి</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('ణ', '|'), ('భే', 'U'), ('రి', '|'), ('త', '|'), ('గ', '|'), ('వై', 'U'), ('న', '|'), ('రా', 'U'), ('జు', 'U'), ('శ్వే', 'U'), ('త', 'U'), ('చ్ఛ', 'U'), ('త్ర', '|'), ('మే', 'U'), ('ను', '|'), ('గు', '|'), ('ని', '|'), ('వి', '|'), ('నా', 'U'), ('లు', '|'), ('గే', 'U'), ('క', '|'), ('రా', 'U'), ('శి', '|'), ('మా', 'U'), ('రుం', 'U'), ('డు', '|'), ('కీ', 'U'), ('రం', 'U'), ('బు', '|'), ('మం', 'U'), ('ద', '|'), ('స', '|'), ('మీ', 'U'), ('రుం', 'U'), ('డు', '|'), ('రా', 'U'), ('కా', 'U'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రుం', 'U'), ('డే', 'U'), ('క', '|'), ('రా', 'U'), ('శి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్గో', 'U'), ('వు', '|'), ('లు', '|'), ('వి', 'U'), ('ప్రో', 'U'), ('త్త', '|'), ('ము', '|'), ('లు', '|'), ('ద', 'U'), ('ర్భ', '|'), ('లే', 'U'), ('ర్ప', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నా', 'U'), ('లు', '|'), ('గే', 'U'), ('క', '|'), ('రా', 'U'), ('శి', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డ', 'U'), ('త్యం', 'U'), ('త', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('డు', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('కా', 'U'), ('కి', '|'), ('వీ', 'U'), ('ర', '|'), ('లు', '|'), ('నా', 'U'), ('లు', '|'), ('గే', 'U'), ('క', '|'), ('రా', 'U'), ('శి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ద్విపదకావ్యంబు ముదికాంత దిడ్డిగంత । యియ్యనేరని రండ నాల్గేక రాశి
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ద్విపదకావ్యంబు ముదికాంత దిడ్డిగంత । యియ్యనేరని రండ నాల్గేక రాశి
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('ద్వి', '|'), ('ప', '|'), ('ద', '|'), ('కా', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('ము', '|'), ('ది', '|'), ('కాం', 'U'), ('త', '|'), ('ది', 'U'), ('డ్డి', '|'), ('గం', 'U'), ('త', '|'), ('యి', 'U'), ('య్య', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('రం', 'U'), ('డ', '|'), ('నా', 'U'), ('ల్గే', 'U'), ('క', '|'), ('రా', 'U'), ('శి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>రతికి దార్కొని సిగ్గు రణమున భీతి భో- । జనకాలమందున సంశయంబు
 యిచ్చెడిదేఁ జింత నిచ్చినయెడ లేమి । వచ్చినవానిపై హుంకరింపు
@@ -4004,63 +3671,57 @@
 గూర్మి చేసినచోటఁ గూహకం బద్భుత- । ద్రోహవర్తనులపై యీహదృష్టి</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('తి', '|'), ('కి', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('సి', 'U'), ('గ్గు', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('భీ', 'U'), ('తి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('సం', 'U'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('యి', 'U'), ('చ్చె', '|'), ('డి', '|'), ('దే', 'U'), ('జిం', 'U'), ('త', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('యె', '|'), ('డ', '|'), ('లే', 'U'), ('మి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('పై', 'U'), ('హుం', 'U'), ('క', '|'), ('రిం', 'U'), ('పు', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('న', '|'), ('మొ', '|'), ('గ', '|'), ('మో', 'U'), ('ట', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చ', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('ద', '|'), ('ప', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('దా', 'U'), ('మ', '|'), ('సం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('చో', 'U'), ('ట', '|'), ('గూ', 'U'), ('హ', '|'), ('కం', 'U'), ('బ', 'U'), ('ద్భు', '|'), ('త', '|'), ('ద్రో', 'U'), ('హ', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('ల', '|'), ('పై', 'U'), ('యీ', 'U'), ('హ', '|'), ('దృ', 'U'), ('ష్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అవని సత్కీర్తికోసమై యాశనొందు । రాజవరులకు నివియఁ గారాని పనులు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>అవని సత్కీర్తికోసమై యాశనొందు । రాజవరులకు నివియఁ గారాని పనులు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('కో', 'U'), ('స', '|'), ('మై', 'U'), ('యా', 'U'), ('శ', '|'), ('నొం', 'U'), ('దు', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('ని', '|'), ('వి', '|'), ('య', '|'), ('గా', 'U'), ('రా', 'U'), ('ని', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>రాజులమంచు బొజ్జలు పెంచగా రాదు । అని మొనలో నఱుకాడవలయు
 మంత్రులమని బొంకుమాటలాడిన గాదు । యిప్పింప నేర్చి తామియ్యవలయు
@@ -4068,63 +3729,57 @@
 తపసులమని నిక్కి తలలు పెంచినఁ గాదు । నిర్వికల్పసమాధి నెఱుగవలయు</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జు', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('పెం', 'U'), ('చ', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('అ', '|'), ('ని', '|'), ('మొ', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('ఱు', '|'), ('కా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మం', 'U'), ('త్రు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('బొం', 'U'), ('కు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('యి', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తా', 'U'), ('మి', 'U'), ('య్య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('క', '|'), ('వు', '|'), ('ల', '|'), ('మం', 'U'), ('చ', '|'), ('ని', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('న', 'U'), ('ల్లి', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('ని', 'U'), ('క్కి', '|'), ('త', '|'), ('ల', '|'), ('లు', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('ర్వి', '|'), ('క', 'U'), ('ల్ప', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యిచ్చినను నేమి వినయోక్తు లెఱుఁగవలయు । గడుసుకూఁతల సత్కీర్తి కలుగబోదు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>యిచ్చినను నేమి వినయోక్తు లెఱుఁగవలయు । గడుసుకూఁతల సత్కీర్తి కలుగబోదు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('మి', '|'), ('వి', '|'), ('న', '|'), ('యో', 'U'), ('క్తు', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గ', '|'), ('డు', '|'), ('సు', '|'), ('కూ', 'U'), ('త', '|'), ('ల', '|'), ('స', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('క', '|'), ('లు', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>రామాండకథలెల్ల మేమెఱుంగనియవె । కాటమరాజుకుఁ గర్ణుడోడె
 భోగతకథలంత పోల నెఱుంగమే । వేయి గణేశుఁ డర్జుని నిరఁగబొడిచె
@@ -4132,63 +3787,57 @@
 కందపురాణాలకథ పిల్లకాటేరి । వీరభద్రుని నలయించి చంపె</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('మాం', 'U'), ('డ', '|'), ('క', '|'), ('థ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మే', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('య', '|'), ('వె', '|'), ('కా', 'U'), ('ట', '|'), ('మ', '|'), ('రా', 'U'), ('జు', '|'), ('కు', '|'), ('గ', 'U'), ('ర్ణు', '|'), ('డో', 'U'), ('డె', '|'), ('భో', 'U'), ('గ', '|'), ('త', '|'), ('క', '|'), ('థ', '|'), ('లం', 'U'), ('త', '|'), ('పో', 'U'), ('ల', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('మే', 'U'), ('వే', 'U'), ('యి', '|'), ('గ', '|'), ('ణే', 'U'), ('శు', '|'), ('డ', 'U'), ('ర్జు', '|'), ('ని', '|'), ('ని', '|'), ('ర', '|'), ('గ', '|'), ('బొ', '|'), ('డి', '|'), ('చె', '|'), ('భా', 'U'), ('ర', '|'), ('త', '|'), ('క', '|'), ('థ', '|'), ('ల', '|'), ('లో', 'U'), ('బా', 'U'), ('ల', '|'), ('రా', 'U'), ('జొ', 'U'), ('క్క', '|'), ('డు', '|'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టి', '|'), ('కూ', 'U'), ('ల', '|'), ('ద', 'U'), ('న్నె', '|'), ('కం', 'U'), ('ద', '|'), ('పు', '|'), ('రా', 'U'), ('ణా', 'U'), ('ల', '|'), ('క', '|'), ('థ', '|'), ('పి', 'U'), ('ల్ల', '|'), ('కా', 'U'), ('టే', 'U'), ('రి', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రు', '|'), ('ని', '|'), ('న', '|'), ('ల', '|'), ('యిం', 'U'), ('చి', '|'), ('చం', 'U'), ('పె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచు మూర్ఖులు పలుకుదు రవనియందుఁ । గవివరులు బోయిన కానికాలమందు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ననుచు మూర్ఖులు పలుకుదు రవనియందుఁ । గవివరులు బోయిన కానికాలమందు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('దు', '|'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('యం', 'U'), ('దు', '|'), ('గ', '|'), ('వి', '|'), ('వ', '|'), ('రు', '|'), ('లు', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('కా', 'U'), ('ని', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>లత్తుకరంగు చల్లడము మిటారంపు । చౌకట్లు తగటుఁ మిర్జాకుళాయి
 మగవాల పంచిక మొగమందు జవ్వాది । తిలకము జాతికెంపుల బులాకి
@@ -4196,64 +3845,58 @@
 కుడిపదంబున కుజాగుల్కి ఘంటలు ఘల్ల- । ని మ్రోయుచుండు మానికపుటందె</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('ల', 'U'), ('త్తు', '|'), ('క', '|'), ('రం', 'U'), ('గు', '|'), ('చ', 'U'), ('ల్ల', '|'), ('డ', '|'), ('ము', '|'), ('మి', '|'), ('టా', 'U'), ('రం', 'U'), ('పు', '|'), ('చౌ', 'U'), ('క', 'U'), ('ట్లు', '|'), ('త', '|'), ('గ', '|'), ('టు', '|'), ('మి', 'U'), ('ర్జా', 'U'), ('కు', '|'), ('ళా', 'U'), ('యి', '|'), ('మ', '|'), ('గ', '|'), ('వా', 'U'), ('ల', '|'), ('పం', 'U'), ('చి', '|'), ('క', '|'), ('మొ', '|'), ('గ', '|'), ('మం', 'U'), ('దు', '|'), ('జ', 'U'), ('వ్వా', 'U'), ('ది', '|'), ('తి', '|'), ('ల', '|'), ('క', '|'), ('ము', '|'), ('జా', 'U'), ('తి', '|'), ('కెం', 'U'), ('పు', '|'), ('ల', '|'), ('బు', '|'), ('లా', 'U'), ('కి', '|'), ('పు', '|'), ('లి', '|'), ('గో', 'U'), ('రు', '|'), ('తా', 'U'), ('ళి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('ల', '|'), ('బా', 'U'), ('జు', '|'), ('బం', 'U'), ('దు', '|'), ('ని', 'U'), ('ద్దా', 'U'), ('మే', 'U'), ('ల్క', '|'), ('డా', 'U'), ('ని', '|'), ('జ', 'U'), ('ల్తా', 'U'), ('రు', '|'), ('పా', 'U'), ('గ', '|'), ('కు', '|'), ('డి', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('జా', 'U'), ('గు', 'U'), ('ల్కి', '|'), ('ఘం', 'U'), ('ట', '|'), ('లు', '|'), ('ఘ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('మ్రో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('మా', 'U'), ('ని', '|'), ('క', '|'), ('పు', '|'), ('టం', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>నీటుగాఁ బిన్నవై పల్లెకూటమునకు । నరుగుచున్నట్లె ధేనుకాసురుని బట్టి
 కొట్టి ధరఁ గూలద్రోయవా గుండెలవియ
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('టు', '|'), ('గా', 'U'), ('బి', 'U'), ('న్న', '|'), ('వై', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('కూ', 'U'), ('ట', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('రు', '|'), ('గు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ట్లె', '|'), ('ధే', 'U'), ('ను', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('ధ', '|'), ('ర', '|'), ('గూ', 'U'), ('ల', '|'), ('ద్రో', 'U'), ('య', '|'), ('వా', 'U'), ('గుం', 'U'), ('డె', '|'), ('ల', '|'), ('వి', '|'), ('య', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>వంకరపాగాలు వంపుముచ్చెల జోళ్ళు । చెవిసందుకలములు చేరుమాళ్ళు
 మీఁగాళ్ళపైఁ బింజె బాగైన దోవతుల్ । జిగితరంబైన పార్శీమొహర్లు
@@ -4261,63 +3904,57 @@
 సొగసుగా దొరయొద్దఁ దగినట్లు కూర్చుండి । రచ్చగాండ్లకు శిఫారసులు చేసి</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('క', '|'), ('ర', '|'), ('పా', 'U'), ('గా', 'U'), ('లు', '|'), ('వం', 'U'), ('పు', '|'), ('ము', 'U'), ('చ్చె', '|'), ('ల', '|'), ('జో', 'U'), ('ళ్ళు', '|'), ('చె', '|'), ('వి', '|'), ('సం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('రు', '|'), ('మా', 'U'), ('ళ్ళు', '|'), ('మీ', 'U'), ('గా', 'U'), ('ళ్ళ', '|'), ('పై', 'U'), ('బిం', 'U'), ('జె', '|'), ('బా', 'U'), ('గై', 'U'), ('న', '|'), ('దో', 'U'), ('వ', '|'), ('తుల్', 'U'), ('జి', '|'), ('గి', '|'), ('త', '|'), ('రం', 'U'), ('బై', 'U'), ('న', '|'), ('పా', 'U'), ('ర్శీ', 'U'), ('మొ', '|'), ('హ', 'U'), ('ర్లు', '|'), ('చే', 'U'), ('ప', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('బు', 'U'), ('స్తి', '|'), ('మీ', 'U'), ('స', '|'), ('ముల్', 'U'), ('కం', 'U'), ('ఠ', '|'), ('దా', 'U'), ('వ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('డు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('దొ', '|'), ('ర', '|'), ('యొ', 'U'), ('ద్ద', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('ర', 'U'), ('చ్చ', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('శి', '|'), ('ఫా', 'U'), ('ర', '|'), ('సు', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కవిభటుల కార్యములకు విఘ్నములు చేయు । రాయసాల్ పిండములు తిను వాయసాలు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>కవిభటుల కార్యములకు విఘ్నములు చేయు । రాయసాల్ పిండములు తిను వాయసాలు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('వి', '|'), ('భ', '|'), ('టు', '|'), ('ల', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('రా', 'U'), ('య', '|'), ('సాల్', 'U'), ('పిం', 'U'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('తి', '|'), ('ను', '|'), ('వా', 'U'), ('య', '|'), ('సా', 'U'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
         <is>
           <t>వలపు రూపెఱుగదు వసుధ మర్త్యులకు సూ- । కరమైన మనిసిగాఁ గానుపించు
 నాకలిలో నాల్క యరుచి యెఱుంగదు । యంబలైనను సుధయనుచుఁ గ్రోలు
@@ -4326,63 +3963,57 @@
 గామంబు నిర్ణయకాలం బెఱుంగదు । హెచ్చు చెందినవేళ నెనయగోఁరు</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('పు', '|'), ('రూ', 'U'), ('పె', '|'), ('ఱు', '|'), ('గ', '|'), ('దు', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('ల', '|'), ('కు', '|'), ('సూ', 'U'), ('క', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('ని', '|'), ('సి', '|'), ('గా', 'U'), ('గా', 'U'), ('ను', '|'), ('పిం', 'U'), ('చు', '|'), ('నా', 'U'), ('క', '|'), ('లి', '|'), ('లో', 'U'), ('నా', 'U'), ('ల్క', '|'), ('య', '|'), ('రు', '|'), ('చి', '|'), ('యె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', '|'), ('యం', 'U'), ('బ', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('సు', '|'), ('ధ', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('గో', 'U'), ('పం', 'U'), ('బె', '|'), ('దు', '|'), ('టి', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('కొ', 'U'), ('ద్ది', '|'), ('యె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('నై', 'U'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('తు', '|'), ('జే', 'U'), ('యు', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('ఖం', 'U'), ('బె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('క', '|'), ('స', '|'), ('వై', 'U'), ('న', '|'), ('వి', '|'), ('రి', '|'), ('శ', 'U'), ('య్య', '|'), ('గా', 'U'), ('గా', 'U'), ('ను', '|'), ('పిం', 'U'), ('చు', '|'), ('గా', 'U'), ('మం', 'U'), ('బు', '|'), ('ని', 'U'), ('ర్ణ', '|'), ('య', '|'), ('కా', 'U'), ('లం', 'U'), ('బె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('దు', '|'), ('హె', 'U'), ('చ్చు', '|'), ('చెం', 'U'), ('ది', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('గో', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>హరునకైనను నివి గెల్వ నలవికాదు । ఇతరులగు మానవులనంగ నెంతవారు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>హరునకైనను నివి గెల్వ నలవికాదు । ఇతరులగు మానవులనంగ నెంతవారు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('ను', '|'), ('ని', '|'), ('వి', '|'), ('గె', 'U'), ('ల్వ', '|'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('కా', 'U'), ('దు', '|'), ('ఇ', '|'), ('త', '|'), ('రు', '|'), ('ల', '|'), ('గు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('నం', 'U'), ('గ', '|'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('రు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
         <is>
           <t>వాగ్భూషణంబు నీ వర్ణన సేయుట । కర్ణభూషణము నీ కథలు వినుట
 హస్తభూషణము నీ కర్చన సేయుట । నేత్రభూషణము నీ నీటు గనుట
@@ -4390,63 +4021,57 @@
 అంఘ్రిభూషణము నీ యానందనిలయప్ర । దక్షిణం బేగుట ధర్మచరిత!</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('గ్భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('వి', '|'), ('ను', '|'), ('ట', '|'), ('హ', 'U'), ('స్త', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('క', 'U'), ('ర్చ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('నే', 'U'), ('త్ర', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('నీ', 'U'), ('టు', '|'), ('గ', '|'), ('ను', '|'), ('ట', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ని', 'U'), ('న్మ', '|'), ('ది', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('మూ', 'U'), ('ర్ధ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నిన్', 'U'), ('మ్రొ', 'U'), ('క్కు', '|'), ('ట', '|'), ('ర', '|'), ('య', '|'), ('అం', 'U'), ('ఘ్రి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('ల', '|'), ('య', 'U'), ('ప్ర', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బే', 'U'), ('గు', '|'), ('ట', '|'), ('ధ', '|'), ('ర్మ', '|'), ('చ', '|'), ('రి', '|'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సతముగల భూషణము లెన్నిజన్మములకు । యెట్టివైనను వీని కెచ్చేమిగలదు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>సతముగల భూషణము లెన్నిజన్మములకు । యెట్టివైనను వీని కెచ్చేమిగలదు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('ల', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లె', 'U'), ('న్ని', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('యె', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('న', '|'), ('ను', '|'), ('వీ', 'U'), ('ని', '|'), ('కె', 'U'), ('చ్చే', 'U'), ('మి', '|'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>వార్ధక్యమున మంచివయసు పెండ్లామైన । దారిద్ర్యమునఁ బెక్కుతనయులైన
 ఆత్రుఁడౌ భూపతి కతిభాషి మంత్రైనఁ । బొరుగున నత్తిల్లు పొసగుటైన
@@ -4454,63 +4079,57 @@
 బెను వానకాలమందున పైనమైనను । జలికాలమున దీక్ష సలుపుటైన</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ర్ధ', 'U'), ('క్య', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('వ', '|'), ('య', '|'), ('సు', '|'), ('పెం', 'U'), ('డ్లా', 'U'), ('మై', 'U'), ('న', '|'), ('దా', 'U'), ('రి', '|'), ('ద్ర్య', '|'), ('ము', '|'), ('న', '|'), ('బె', 'U'), ('క్కు', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('లై', 'U'), ('న', '|'), ('ఆ', 'U'), ('త్రు', '|'), ('డౌ', 'U'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('క', '|'), ('తి', '|'), ('భా', 'U'), ('షి', '|'), ('మం', 'U'), ('త్రై', 'U'), ('న', '|'), ('బొ', '|'), ('రు', '|'), ('గు', '|'), ('న', '|'), ('న', 'U'), ('త్తి', 'U'), ('ల్లు', '|'), ('పొ', '|'), ('స', '|'), ('గు', '|'), ('టై', 'U'), ('న', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('ప', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('జ', '|'), ('డ', '|'), ('దా', 'U'), ('రి', '|'), ('తో', 'U'), ('డై', 'U'), ('న', '|'), ('నె', '|'), ('ను', '|'), ('ము', '|'), ('తో', 'U'), ('న', 'U'), ('ట్టే', 'U'), ('ట', '|'), ('యీ', 'U'), ('ద', '|'), ('టై', 'U'), ('న', '|'), ('బె', '|'), ('ను', '|'), ('వా', 'U'), ('న', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('పై', 'U'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('జ', '|'), ('లి', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('క్ష', '|'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('టై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మరణమిక వేరు లేదు భూమండలమున । లెక్క సేయంగనగునె యీ దుఃఖమహిమ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>మరణమిక వేరు లేదు భూమండలమున । లెక్క సేయంగనగునె యీ దుఃఖమహిమ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ర', '|'), ('ణ', '|'), ('మి', '|'), ('క', '|'), ('వే', 'U'), ('రు', '|'), ('లే', 'U'), ('దు', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('లె', 'U'), ('క్క', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('న', '|'), ('గు', '|'), ('నె', '|'), ('యీ', 'U'), ('దుః', 'U'), ('ఖ', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
         <is>
           <t>వితరణశౌర్యప్రతిష్ఠునకే కాక । మీసము పిసినారికోసకేల
 సిరిగల ఘనసువాసిని కొప్పునకుఁ గాక । బొండుమల్లెలు బోడిముండకేల
@@ -4518,63 +4137,57 @@
 జాతైన బారాహజారితేజికిఁ గాక । కఱకుల కళ్ళెంబు గాడ్దెకేల</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('త', '|'), ('ర', '|'), ('ణ', '|'), ('శౌ', 'U'), ('ర్య', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('కే', 'U'), ('కా', 'U'), ('క', '|'), ('మీ', 'U'), ('స', '|'), ('ము', '|'), ('పి', '|'), ('సి', '|'), ('నా', 'U'), ('రి', '|'), ('కో', 'U'), ('స', '|'), ('కే', 'U'), ('ల', '|'), ('సి', '|'), ('రి', '|'), ('గ', '|'), ('ల', '|'), ('ఘ', '|'), ('న', '|'), ('సు', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('బొం', 'U'), ('డు', '|'), ('మ', 'U'), ('ల్లె', '|'), ('లు', '|'), ('బో', 'U'), ('డి', '|'), ('ముం', 'U'), ('డ', '|'), ('కే', 'U'), ('ల', 'U'), ('ప్ర', '|'), ('జ', '|'), ('సు', '|'), ('ఖిం', 'U'), ('ప', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('పం', 'U'), ('ట', '|'), ('చె', 'U'), ('ర్వు', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('గం', 'U'), ('డి', '|'), ('గుం', 'U'), ('ట', '|'), ('కు', '|'), ('ఱా', 'U'), ('తి', '|'), ('క', 'U'), ('ట్ట', '|'), ('యే', 'U'), ('ల', '|'), ('జా', 'U'), ('తై', 'U'), ('న', '|'), ('బా', 'U'), ('రా', 'U'), ('హ', '|'), ('జా', 'U'), ('రి', '|'), ('తే', 'U'), ('జి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('ఱ', '|'), ('కు', '|'), ('ల', '|'), ('క', 'U'), ('ళ్ళెం', 'U'), ('బు', '|'), ('గా', 'U'), ('డ్దె', '|'), ('కే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నతులితంబైన యల పతివ్రతకుఁ గాక । శుద్ధవేశ్యకు మంగళసూత్రమేల
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>నతులితంబైన యల పతివ్రతకుఁ గాక । శుద్ధవేశ్యకు మంగళసూత్రమేల
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('తు', '|'), ('లి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('య', '|'), ('ల', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('త', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('వే', 'U'), ('శ్య', '|'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('సూ', 'U'), ('త్ర', '|'), ('మే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
         <is>
           <t>విద్యాధికుల రాజు వివరించి నిలిపెనా । యిందఱేమిటికంచుఁ గుందుచుండు
 మోమీను కుగ్రాణమును జెప్ప నొడ్లగిం- । జలకు బరాతముల్ సరవి వ్రాయు
@@ -4582,63 +4195,57 @@
 బారిశాల్వలు దెచ్చి బహుమతినిమ్మన్నఁ । తలపక సీమవస్త్రముల నిచ్చు</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('ద్యా', 'U'), ('ధి', '|'), ('కు', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('ని', '|'), ('లి', '|'), ('పె', '|'), ('నా', 'U'), ('యిం', 'U'), ('ద', '|'), ('ఱే', 'U'), ('మి', '|'), ('టి', '|'), ('కం', 'U'), ('చు', '|'), ('గుం', 'U'), ('దు', '|'), ('చుం', 'U'), ('డు', '|'), ('మో', 'U'), ('మీ', 'U'), ('ను', '|'), ('కు', 'U'), ('గ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నొ', 'U'), ('డ్ల', '|'), ('గిం', 'U'), ('జ', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('స', '|'), ('ర', '|'), ('వి', 'U'), ('వ్రా', 'U'), ('యు', '|'), ('తిం', 'U'), ('డి', '|'), ('కి', '|'), ('జే', 'U'), ('టు', '|'), ('గా', 'U'), ('బం', 'U'), ('డి', '|'), ('తు', '|'), ('లే', 'U'), ('ల', '|'), ('తె', 'U'), ('ప్పు', '|'), ('న', '|'), ('సె', '|'), ('ల', '|'), ('వి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('బా', 'U'), ('రి', '|'), ('శా', 'U'), ('ల్వ', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('బ', '|'), ('హు', '|'), ('మ', '|'), ('తి', '|'), ('ని', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('క', '|'), ('సీ', 'U'), ('మ', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిట్టి యపకీర్తి మంత్రిని బెట్టఁదగదు । మంచిమాటల జరగఁ బోయించవలయు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>నిట్టి యపకీర్తి మంత్రిని బెట్టఁదగదు । మంచిమాటల జరగఁ బోయించవలయు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ట్టి', '|'), ('య', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('మం', 'U'), ('త్రి', '|'), ('ని', '|'), ('బె', 'U'), ('ట్ట', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('మం', 'U'), ('చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('జ', '|'), ('ర', '|'), ('గ', '|'), ('బో', 'U'), ('యిం', 'U'), ('చ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>వండలేనమ్మకు వక్కణంబులు గొప్ప । యారిపొయ్యెడి దివ్వె కధికదీప్తి
 కట్టనిల్వని చెర్వు గడియలోపల నిండు । బ్రతుకనేరని బిడ్డ బారెడుండు
@@ -4646,63 +4253,57 @@
 మన్నించుటకు దొరల్ గని చనవిచ్చుట । పొయిసాలకే పాలు పొంగుటెల్ల</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('డ', '|'), ('లే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('వ', 'U'), ('క్క', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('యా', 'U'), ('రి', '|'), ('పొ', 'U'), ('య్యె', '|'), ('డి', '|'), ('ది', 'U'), ('వ్వె', '|'), ('క', '|'), ('ధి', '|'), ('క', '|'), ('దీ', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ట్ట', '|'), ('ని', 'U'), ('ల్వ', '|'), ('ని', '|'), ('చె', 'U'), ('ర్వు', '|'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నిం', 'U'), ('డు', 'U'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('బి', 'U'), ('డ్డ', '|'), ('బా', 'U'), ('రె', '|'), ('డుం', 'U'), ('డు', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('నొం', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ట్టు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('తీ', 'U'), ('గి', '|'), ('డు', '|'), ('జా', 'U'), ('డ్య', '|'), ('మె', 'U'), ('చ్చు', '|'), ('ముం', 'U'), ('ద', '|'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('ని', 'U'), ('చ్చు', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('దొ', '|'), ('రల్', 'U'), ('గ', '|'), ('ని', '|'), ('చ', '|'), ('న', '|'), ('వి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('పొ', '|'), ('యి', '|'), ('సా', 'U'), ('ల', '|'), ('కే', 'U'), ('పా', 'U'), ('లు', '|'), ('పొం', 'U'), ('గు', '|'), ('టె', 'U'), ('ల్ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పెరుగుట విరుగుటకనియు నెఱుగలేక । యదరిపడుచుండు నొక్కొక్క యల్పజనుడు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>పెరుగుట విరుగుటకనియు నెఱుగలేక । యదరిపడుచుండు నొక్కొక్క యల్పజనుడు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('వి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('క', '|'), ('ని', '|'), ('యు', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('య', '|'), ('ద', '|'), ('రి', '|'), ('ప', '|'), ('డు', '|'), ('చుం', 'U'), ('డు', '|'), ('నొ', 'U'), ('క్కొ', 'U'), ('క్క', '|'), ('య', 'U'), ('ల్ప', '|'), ('జ', '|'), ('ను', '|'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
         <is>
           <t>హేమాచలము శృంగమెక్కి ఱెక్కార్చుచుఁ । గాకి యుండిననే పికంబు గాదు
 గంగాది నదులలోఁ గలయ ముంచంగనే । చీపురుపుల్లలు వేప గాదు
@@ -4710,63 +4311,57 @@
 పొదుగు లావై యెంత పొడుగుగాఁ బెరిగినఁ । గుక్కపో తెన్నఁడు గోవు గాదు</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('హే', 'U'), ('మా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('శృం', 'U'), ('గ', '|'), ('మె', 'U'), ('క్కి', '|'), ('ఱె', 'U'), ('క్కా', 'U'), ('ర్చు', '|'), ('చు', '|'), ('గా', 'U'), ('కి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('నే', 'U'), ('పి', '|'), ('కం', 'U'), ('బు', '|'), ('గా', 'U'), ('దు', '|'), ('గం', 'U'), ('గా', 'U'), ('ది', '|'), ('న', '|'), ('దు', '|'), ('ల', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('ముం', 'U'), ('చం', 'U'), ('గ', '|'), ('నే', 'U'), ('చీ', 'U'), ('పు', '|'), ('రు', '|'), ('పు', 'U'), ('ల్ల', '|'), ('లు', '|'), ('వే', 'U'), ('ప', '|'), ('గా', 'U'), ('దు', '|'), ('తె', '|'), ('గ', '|'), ('ది', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పి', 'U'), ('క్క', '|'), ('లె', '|'), ('గ', '|'), ('సి', '|'), ('బ', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('దు', 'U'), ('న్న', '|'), ('పో', 'U'), ('తే', 'U'), ('ను', '|'), ('గు', '|'), ('గు', 'U'), ('న్న', '|'), ('గా', 'U'), ('దు', '|'), ('పొ', '|'), ('దు', '|'), ('గు', '|'), ('లా', 'U'), ('వై', 'U'), ('యెం', 'U'), ('త', '|'), ('పొ', '|'), ('డు', '|'), ('గు', '|'), ('గా', 'U'), ('బె', '|'), ('రి', '|'), ('గి', '|'), ('న', '|'), ('గు', 'U'), ('క్క', '|'), ('పో', 'U'), ('తె', 'U'), ('న్న', '|'), ('డు', '|'), ('గో', 'U'), ('వు', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఉన్నతస్థానమందు గూర్చుండగానె । భ్రష్టు భ్రష్టగు గాక శిష్టుండు గాడు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ఉన్నతస్థానమందు గూర్చుండగానె । భ్రష్టు భ్రష్టగు గాక శిష్టుండు గాడు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('న్న', '|'), ('త', 'U'), ('స్థా', 'U'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('గా', 'U'), ('నె', 'U'), ('భ్ర', 'U'), ('ష్టు', 'U'), ('భ్ర', 'U'), ('ష్ట', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('శి', 'U'), ('ష్టుం', 'U'), ('డు', '|'), ('గా', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
         <is>
           <t>పాలన లేని భూపతిని గొల్చుట రోత । యౌదార్యహీనుని నడుగ రోత
 కులహీనజనులతోఁ గలహింపగను రోత । గుణహీనజనులతో గూడ రోత
@@ -4774,63 +4369,57 @@
 తుచ్ఛపు జనులకు నిచ్చనొందుట రోత । చెలఁగి సద్గురు నిందసేయ రోత</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('యౌ', 'U'), ('దా', 'U'), ('ర్య', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('రో', 'U'), ('త', '|'), ('కు', '|'), ('ల', '|'), ('హీ', 'U'), ('న', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('గ', '|'), ('ల', '|'), ('హిం', 'U'), ('ప', '|'), ('గ', '|'), ('ను', '|'), ('రో', 'U'), ('త', '|'), ('గు', '|'), ('ణ', '|'), ('హీ', 'U'), ('న', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('గూ', 'U'), ('డ', '|'), ('రో', 'U'), ('త', '|'), ('పా', 'U'), ('షం', 'U'), ('డ', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('పై', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('మ', 'U'), ('ధ్య', '|'), ('పా', 'U'), ('యీ', 'U'), ('ల', '|'), ('తో', 'U'), ('మై', 'U'), ('త్రి', '|'), ('రో', 'U'), ('త', '|'), ('తు', 'U'), ('చ్ఛ', '|'), ('పు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('నిం', 'U'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('రో', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వేదబాహ్యుల విద్యలు వినగ రోత । క్రూరుఁడైయున్న హరిభక్తుఁ గూడ రోత
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>వేదబాహ్యుల విద్యలు వినగ రోత । క్రూరుఁడైయున్న హరిభక్తుఁ గూడ రోత
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ద', '|'), ('బా', 'U'), ('హ్యు', '|'), ('ల', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('గ', '|'), ('రో', 'U'), ('త', 'U'), ('క్రూ', 'U'), ('రు', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('హ', '|'), ('రి', '|'), ('భ', 'U'), ('క్తు', '|'), ('గూ', 'U'), ('డ', '|'), ('రో', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>పసచెడి యత్తింటఁ బడి యుండుటది రోత । పరువు దప్పినయెడ బ్రతుకు రోత
 ఋణపడి సౌఖ్యంబు లనుభవించుట రోత । పరుల కల్మికి దుఃఖపడుట రోత
@@ -4838,63 +4427,57 @@
 పిలువని పెత్తనంబులకుఁ బోవుట రోత । యల్పుతో సరసంబులాడ రోత</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('స', '|'), ('చె', '|'), ('డి', '|'), ('య', 'U'), ('త్తిం', 'U'), ('ట', '|'), ('బ', '|'), ('డి', '|'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('ది', '|'), ('రో', 'U'), ('త', '|'), ('ప', '|'), ('రు', '|'), ('వు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('యె', '|'), ('డ', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('రో', 'U'), ('త', '|'), ('ఋ', '|'), ('ణ', '|'), ('ప', '|'), ('డి', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('క', 'U'), ('ల్మి', '|'), ('కి', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('డు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('లా', 'U'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('శు', '|'), ('న', '|'), ('కు', '|'), ('పి', 'U'), ('ర్కి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('రో', 'U'), ('త', '|'), ('పి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('పె', 'U'), ('త్త', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('య', 'U'), ('ల్పు', '|'), ('తో', 'U'), ('స', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('లా', 'U'), ('డ', '|'), ('రో', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పరుల సంపద కనుగొని బ్రమయ రోత । బలము లేనట్టి రాజుల బ్రతుకు రోత
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>పరుల సంపద కనుగొని బ్రమయ రోత । బలము లేనట్టి రాజుల బ్రతుకు రోత
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('క', '|'), ('ను', '|'), ('గొ', '|'), ('ని', 'U'), ('బ్ర', '|'), ('మ', '|'), ('య', '|'), ('రో', 'U'), ('త', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('లే', 'U'), ('న', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('రో', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>నందిగణం బెక్కి నడువీథినే వచ్చు । దైవమో గంగ మోదమ్ము రాజో
 ఇసకాప్పసీనఁడో యీరుఁడో యీసుఁడో । యీసుడైతే యెనకఁ దోఁకలేదె
@@ -4902,63 +4485,57 @@
 మంచిది చూతాము మారమ్మ కాబోలు । మారెమ్మయైతేను మాలయేది</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('నం', 'U'), ('ది', '|'), ('గ', '|'), ('ణం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('న', '|'), ('డు', '|'), ('వీ', 'U'), ('థి', '|'), ('నే', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('దై', 'U'), ('వ', '|'), ('మో', 'U'), ('గం', 'U'), ('గ', '|'), ('మో', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('జో', 'U'), ('ఇ', '|'), ('స', '|'), ('కా', 'U'), ('ప్ప', '|'), ('సీ', 'U'), ('న', '|'), ('డో', 'U'), ('యీ', 'U'), ('రు', '|'), ('డో', 'U'), ('యీ', 'U'), ('సు', '|'), ('డో', 'U'), ('యీ', 'U'), ('సు', '|'), ('డై', 'U'), ('తే', 'U'), ('యె', '|'), ('న', '|'), ('క', '|'), ('దో', 'U'), ('క', '|'), ('లే', 'U'), ('దె', '|'), ('ఆ', 'U'), ('ళ్ళ', '|'), ('రో', 'U'), ('గ', '|'), ('ణ', '|'), ('ప', '|'), ('తో', 'U'), ('అ', 'U'), ('మ్మ', '|'), ('చీ', 'U'), ('త', 'U'), ('మ్మ', '|'), ('రో', 'U'), ('చీ', 'U'), ('తా', 'U'), ('మ్మ', '|'), ('రై', 'U'), ('యుం', 'U'), ('టె', '|'), ('సిం', 'U'), ('గ', '|'), ('మే', 'U'), ('ది', '|'), ('మం', 'U'), ('చి', '|'), ('ది', '|'), ('చూ', 'U'), ('తా', 'U'), ('ము', '|'), ('మా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('కా', 'U'), ('బో', 'U'), ('లు', '|'), ('మా', 'U'), ('రె', 'U'), ('మ్మ', '|'), ('యై', 'U'), ('తే', 'U'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('యే', 'U'), ('ది', '|')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ప్రాకృతజనంబు లీరీతిఁ బలుకుచుంద్రు । తెలివి యించుక లేకను దెలిసికొనక
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ప్రాకృతజనంబు లీరీతిఁ బలుకుచుంద్రు । తెలివి యించుక లేకను దెలిసికొనక
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('ప్రా', 'U'), ('కృ', '|'), ('త', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('చుం', 'U'), ('ద్రు', '|'), ('తె', '|'), ('లి', '|'), ('వి', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('లే', 'U'), ('క', '|'), ('ను', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('కొ', '|'), ('న', '|'), ('క', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>వేదశాస్త్రములు విన సొంపు లేదాయె । సంగీతవిద్య బల్ చౌకనాయె
 కవితారసజ్ఞత కలలోను లేదాయె । బారమార్థికబుద్ధి భస్మమాయె
@@ -4966,63 +4543,57 @@
 వర్ణాశ్రమాచారవర్ణన లేదాయె । హీనకులంబులు హెచ్చులాయె</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('సొం', 'U'), ('పు', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('వి', 'U'), ('ద్య', '|'), ('బల్', 'U'), ('చౌ', 'U'), ('క', '|'), ('నా', 'U'), ('యె', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('ను', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('బా', 'U'), ('ర', '|'), ('మా', 'U'), ('ర్థి', '|'), ('క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('భ', 'U'), ('స్మ', '|'), ('మా', 'U'), ('యె', '|'), ('భూ', 'U'), ('త', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('కు', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('మెం', 'U'), ('డా', 'U'), ('యె', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('పో', 'U'), ('యె', '|'), ('వ', 'U'), ('ర్ణా', 'U'), ('శ్ర', '|'), ('మా', 'U'), ('చా', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('హీ', 'U'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హె', 'U'), ('చ్చు', '|'), ('లా', 'U'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వావివరుసలు లేవాయె వసుధలోన । నీదు కరుణయు రాదాయె నీరజాక్ష
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>వావివరుసలు లేవాయె వసుధలోన । నీదు కరుణయు రాదాయె నీరజాక్ష
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('వి', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('లు', '|'), ('లే', 'U'), ('వా', 'U'), ('యె', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('యు', '|'), ('రా', 'U'), ('దా', 'U'), ('యె', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>మౌనంబు దాల్చుట మనసిచ్చగింపమి । గదిసివేయుట లోభకారణంబు
 దర్శనంబియ్యమి తప్పుసైపకయున్కి । పెడమోముపెట్టుట ప్రియములేమి
@@ -5030,64 +4601,58 @@
 నరయుదమన్న రంధ్రాన్వేషణాసక్తి । యతివినయంబు ధౌర్త్యంబు తెరువు</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('మౌ', 'U'), ('నం', 'U'), ('బు', '|'), ('దా', 'U'), ('ల్చు', '|'), ('ట', '|'), ('మ', '|'), ('న', '|'), ('సి', 'U'), ('చ్చ', '|'), ('గిం', 'U'), ('ప', '|'), ('మి', '|'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('వే', 'U'), ('యు', '|'), ('ట', '|'), ('లో', 'U'), ('భ', '|'), ('కా', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బి', 'U'), ('య్య', '|'), ('మి', '|'), ('త', 'U'), ('ప్పు', '|'), ('సై', 'U'), ('ప', '|'), ('క', '|'), ('యు', 'U'), ('న్కి', '|'), ('పె', '|'), ('డ', '|'), ('మో', 'U'), ('ము', '|'), ('పె', 'U'), ('ట్టు', '|'), ('ట', 'U'), ('ప్రి', '|'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('మి', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('ట', '|'), ('కా', 'U'), ('ర్యాం', 'U'), ('త', '|'), ('రా', 'U'), ('స', 'U'), ('క్తి', '|'), ('స', '|'), ('మ', '|'), ('యం', 'U'), ('బు', '|'), ('గా', 'U'), ('దం', 'U'), ('ట', '|'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('ర', '|'), ('యు', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', '|'), ('రం', 'U'), ('ధ్రా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణా', 'U'), ('స', 'U'), ('క్తి', '|'), ('య', '|'), ('తి', '|'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బు', '|'), ('ధౌ', 'U'), ('ర్త్యం', 'U'), ('బు', '|'), ('తె', '|'), ('రు', '|'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
         <is>
           <t>లిట్టి ప్రభు దుర్ణయపుఁ జేష్ట లెఱుగలేక । వెంబడించెడివాడెపో వెఱ్ఱివాడు
 వాని కొడబడఁ డింగితజ్ఞానశాలి
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
           <t>[('లి', 'U'), ('ట్టి', 'U'), ('ప్ర', '|'), ('భు', '|'), ('దు', 'U'), ('ర్ణ', '|'), ('య', '|'), ('పు', '|'), ('జే', 'U'), ('ష్ట', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('వెం', 'U'), ('బ', '|'), ('డిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('డె', '|'), ('పో', 'U'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('డ', '|'), ('బ', '|'), ('డ', '|'), ('డిం', 'U'), ('గి', '|'), ('త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('శా', 'U'), ('లి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
         <is>
           <t>తన తల్లి చోటనే తప్ప నటించిన । దురితాత్మునకుఁ గురుద్రోహమెంత
 కొంకింతయును లేక గురున కెగ్గొనరించు । కఠినాత్మునకుఁ గృతఘ్నత్వమెంత
@@ -5095,64 +4660,58 @@
 పరమమిత్రుల బాధపఱుచు దుర్ణయునకుఁ । బ్రజలనందఱ గష్టపఱచుటెంత</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('చో', 'U'), ('ట', '|'), ('నే', 'U'), ('త', 'U'), ('ప్ప', '|'), ('న', '|'), ('టిం', 'U'), ('చి', '|'), ('న', '|'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('త్ము', '|'), ('న', '|'), ('కు', '|'), ('గు', '|'), ('రు', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మెం', 'U'), ('త', '|'), ('కొం', 'U'), ('కిం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('లే', 'U'), ('క', '|'), ('గు', '|'), ('రు', '|'), ('న', '|'), ('కె', 'U'), ('గ్గొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('క', '|'), ('ఠి', '|'), ('నా', 'U'), ('త్ము', '|'), ('న', '|'), ('కు', '|'), ('గృ', '|'), ('త', 'U'), ('ఘ్న', 'U'), ('త్వ', '|'), ('మెం', 'U'), ('త', '|'), ('కృ', '|'), ('త', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('కి', 'U'), ('ల్బి', '|'), ('షా', 'U'), ('య', 'U'), ('త్త', '|'), ('చి', 'U'), ('త్తు', '|'), ('న', '|'), ('కు', '|'), ('మి', 'U'), ('త్ర', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('నెం', 'U'), ('త', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('మి', 'U'), ('త్రు', '|'), ('ల', '|'), ('బా', 'U'), ('ధ', '|'), ('ప', '|'), ('ఱు', '|'), ('చు', '|'), ('దు', 'U'), ('ర్ణ', '|'), ('యు', '|'), ('న', '|'), ('కు', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('గ', 'U'), ('ష్ట', '|'), ('ప', '|'), ('ఱ', '|'), ('చు', '|'), ('టెం', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
         <is>
           <t>యనుచుఁ దనదు చరిత్రంబు లవనిజనులు । నిందసేయంగ బ్రతుకు దుర్నీతిపరుని
 వైభవంబౌర యని మెచ్చువాఁడెవండు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('చ', '|'), ('రి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', '|'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('నిం', 'U'), ('ద', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('దు', 'U'), ('ర్నీ', 'U'), ('తి', '|'), ('ప', '|'), ('రు', '|'), ('ని', '|'), ('వై', 'U'), ('భ', '|'), ('వం', 'U'), ('బౌ', 'U'), ('ర', '|'), ('య', '|'), ('ని', '|'), ('మె', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డె', '|'), ('వం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
         <is>
           <t>జలధివేష్టిత మహీచక్రమేలెడు రాజు । వెంట జేనెడు భూమి గొంచుబోడు
 కొండంత ధనరాశి గూర్చు సంపన్నుండు । వెంట దానొకటైన గొంచుబోడు
@@ -5160,64 +4719,58 @@
 బహుమాల్యవస్త్ర సంపాదకుండగువాఁడు । వెంట వ్రేలెడు గుడ్డ గొంచుబోడు</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('ధి', '|'), ('వే', 'U'), ('ష్టి', '|'), ('త', '|'), ('మ', '|'), ('హీ', 'U'), ('చ', 'U'), ('క్ర', '|'), ('మే', 'U'), ('లె', '|'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('వెం', 'U'), ('ట', '|'), ('జే', 'U'), ('నె', '|'), ('డు', '|'), ('భూ', 'U'), ('మి', '|'), ('గొం', 'U'), ('చు', '|'), ('బో', 'U'), ('డు', '|'), ('కొం', 'U'), ('డం', 'U'), ('త', '|'), ('ధ', '|'), ('న', '|'), ('రా', 'U'), ('శి', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నుం', 'U'), ('డు', '|'), ('వెం', 'U'), ('ట', '|'), ('దా', 'U'), ('నొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('గొం', 'U'), ('చు', '|'), ('బో', 'U'), ('డు', '|'), ('అ', '|'), ('తి', '|'), ('ధా', 'U'), ('న్య', '|'), ('రా', 'U'), ('సు', '|'), ('ల', '|'), ('నా', 'U'), ('ర్జిం', 'U'), ('చు', '|'), ('నా', 'U'), ('తం', 'U'), ('డు', '|'), ('వెం', 'U'), ('ట', '|'), ('సో', 'U'), ('లె', '|'), ('డు', '|'), ('కొ', 'U'), ('ల్చు', '|'), ('కొం', 'U'), ('చు', '|'), ('బో', 'U'), ('డు', '|'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('ల్య', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('సం', 'U'), ('పా', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('వెం', 'U'), ('ట', 'U'), ('వ్రే', 'U'), ('లె', '|'), ('డు', '|'), ('గు', 'U'), ('డ్డ', '|'), ('గొం', 'U'), ('చు', '|'), ('బో', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
         <is>
           <t>నిన్నియు నెఱింగి దుర్ణయుఁ డెందుకొఱకు । త్యాగభోగంబు లుడిగి లుబ్ధత వహించు
 వాని జన్మంబు జన్మమే వసుధలోన
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ని', '|'), ('యు', '|'), ('నె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('దు', 'U'), ('ర్ణ', '|'), ('యు', '|'), ('డెం', 'U'), ('దు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', 'U'), ('త్యా', 'U'), ('గ', '|'), ('భో', 'U'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('డి', '|'), ('గి', '|'), ('లు', 'U'), ('బ్ధ', '|'), ('త', '|'), ('వ', '|'), ('హిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ని', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('జ', 'U'), ('న్మ', '|'), ('మే', 'U'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
         <is>
           <t>అబ్బినవాని యిల్లాలిఁ గట్టఁగ జూచు । దానియ్యవలసిన దలవ డీగ
 నలుసైనవాని యిల్లాక్రమింపఁగ జూచు । దనకుఁ గీడయినఁ బాదములు పట్టు
@@ -5225,64 +4778,58 @@
 బంధులకిడరంచుఁ బరుల దూషించును । దన యిల్లు చొచ్చినఁ దడకవెట్టు</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్బి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('యి', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('గ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('దా', 'U'), ('ని', 'U'), ('య్య', '|'), ('వ', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('డీ', 'U'), ('గ', '|'), ('న', '|'), ('లు', '|'), ('సై', 'U'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('యి', 'U'), ('ల్లా', 'U'), ('క్ర', '|'), ('మిం', 'U'), ('ప', '|'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('గీ', 'U'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('బా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('ణు', '|'), ('వు', '|'), ('గా', 'U'), ('జూ', 'U'), ('చు', '|'), ('గొం', 'U'), ('డం', 'U'), ('తై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('త', 'U'), ('ప్పు', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యొ', '|'), ('రు', '|'), ('త', 'U'), ('ప్పు', '|'), ('కొం', 'U'), ('డ', '|'), ('సే', 'U'), ('యు', '|'), ('బం', 'U'), ('ధు', '|'), ('ల', '|'), ('కి', '|'), ('డ', '|'), ('రం', 'U'), ('చు', '|'), ('బ', '|'), ('రు', '|'), ('ల', '|'), ('దూ', 'U'), ('షిం', 'U'), ('చు', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('యి', 'U'), ('ల్లు', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ద', '|'), ('డ', '|'), ('క', '|'), ('వె', 'U'), ('ట్టు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
         <is>
           <t>దుర్ణయుల దుర్గుణంబులు ద్రోయరాదు । దానికి ఫలంబు యమసన్నిధానమునను
 దేటపడు గాక యొరులకు దెలుప వశమె
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్ణ', '|'), ('యు', '|'), ('ల', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('ద్రో', 'U'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('దా', 'U'), ('ని', '|'), ('కి', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('య', '|'), ('మ', '|'), ('స', 'U'), ('న్ని', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('దే', 'U'), ('ట', '|'), ('ప', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మె', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
         <is>
           <t>కందిరీగల పట్టు కడఁగి రేపఁగవచ్చు । మానిపింపఁగరాదు దాని పోటు
 చెట్లలో బెబ్బులిఁ జెనకి రావచ్చును । దప్పించుకొనరాదు దాని కాటు
@@ -5290,64 +4837,58 @@
 కాఁకచే బొరుగిల్లు గాల్చిరావచ్చును । దన యిల్లు కాపాడఁ దరము గాదు</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('ది', '|'), ('రీ', 'U'), ('గ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('డ', '|'), ('గి', '|'), ('రే', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మా', 'U'), ('ని', '|'), ('పిం', 'U'), ('ప', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('దా', 'U'), ('ని', '|'), ('పో', 'U'), ('టు', '|'), ('చె', 'U'), ('ట్ల', '|'), ('లో', 'U'), ('బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('జె', '|'), ('న', '|'), ('కి', '|'), ('రా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('రా', 'U'), ('దు', '|'), ('దా', 'U'), ('ని', '|'), ('కా', 'U'), ('టు', '|'), ('ప', '|'), ('ఱ', '|'), ('చు', '|'), ('న', 'U'), ('శ్వ', '|'), ('ము', '|'), ('తో', 'U'), ('క', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యీ', 'U'), ('డ్వ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('కో', 'U'), ('రా', 'U'), ('దు', '|'), ('దా', 'U'), ('ని', '|'), ('త', 'U'), ('న్ను', '|'), ('కా', 'U'), ('క', '|'), ('చే', 'U'), ('బొ', '|'), ('రు', '|'), ('గి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('ల్చి', '|'), ('రా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('యి', 'U'), ('ల్లు', '|'), ('కా', 'U'), ('పా', 'U'), ('డ', '|'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
         <is>
           <t>దుర్ణయులు మీదెఱుంగల దుండగమున । గార్యతతులెల్లఁ జేసి తత్కార్యఫలము
 లనుభవింపుదు రాయాయి యవసరముల
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్ణ', '|'), ('యు', '|'), ('లు', '|'), ('మీ', 'U'), ('దె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ల', '|'), ('దుం', 'U'), ('డ', '|'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('ర్య', '|'), ('త', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('త్కా', 'U'), ('ర్య', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('పు', '|'), ('దు', '|'), ('రా', 'U'), ('యా', 'U'), ('యి', '|'), ('య', '|'), ('వ', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
         <is>
           <t>కన్నంబు ద్రవ్వి తస్కరు డింటివానికి । వాడలేదని ముంత వైచి చనునె
 తెరవాటుకాడు చింతించునే కట్టిన । బట్ట నూడ్చిన మానభంగమనుచు
@@ -5355,64 +4896,58 @@
 జారుండు పరకాంత శయ్యపై దారిచి । వావి గాదని పల్కి వదలి చనునె</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్నం', 'U'), ('బు', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('త', 'U'), ('స్క', '|'), ('రు', '|'), ('డిం', 'U'), ('టి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('వా', 'U'), ('డ', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('ముం', 'U'), ('త', '|'), ('వై', 'U'), ('చి', '|'), ('చ', '|'), ('ను', '|'), ('నె', '|'), ('తె', '|'), ('ర', '|'), ('వా', 'U'), ('టు', '|'), ('కా', 'U'), ('డు', '|'), ('చిం', 'U'), ('తిం', 'U'), ('చు', '|'), ('నే', 'U'), ('క', 'U'), ('ట్టి', '|'), ('న', '|'), ('బ', 'U'), ('ట్ట', '|'), ('నూ', 'U'), ('డ్చి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('భం', 'U'), ('గ', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('వ', '|'), ('ల', '|'), ('బ', 'U'), ('డ్డ', '|'), ('మె', '|'), ('క', '|'), ('ము', '|'), ('చూల్', 'U'), ('వ', '|'), ('హి', '|'), ('యిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('వి', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('నే', 'U'), ('వే', 'U'), ('ట', '|'), ('కా', 'U'), ('డు', '|'), ('జా', 'U'), ('రుం', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('శ', 'U'), ('య్య', '|'), ('పై', 'U'), ('దా', 'U'), ('రి', '|'), ('చి', '|'), ('వా', 'U'), ('వి', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('చ', '|'), ('ను', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
         <is>
           <t>యాత్మజను గుత్తరూకల కమ్మునాతఁ । డాదరమొసంగఁ జూచునె యల్లునకును
 నెఱుగరింతియె గాక పరేంగితంబు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
           <t>[('యా', 'U'), ('త్మ', '|'), ('జ', '|'), ('ను', '|'), ('గు', 'U'), ('త్త', '|'), ('రూ', 'U'), ('క', '|'), ('ల', '|'), ('క', 'U'), ('మ్ము', '|'), ('నా', 'U'), ('త', '|'), ('డా', 'U'), ('ద', '|'), ('ర', '|'), ('మొ', '|'), ('సం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('నె', '|'), ('య', 'U'), ('ల్లు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('రిం', 'U'), ('తి', '|'), ('యె', '|'), ('గా', 'U'), ('క', '|'), ('ప', '|'), ('రేం', 'U'), ('గి', '|'), ('తం', 'U'), ('బు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
         <is>
           <t>గోముఖవ్యాఘ్రంబు కూరలో నిడు నాభి । కప్పకూఁతలు గూయు కాలభుజగ
 మెరచిలోపల గాల మేటిలోపలి యూబి । పైఁ బూరి గ్రమ్మిన పాడునుయ్యి
@@ -5420,64 +4955,58 @@
 చొర నేమరించి ముంచుకొను ప్రవాహంబు । కునుకువట్టినఁ జుట్టుకొను దావాగ్ని</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('ము', '|'), ('ఖ', 'U'), ('వ్యా', 'U'), ('ఘ్రం', 'U'), ('బు', '|'), ('కూ', 'U'), ('ర', '|'), ('లో', 'U'), ('ని', '|'), ('డు', '|'), ('నా', 'U'), ('భి', '|'), ('క', 'U'), ('ప్ప', '|'), ('కూ', 'U'), ('త', '|'), ('లు', '|'), ('గూ', 'U'), ('యు', '|'), ('కా', 'U'), ('ల', '|'), ('భు', '|'), ('జ', '|'), ('గ', '|'), ('మె', '|'), ('ర', '|'), ('చి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గా', 'U'), ('ల', '|'), ('మే', 'U'), ('టి', '|'), ('లో', 'U'), ('ప', '|'), ('లి', '|'), ('యూ', 'U'), ('బి', '|'), ('పై', 'U'), ('బూ', 'U'), ('రి', 'U'), ('గ్ర', 'U'), ('మ్మి', '|'), ('న', '|'), ('పా', 'U'), ('డు', '|'), ('ను', 'U'), ('య్యి', '|'), ('పై', 'U'), ('బం', 'U'), ('డ్లు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బు', 'U'), ('చ్చు', '|'), ('త', '|'), ('రు', '|'), ('శా', 'U'), ('ఖ', '|'), ('గొం', 'U'), ('గ', '|'), ('ళి', '|'), ('మూ', 'U'), ('ల', '|'), ('దా', 'U'), ('గొ', '|'), ('లు', '|'), ('వు', '|'), ('రా', 'U'), ('యి', '|'), ('చొ', '|'), ('ర', '|'), ('నే', 'U'), ('మ', '|'), ('రిం', 'U'), ('చి', '|'), ('ముం', 'U'), ('చు', '|'), ('కొ', '|'), ('ను', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హం', 'U'), ('బు', '|'), ('కు', '|'), ('ను', '|'), ('కు', '|'), ('వ', 'U'), ('ట్టి', '|'), ('న', '|'), ('జు', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ను', '|'), ('దా', 'U'), ('వా', 'U'), ('గ్ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
         <is>
           <t>దుర్జనుఁడు వాని నమ్మిన దొడరకున్నె । హాని యెంతటివానికినైన గాని
 తలదడవి బాసజేసిన తగదు నమ్మ
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('దొ', '|'), ('డ', '|'), ('ర', '|'), ('కు', 'U'), ('న్నె', '|'), ('హా', 'U'), ('ని', '|'), ('యెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('నై', 'U'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('ద', '|'), ('డ', '|'), ('వి', '|'), ('బా', 'U'), ('స', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('త', '|'), ('గ', '|'), ('దు', '|'), ('న', 'U'), ('మ్మ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
         <is>
           <t>తన తల్లి శిశువుల తల ద్రుంచివైచినఁ । జెడుముండ యనుచు వచింపరాదె
 తన తండ్రి యొరుల విత్త మపహరించిన । నన్యాయవర్తనుం డనఁగరాదె
@@ -5485,64 +5014,58 @@
 తన రాజు ప్రజలపట్ల నదప జూచినఁ । గ్రూరాత్ముఁడనుచు వాక్రువ్వరాదె</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('శి', '|'), ('శు', '|'), ('వు', '|'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('వై', 'U'), ('చి', '|'), ('న', '|'), ('జె', '|'), ('డు', '|'), ('ముం', 'U'), ('డ', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('వ', '|'), ('చిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దె', '|'), ('త', '|'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('వి', 'U'), ('త్త', '|'), ('మ', '|'), ('ప', '|'), ('హ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('న', 'U'), ('న్యా', 'U'), ('య', '|'), ('వ', 'U'), ('ర్త', '|'), ('నుం', 'U'), ('డ', '|'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('దె', '|'), ('త', '|'), ('న', '|'), ('దే', 'U'), ('శి', '|'), ('కు', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('దా', 'U'), ('ర', '|'), ('సం', 'U'), ('గ', '|'), ('మొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('బా', 'U'), ('ప', '|'), ('క', '|'), ('ర్ముం', 'U'), ('డ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('రా', 'U'), ('దె', '|'), ('త', '|'), ('న', '|'), ('రా', 'U'), ('జు', 'U'), ('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్ల', '|'), ('న', '|'), ('ద', '|'), ('ప', '|'), ('జూ', 'U'), ('చి', '|'), ('న', 'U'), ('గ్రూ', 'U'), ('రా', 'U'), ('త్ము', '|'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('వ్వ', '|'), ('రా', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
         <is>
           <t>యిట్టి పలుకులు తప్పుగా నెన్నునట్టి । కుటిలచిత్తుల గర్వంబు కొంచెపఱుప
 మీకు గాకన్యులకు శక్యమే తలంప
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ట్టి', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('లు', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('నె', 'U'), ('న్ను', '|'), ('న', 'U'), ('ట్టి', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('చి', 'U'), ('త్తు', '|'), ('ల', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('కొం', 'U'), ('చె', '|'), ('ప', '|'), ('ఱు', '|'), ('ప', '|'), ('మీ', 'U'), ('కు', '|'), ('గా', 'U'), ('క', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
         <is>
           <t>ఆశకు ముదిమియు నర్థికి సౌఖ్యంబు । ధనపరాయణునకు ధర్మచింత
 కఠినమానసునకుఁ గరుణాపరత్వము । వెఱ్ఱిమానిసికి వివేకగరిమ
@@ -5550,64 +5073,58 @@
 బహుజనద్వేషికిఁ బరమాయురభివృద్ధి । గ్రామపాచకునకుఁ గౌరవంబు</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('శ', '|'), ('కు', '|'), ('ము', '|'), ('ది', '|'), ('మి', '|'), ('యు', '|'), ('న', 'U'), ('ర్థి', '|'), ('కి', '|'), ('సౌ', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('ధ', '|'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణు', '|'), ('న', '|'), ('కు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('చిం', 'U'), ('త', '|'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('సు', '|'), ('న', '|'), ('కు', '|'), ('గ', '|'), ('రు', '|'), ('ణా', 'U'), ('ప', '|'), ('ర', 'U'), ('త్వ', '|'), ('ము', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('మా', 'U'), ('ని', '|'), ('సి', '|'), ('కి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('య', 'U'), ('ల్ప', '|'), ('వి', '|'), ('దు', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('దూ', 'U'), ('ర', '|'), ('త', '|'), ('జా', 'U'), ('ర', '|'), ('కా', 'U'), ('మి', '|'), ('ని', '|'), ('కి', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('బ', '|'), ('హు', '|'), ('జ', '|'), ('న', 'U'), ('ద్వే', 'U'), ('షి', '|'), ('కి', '|'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('యు', '|'), ('ర', '|'), ('భి', '|'), ('వృ', 'U'), ('ద్ధి', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('పా', 'U'), ('చ', '|'), ('కు', '|'), ('న', '|'), ('కు', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
         <is>
           <t>తామసగుణాఢ్యునకు సత్త్వగుణయుక్తి । పాపభీరుత సంతానబాహ్యునకును
 గలదనెడు వార్త గలదె లోకములయందు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('మ', '|'), ('స', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('న', '|'), ('కు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('గు', '|'), ('ణ', '|'), ('యు', 'U'), ('క్తి', '|'), ('పా', 'U'), ('ప', '|'), ('భీ', 'U'), ('రు', '|'), ('త', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('బా', 'U'), ('హ్యు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('ద', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('ర్త', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>శక్తి చాలనివాఁడు సాధుత్వము వహించు । విత్తహీనుఁడు ధర్మవృత్తిఁ దలచు
 వ్యాధిపీడితుఁడు దైవతభక్తి దొరలాడు । ముండ పాతివ్రత్యమునకు జొచ్చు
@@ -5615,64 +5132,58 @@
 రమణి లేకున్న విరక్తి మంచిదియనుఁ । బనిపోవ మౌనివర్తనము దాల్చు</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
           <t>[('శ', 'U'), ('క్తి', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('సా', 'U'), ('ధు', 'U'), ('త్వ', '|'), ('ము', '|'), ('వ', '|'), ('హిం', 'U'), ('చు', '|'), ('వి', 'U'), ('త్త', '|'), ('హీ', 'U'), ('ను', '|'), ('డు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('వృ', 'U'), ('త్తి', '|'), ('ద', '|'), ('ల', '|'), ('చు', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('పీ', 'U'), ('డి', '|'), ('తు', '|'), ('డు', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('దొ', '|'), ('ర', '|'), ('లా', 'U'), ('డు', '|'), ('ముం', 'U'), ('డ', '|'), ('పా', 'U'), ('తి', 'U'), ('వ్ర', 'U'), ('త్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('ప', '|'), ('ద', 'U'), ('ప్రా', 'U'), ('ప్తిం', 'U'), ('ప', '|'), ('న', 'U'), ('న్యా', 'U'), ('ర్తి', '|'), ('కి', '|'), ('గృ', '|'), ('శిం', 'U'), ('చు', '|'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('పై', 'U'), ('బ', '|'), ('డ', '|'), ('బ', '|'), ('రు', '|'), ('వె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('వి', '|'), ('ర', 'U'), ('క్తి', '|'), ('మం', 'U'), ('చి', '|'), ('ది', '|'), ('య', '|'), ('ను', '|'), ('బ', '|'), ('ని', '|'), ('పో', 'U'), ('వ', '|'), ('మౌ', 'U'), ('ని', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
         <is>
           <t>నీ యభావవిరక్తుల కేమి ఫలము । తినక చవిచూడకయె లోఁతు తెలియబడునె
 యెంతవానికినైన మహీస్థలమున
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('య', '|'), ('భా', 'U'), ('వ', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('తి', '|'), ('న', '|'), ('క', '|'), ('చ', '|'), ('వి', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('యె', '|'), ('లో', 'U'), ('తు', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('బ', '|'), ('డు', '|'), ('నె', '|'), ('యెం', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('నై', 'U'), ('న', '|'), ('మ', '|'), ('హీ', 'U'), ('స్థ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>తల్లిని సేవించ దైవతార్చన యేల । తండ్రి గల్గిన పెన్నిధానమేల
 దీనరక్షణమున్న దీర్థాటనంబేల । విద్యాధికతయున్న వేషమేల
@@ -5680,64 +5191,58 @@
 రసికత్వమున్న సురత్నభూషణమేల । ఘనవాహనంబున్నఁ గవచమేల</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('సే', 'U'), ('విం', 'U'), ('చ', '|'), ('దై', 'U'), ('వ', '|'), ('తా', 'U'), ('ర్చ', '|'), ('న', '|'), ('యే', 'U'), ('ల', '|'), ('తం', 'U'), ('డ్రి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('పె', 'U'), ('న్ని', '|'), ('ధా', 'U'), ('న', '|'), ('మే', 'U'), ('ల', '|'), ('దీ', 'U'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', 'U'), ('న్న', '|'), ('దీ', 'U'), ('ర్థా', 'U'), ('ట', '|'), ('నం', 'U'), ('బే', 'U'), ('ల', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ధి', '|'), ('క', '|'), ('త', '|'), ('యు', 'U'), ('న్న', '|'), ('వే', 'U'), ('ష', '|'), ('మే', 'U'), ('ల', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('మి', 'U'), ('త్రుం', 'U'), ('డు', 'U'), ('న్న', '|'), ('బం', 'U'), ('ధు', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బే', 'U'), ('ల', '|'), ('ప', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('ర', '|'), ('సి', '|'), ('క', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్న', '|'), ('సు', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('మే', 'U'), ('ల', '|'), ('ఘ', '|'), ('న', '|'), ('వా', 'U'), ('హ', '|'), ('నం', 'U'), ('బు', 'U'), ('న్న', '|'), ('గ', '|'), ('వ', '|'), ('చ', '|'), ('మే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
         <is>
           <t>యిష్టసంసిద్ధిగన దంతి నెక్కనేల । కవిత గల్గిన రాజ్యాధికారమేల
 తగు వినయమున్న వశ్యౌషంబులేల
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('సి', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('న', '|'), ('దం', 'U'), ('తి', '|'), ('నె', 'U'), ('క్క', '|'), ('నే', 'U'), ('ల', '|'), ('క', '|'), ('వి', '|'), ('త', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('రా', 'U'), ('జ్యా', 'U'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మే', 'U'), ('ల', '|'), ('త', '|'), ('గు', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ము', 'U'), ('న్న', '|'), ('వ', 'U'), ('శ్యౌ', 'U'), ('షం', 'U'), ('బు', '|'), ('లే', 'U'), ('ల', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>అర్థాతురునకు గృత్యాకృత్యములు లేవు । కవిజనంబుల కెఱుంగనివి లేవు
 కుక్షింభరుఁడు కాని కూటికి రోయఁడు । కామాతురుం డర్థకాంక్ష వీడఁడు
@@ -5745,64 +5250,58 @@
 పాపశీలికి దయాపరత యెందును లేదు । వెఱ్ఱివానికి సాధువృత్తి లేదు</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ర్థా', 'U'), ('తు', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('గృ', 'U'), ('త్యా', 'U'), ('కృ', 'U'), ('త్య', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('వు', '|'), ('క', '|'), ('వి', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('కె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('వి', '|'), ('లే', 'U'), ('వు', '|'), ('కు', 'U'), ('క్షిం', 'U'), ('భ', '|'), ('రు', '|'), ('డు', '|'), ('కా', 'U'), ('ని', '|'), ('కూ', 'U'), ('టి', '|'), ('కి', '|'), ('రో', 'U'), ('య', '|'), ('డు', '|'), ('కా', 'U'), ('మా', 'U'), ('తు', '|'), ('రుం', 'U'), ('డ', 'U'), ('ర్థ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('డ', '|'), ('డు', '|'), ('వె', '|'), ('లి', '|'), ('చ', '|'), ('వు', 'U'), ('ల్గొ', '|'), ('ను', '|'), ('కాం', 'U'), ('త', '|'), ('వె', '|'), ('ఱ', '|'), ('వ', '|'), ('దు', '|'), ('నిం', 'U'), ('ద', '|'), ('కు', '|'), ('నీ', 'U'), ('త', '|'), ('కు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('లో', 'U'), ('తు', '|'), ('లే', 'U'), ('దు', '|'), ('పా', 'U'), ('ప', '|'), ('శీ', 'U'), ('లి', '|'), ('కి', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('ర', '|'), ('త', '|'), ('యెం', 'U'), ('దు', '|'), ('ను', '|'), ('లే', 'U'), ('దు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('సా', 'U'), ('ధు', '|'), ('వృ', 'U'), ('త్తి', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
         <is>
           <t>మద్యపానుల కనరాని మాటలేదు । గ్రామ్యునకు గల్గదెందు నాగరికముద్ర
 తప్పెఱుంగక పోవఁ డుత్తమకులజుఁడు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('ద్య', '|'), ('పా', 'U'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('న', '|'), ('రా', 'U'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లే', 'U'), ('దు', 'U'), ('గ్రా', 'U'), ('మ్యు', '|'), ('న', '|'), ('కు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('దెం', 'U'), ('దు', '|'), ('నా', 'U'), ('గ', '|'), ('రి', '|'), ('క', '|'), ('ము', '|'), ('ద్ర', '|'), ('త', 'U'), ('ప్పె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('డు', 'U'), ('త్త', '|'), ('మ', '|'), ('కు', '|'), ('ల', '|'), ('జు', '|'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
         <is>
           <t>మరణంబు మేలవమాన మొందుటకంటెఁ । గొంచమైనను బంచి కొడుచుటొప్పు
 తన విత్తహానియౌనని మది దలపక । హితవున్నచోట నప్పియ్యదగదు
@@ -5810,64 +5309,58 @@
 యాలస్యమొనరింప నమృతంబు విషమగు । డగవు దప్పిన మాట దలఁపరాదు</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('మే', 'U'), ('ల', '|'), ('వ', '|'), ('మా', 'U'), ('న', '|'), ('మొం', 'U'), ('దు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('గొం', 'U'), ('చ', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('చి', '|'), ('కొ', '|'), ('డు', '|'), ('చు', '|'), ('టొ', 'U'), ('ప్పు', '|'), ('త', '|'), ('న', '|'), ('వి', 'U'), ('త్త', '|'), ('హా', 'U'), ('ని', '|'), ('యౌ', 'U'), ('న', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('క', '|'), ('హి', '|'), ('త', '|'), ('వు', 'U'), ('న్న', '|'), ('చో', 'U'), ('ట', '|'), ('న', 'U'), ('ప్పి', 'U'), ('య్య', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('దు', '|'), ('కు', '|'), ('దు', '|'), ('వ', '|'), ('బె', 'U'), ('ట్ట', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('కుం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('యా', 'U'), ('ల', 'U'), ('స్య', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('న', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('వి', '|'), ('ష', '|'), ('మ', '|'), ('గు', '|'), ('డ', '|'), ('గ', '|'), ('వు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
         <is>
           <t>వదలవలయును నుపద్రవంపు వృత్తి । విడువవలయును భయద పృథ్వీతలేంద్రు
 త్రోయవలయును కపటవృత్తులను భువిని
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('ను', '|'), ('ప', '|'), ('ద్ర', '|'), ('వం', 'U'), ('పు', '|'), ('వృ', 'U'), ('త్తి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('పృ', 'U'), ('థ్వీ', 'U'), ('త', '|'), ('లేం', 'U'), ('ద్రు', 'U'), ('త్రో', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('వృ', 'U'), ('త్తు', '|'), ('ల', '|'), ('ను', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>పాపాత్మునకు బారుపత్య మియ్యగరాదు । చాలని పనికిఁ గాల్సాచరాదు
 పలుగాకివానితో భాషింపగా రాదు । చెడ్డవానికి మేలు సేయరాదు
@@ -5875,64 +5368,58 @@
 తప్పు సేయనివాని దండింపబోరాదు । చేసిన కృత్యంబు చెప్పరాదు</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('పా', 'U'), ('త్ము', '|'), ('న', '|'), ('కు', '|'), ('బా', 'U'), ('రు', '|'), ('ప', 'U'), ('త్య', '|'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('గా', 'U'), ('ల్సా', 'U'), ('చ', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('గా', 'U'), ('కి', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('చె', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('మే', 'U'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('యా', 'U'), ('దా', 'U'), ('య', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('య', 'U'), ('ప్పు', '|'), ('తీ', 'U'), ('య', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('వు', '|'), ('రి', '|'), ('తో', 'U'), ('ద్వే', 'U'), ('ష', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('త', 'U'), ('ప్పు', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('దం', 'U'), ('డిం', 'U'), ('ప', '|'), ('బో', 'U'), ('రా', 'U'), ('దు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('కృ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
         <is>
           <t>పరుల ధనసంపదల కసూయ పడగరాదు । తనదు లేమికి ఖేదమొందంగరాదు
 సాధువర్తనలివి గాదు చర్చసేయ
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('ధ', '|'), ('న', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('సూ', 'U'), ('య', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('న', '|'), ('దు', '|'), ('లే', 'U'), ('మి', '|'), ('కి', '|'), ('ఖే', 'U'), ('ద', '|'), ('మొం', 'U'), ('దం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('సా', 'U'), ('ధు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('లి', '|'), ('వి', '|'), ('గా', 'U'), ('దు', '|'), ('చ', 'U'), ('ర్చ', '|'), ('సే', 'U'), ('య', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
         <is>
           <t>ఎరువు నిత్యంబౌనె యిల్లౌనె పందిలి । యిల నెండమావులు జలములౌనె
 వరవు డిల్లాలౌనె పాపు బంటౌనె । గులటతనూజుండు గొమరుఁడౌనె
@@ -5940,64 +5427,58 @@
 కంతి తలగడౌనె కల యథార్థంబౌనె । పెనుదిబ్బ ముక్కాలిపీఁటయౌనె</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('రు', '|'), ('వు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బౌ', 'U'), ('నె', '|'), ('యి', 'U'), ('ల్లౌ', 'U'), ('నె', '|'), ('పం', 'U'), ('ది', '|'), ('లి', '|'), ('యి', '|'), ('ల', '|'), ('నెం', 'U'), ('డ', '|'), ('మా', 'U'), ('వు', '|'), ('లు', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('లౌ', 'U'), ('నె', '|'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('డి', 'U'), ('ల్లా', 'U'), ('లౌ', 'U'), ('నె', '|'), ('పా', 'U'), ('పు', '|'), ('బం', 'U'), ('టౌ', 'U'), ('నె', '|'), ('గు', '|'), ('ల', '|'), ('ట', '|'), ('త', '|'), ('నూ', 'U'), ('జుం', 'U'), ('డు', '|'), ('గొ', '|'), ('మ', '|'), ('రు', '|'), ('డౌ', 'U'), ('నె', '|'), ('మె', '|'), ('ఱ', '|'), ('పు', '|'), ('దీ', 'U'), ('పం', 'U'), ('బౌ', 'U'), ('నె', '|'), ('మే', 'U'), ('ఘం', 'U'), ('బు', '|'), ('గొ', '|'), ('డు', '|'), ('గౌ', 'U'), ('నె', 'U'), ('స్వాం', 'U'), ('గ', '|'), ('వా', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లు', '|'), ('తూ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('నె', '|'), ('కం', 'U'), ('తి', '|'), ('త', '|'), ('ల', '|'), ('గ', '|'), ('డౌ', 'U'), ('నె', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('థా', 'U'), ('ర్థం', 'U'), ('బౌ', 'U'), ('నె', '|'), ('పె', '|'), ('ను', '|'), ('ది', 'U'), ('బ్బ', '|'), ('ము', 'U'), ('క్కా', 'U'), ('లి', '|'), ('పీ', 'U'), ('ట', '|'), ('యౌ', 'U'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
         <is>
           <t>గాని వస్తువుఁ బెట్టుకోఁ గాంక్షచేత । బెనఁగుమాత్రంబె కాని లభింపదేమి
 దాని కొడఁబడఁ డింగితజ్ఞానశాలి
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('ని', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కో', 'U'), ('గాం', 'U'), ('క్ష', '|'), ('చే', 'U'), ('త', '|'), ('బె', '|'), ('న', '|'), ('గు', '|'), ('మా', 'U'), ('త్రం', 'U'), ('బె', '|'), ('కా', 'U'), ('ని', '|'), ('ల', '|'), ('భిం', 'U'), ('ప', '|'), ('దే', 'U'), ('మి', '|'), ('దా', 'U'), ('ని', '|'), ('కొ', '|'), ('డ', '|'), ('బ', '|'), ('డ', '|'), ('డిం', 'U'), ('గి', '|'), ('త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('శా', 'U'), ('లి', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
         <is>
           <t>పొరుగూరి కేగినఁ బోవునే దుర్దశ । గాదె పెండిలి సన్నికల్లు దాఁచ
 డొంకల డాఁగ బిడుగుపాటు దప్పునె । కాలడ్డ నిలుచునే గాంగఝురము
@@ -6005,64 +5486,58 @@
 ధవుడు పిన్నైన వైధవ్యంబు దప్పునే । మనదె దీర్ఘాయువు మందు లేక</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('రు', '|'), ('గూ', 'U'), ('రి', '|'), ('కే', 'U'), ('గి', '|'), ('న', '|'), ('బో', 'U'), ('వు', '|'), ('నే', 'U'), ('దు', '|'), ('ర్ద', '|'), ('శ', '|'), ('గా', 'U'), ('దె', '|'), ('పెం', 'U'), ('డి', '|'), ('లి', '|'), ('స', 'U'), ('న్ని', '|'), ('క', 'U'), ('ల్లు', '|'), ('దా', 'U'), ('చ', '|'), ('డొం', 'U'), ('క', '|'), ('ల', '|'), ('డా', 'U'), ('గ', '|'), ('బి', '|'), ('డు', '|'), ('గు', '|'), ('పా', 'U'), ('టు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('నె', '|'), ('కా', 'U'), ('ల', 'U'), ('డ్డ', '|'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('నే', 'U'), ('గాం', 'U'), ('గ', '|'), ('ఝు', '|'), ('ర', '|'), ('ము', '|'), ('కు', '|'), ('మ', '|'), ('తి', '|'), ('చే', 'U'), ('జె', '|'), ('డు', '|'), ('నె', '|'), ('యె', 'U'), ('క్కు', '|'), ('డు', '|'), ('మం', 'U'), ('త్రి', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', '|'), ('లిం', 'U'), ('కి', '|'), ('పో', 'U'), ('వు', '|'), ('నె', '|'), ('య', '|'), ('నా', 'U'), ('వృ', 'U'), ('ష్టి', '|'), ('జ', '|'), ('ల', '|'), ('ధి', '|'), ('ధ', '|'), ('వు', '|'), ('డు', '|'), ('పి', 'U'), ('న్నై', 'U'), ('న', '|'), ('వై', 'U'), ('ధ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('నే', 'U'), ('మ', '|'), ('న', '|'), ('దె', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', '|'), ('వు', '|'), ('మం', 'U'), ('దు', '|'), ('లే', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
         <is>
           <t>యర్కుఁ డుదయింపఁ జెడునె గుహాతిమిరము । తాళ మెత్తుకపోవ మందసములోని
 విత్త మలవడకుండునే వెచ్చమునకు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
           <t>[('య', 'U'), ('ర్కు', '|'), ('డు', '|'), ('ద', '|'), ('యిం', 'U'), ('ప', '|'), ('జె', '|'), ('డు', '|'), ('నె', '|'), ('గు', '|'), ('హా', 'U'), ('తి', '|'), ('మి', '|'), ('ర', '|'), ('ము', '|'), ('తా', 'U'), ('ళ', '|'), ('మె', 'U'), ('త్తు', '|'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('మం', 'U'), ('ద', '|'), ('స', '|'), ('ము', '|'), ('లో', 'U'), ('ని', '|'), ('వి', 'U'), ('త్త', '|'), ('మ', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('కుం', 'U'), ('డు', '|'), ('నే', 'U'), ('వె', 'U'), ('చ్చ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
         <is>
           <t>ఆరగించంగ యోగ్యముగాక యుండునే । పైతోలు బిరుసైన బనసఫలము
 మాధుర్య మెడలునే మామిడిపండుకుఁ । దొడిమపట్టున జీడి తొరలియున్న
@@ -6070,64 +5545,58 @@
 నఖిలాంగసీమ యొయ్యారంబు గల్గిన । యతివకు వాల్‍కన్నులైననేమి</t>
         </is>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర', '|'), ('గిం', 'U'), ('చం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ్య', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('నే', 'U'), ('పై', 'U'), ('తో', 'U'), ('లు', '|'), ('బి', '|'), ('రు', '|'), ('సై', 'U'), ('న', '|'), ('బ', '|'), ('న', '|'), ('స', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('మె', '|'), ('డ', '|'), ('లు', '|'), ('నే', 'U'), ('మా', 'U'), ('మి', '|'), ('డి', '|'), ('పం', 'U'), ('డు', '|'), ('కు', '|'), ('దొ', '|'), ('డి', '|'), ('మ', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('జీ', 'U'), ('డి', '|'), ('తొ', '|'), ('ర', '|'), ('లి', '|'), ('యు', 'U'), ('న్న', '|'), ('గే', 'U'), ('దం', 'U'), ('గి', '|'), ('నె', '|'), ('ఱి', '|'), ('మౌ', 'U'), ('ళి', '|'), ('గీ', 'U'), ('లిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('దు', '|'), ('రే', 'U'), ('య', 'U'), ('గ్ర', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ము', 'U'), ('ళ్ళ', '|'), ('ల', '|'), ('మి', '|'), ('కొ', 'U'), ('న్న', '|'), ('న', '|'), ('ఖి', '|'), ('లాం', 'U'), ('గ', '|'), ('సీ', 'U'), ('మ', '|'), ('యొ', 'U'), ('య్యా', 'U'), ('రం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('కు', '|'), ('వా', 'U'), ('ల్క', 'U'), ('న్ను', '|'), ('లై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
         <is>
           <t>గుణము బహుళంబు దోషంబు గొంచమైనఁ । గొదవఁ జెందక యుండు నెక్కుడు గుణంబు
 తాఱుమాఱైన నిదియె పద్ధతి తలంప
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('ణ', '|'), ('ము', '|'), ('బ', '|'), ('హు', '|'), ('ళం', 'U'), ('బు', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('గొం', 'U'), ('చ', '|'), ('మై', 'U'), ('న', '|'), ('గొ', '|'), ('ద', '|'), ('వ', '|'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('తా', 'U'), ('ఱు', '|'), ('మా', 'U'), ('ఱై', 'U'), ('న', '|'), ('ని', '|'), ('ది', '|'), ('యె', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
         <is>
           <t>గోవధ గావించి గోరోజనమ్ము రో- । గార్తుల కొసఁగఁ బుణ్యాత్ముఁడగునె
 ఫలశాఖిఁ బడ మొత్తి ఫలము లేఱించి భూ- । సురుల కర్పించిన సుకృతియగునె
@@ -6135,64 +5604,58 @@
 గుడి కొట్టి యిటికలు గూరిచి తులసితి- । న్నెలు రచించిన ధర్మనిరతుఁడగునె</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('వ', '|'), ('ధ', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('గో', 'U'), ('రో', 'U'), ('జ', '|'), ('న', 'U'), ('మ్ము', '|'), ('రో', 'U'), ('గా', 'U'), ('ర్తు', '|'), ('ల', '|'), ('కొ', '|'), ('స', '|'), ('గ', '|'), ('బు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డ', '|'), ('గు', '|'), ('నె', '|'), ('ఫ', '|'), ('ల', '|'), ('శా', 'U'), ('ఖి', '|'), ('బ', '|'), ('డ', '|'), ('మొ', 'U'), ('త్తి', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లే', 'U'), ('ఱిం', 'U'), ('చి', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('క', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('కృ', '|'), ('తి', '|'), ('య', '|'), ('గు', '|'), ('నె', '|'), ('నిం', 'U'), ('డు', '|'), ('త', '|'), ('టా', 'U'), ('కం', 'U'), ('బు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('చే', 'U'), ('ప', '|'), ('ల', '|'), ('మ', 'U'), ('త్స్య', '|'), ('భు', 'U'), ('క్కు', '|'), ('ల', '|'), ('ద', 'U'), ('న్ప', '|'), ('మా', 'U'), ('న్యు', '|'), ('డ', '|'), ('గు', '|'), ('నె', '|'), ('గు', '|'), ('డి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('యి', '|'), ('టి', '|'), ('క', '|'), ('లు', '|'), ('గూ', 'U'), ('రి', '|'), ('చి', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('తి', 'U'), ('న్నె', '|'), ('లు', '|'), ('ర', '|'), ('చిం', 'U'), ('చి', '|'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ని', '|'), ('ర', '|'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
         <is>
           <t>ప్రబలపాతకపూర్ణుఁ డల్పంపు సుకృత- । మునను శుద్ధుండు గాకుండుననుట నిక్క-
 మాడు గాకేమి యిచ్చకం బనృతవాది
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('బ', '|'), ('ల', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('డ', 'U'), ('ల్పం', 'U'), ('పు', '|'), ('సు', '|'), ('కృ', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('శు', 'U'), ('ద్ధుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('ట', '|'), ('ని', 'U'), ('క్క', '|'), ('మా', 'U'), ('డు', '|'), ('గా', 'U'), ('కే', 'U'), ('మి', '|'), ('యి', 'U'), ('చ్చ', '|'), ('కం', 'U'), ('బ', '|'), ('నృ', '|'), ('త', '|'), ('వా', 'U'), ('ది', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>మందుమాకిడి గండమాల మాన్పఁగలేఁడు । చక్కఁజేయగలండె నక్కనోరు
 వ్రేలివంకర మీఁద వీద నొత్తఁగలేఁడు । కుదురుసేయగలండె గూనివీఁపు
@@ -6200,64 +5663,58 @@
 తనవారి యొచ్చెంబు తాను దీర్పఁగఁజాలఁ । డొరుల యొచ్చెము దీర్ప నోపునెట్లు</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('దు', '|'), ('మా', 'U'), ('కి', '|'), ('డి', '|'), ('గం', 'U'), ('డ', '|'), ('మా', 'U'), ('ల', '|'), ('మా', 'U'), ('న్ప', '|'), ('గ', '|'), ('లే', 'U'), ('డు', '|'), ('చ', 'U'), ('క్క', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లం', 'U'), ('డె', '|'), ('న', 'U'), ('క్క', '|'), ('నో', 'U'), ('రు', 'U'), ('వ్రే', 'U'), ('లి', '|'), ('వం', 'U'), ('క', '|'), ('ర', '|'), ('మీ', 'U'), ('ద', '|'), ('వీ', 'U'), ('ద', '|'), ('నొ', 'U'), ('త్త', '|'), ('గ', '|'), ('లే', 'U'), ('డు', '|'), ('కు', '|'), ('దు', '|'), ('రు', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('లం', 'U'), ('డె', '|'), ('గూ', 'U'), ('ని', '|'), ('వీ', 'U'), ('పు', 'U'), ('త్రో', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('డు', '|'), ('కు', 'U'), ('క్క', '|'), ('తో', 'U'), ('క', '|'), ('వం', 'U'), ('క', '|'), ('రై', 'U'), ('న', '|'), ('నే', 'U'), ('టి', '|'), ('వం', 'U'), ('క', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('నె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('పు', '|'), ('త', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('యొ', 'U'), ('చ్చెం', 'U'), ('బు', '|'), ('తా', 'U'), ('ను', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('డొ', '|'), ('రు', '|'), ('ల', '|'), ('యొ', 'U'), ('చ్చె', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('నో', 'U'), ('పు', '|'), ('నె', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
         <is>
           <t>దైవకృతమైన వంకర దలఁగద్రోయ । వశము గాకుండు గద యెంతవానికైన
 బొరలు దాని నెఱుంగడు బుద్ధి జడుఁడు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
           <t>[('దై', 'U'), ('వ', '|'), ('కృ', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('వం', 'U'), ('క', '|'), ('ర', '|'), ('ద', '|'), ('ల', '|'), ('గ', '|'), ('ద్రో', 'U'), ('య', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('కుం', 'U'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('యెం', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('బొ', '|'), ('ర', '|'), ('లు', '|'), ('దా', 'U'), ('ని', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('డు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('జ', '|'), ('డు', '|'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
         <is>
           <t>ఋణశేషమున్నను రిపుశేషమున్నను । వహ్నిశేషంబున్న వచ్చుఁ గీడు
 భుక్తి వధూజనరక్తి నిద్రాసక్తి । యగ్గలంబైనఁ గీ డావహిల్లు
@@ -6265,63 +5722,57 @@
 అర్భక పశు మందిరాంగరక్షల యందు । నేమఱుపాటొంద నెగ్గుఁ జెందు</t>
         </is>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
           <t>[('ఋ', '|'), ('ణ', '|'), ('శే', 'U'), ('ష', '|'), ('ము', 'U'), ('న్న', '|'), ('ను', '|'), ('రి', '|'), ('పు', '|'), ('శే', 'U'), ('ష', '|'), ('ము', 'U'), ('న్న', '|'), ('ను', '|'), ('వ', 'U'), ('హ్ని', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', 'U'), ('న్న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గీ', 'U'), ('డు', '|'), ('భు', 'U'), ('క్తి', '|'), ('వ', '|'), ('ధూ', 'U'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్తి', '|'), ('ని', '|'), ('ద్రా', 'U'), ('స', 'U'), ('క్తి', '|'), ('య', 'U'), ('గ్గ', '|'), ('లం', 'U'), ('బై', 'U'), ('న', '|'), ('గీ', 'U'), ('డా', 'U'), ('వ', '|'), ('హి', 'U'), ('ల్లు', '|'), ('గు', 'U'), ('త్సి', '|'), ('తా', 'U'), ('త్ము', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('గో', 'U'), ('వ', '|'), ('ధ', '|'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('తో', 'U'), ('గొం', 'U'), ('డి', '|'), ('క', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('గో', 'U'), ('ష్ఠి', '|'), ('త', '|'), ('గ', '|'), ('దు', '|'), ('అ', 'U'), ('ర్భ', '|'), ('క', '|'), ('ప', '|'), ('శు', '|'), ('మం', 'U'), ('ది', '|'), ('రాం', 'U'), ('గ', '|'), ('ర', 'U'), ('క్ష', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('నే', 'U'), ('మ', '|'), ('ఱు', '|'), ('పా', 'U'), ('టొం', 'U'), ('ద', '|'), ('నె', 'U'), ('గ్గు', '|'), ('జెం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిట్టి నయమార్గ మెఱుఁగక యిచ్చవచ్చి- । నట్లు చరియించువారికి హాని వచ్చు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>నిట్టి నయమార్గ మెఱుఁగక యిచ్చవచ్చి- । నట్లు చరియించువారికి హాని వచ్చు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యి', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('హా', 'U'), ('ని', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
         <is>
           <t>నంబి కవిత్వంబు తంబళ జోస్యంబు । వలనొప్ప కోమటి వైష్ణవంబు
 వరుసనె యుప్పరివాని సన్యాసంబు । తరువాత శూద్ర సంతర్పణంబు
@@ -6329,63 +5780,57 @@
 సాని పండితశాస్త్రవాదము వేశ్య- । తనయుఁ డబ్బకుఁ బెట్టు తద్దినంబు</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
           <t>[('నం', 'U'), ('బి', '|'), ('క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('తం', 'U'), ('బ', '|'), ('ళ', '|'), ('జో', 'U'), ('స్యం', 'U'), ('బు', '|'), ('వ', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వం', 'U'), ('బు', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('నె', '|'), ('యు', 'U'), ('ప్ప', '|'), ('రి', '|'), ('వా', 'U'), ('ని', '|'), ('స', 'U'), ('న్యా', 'U'), ('సం', 'U'), ('బు', '|'), ('త', '|'), ('రు', '|'), ('వా', 'U'), ('త', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('సం', 'U'), ('త', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('ర', '|'), ('జ', '|'), ('కు', '|'), ('ని', '|'), ('గా', 'U'), ('నం', 'U'), ('బు', '|'), ('రం', 'U'), ('డా', 'U'), ('ప్ర', '|'), ('భు', 'U'), ('త్వం', 'U'), ('బు', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గా', 'U'), ('వె', '|'), ('ల', '|'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('త', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('సా', 'U'), ('ని', '|'), ('పం', 'U'), ('డి', '|'), ('త', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('వా', 'U'), ('ద', '|'), ('ము', '|'), ('వే', 'U'), ('శ్య', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డ', 'U'), ('బ్బ', '|'), ('కు', '|'), ('బె', 'U'), ('ట్టు', '|'), ('త', 'U'), ('ద్ది', '|'), ('నం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నుభయభ్రష్టత్వములు గాన నుర్విలోన । రాజసభలందు నెన్నగా రాదు గదర
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>నుభయభ్రష్టత్వములు గాన నుర్విలోన । రాజసభలందు నెన్నగా రాదు గదర
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
           <t>[('ను', '|'), ('భ', '|'), ('య', 'U'), ('భ్ర', 'U'), ('ష్ట', 'U'), ('త్వ', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('ను', 'U'), ('ర్వి', '|'), ('లో', 'U'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('భ', '|'), ('లం', 'U'), ('దు', '|'), ('నె', 'U'), ('న్న', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
         <is>
           <t>భట్టరాచార్యుల బట్టలు కాగానె । మడి గట్టుకొను పట్టుమడతలౌనె
 అల రాచకూతురు నధరంబు కాగానె । తేనెఁ జిల్కునె యనుపానమునకు
@@ -6393,63 +5838,57 @@
 అల తాళ్ళపాక చిన్నన్న రోమములైన । దంబుఱ దండెకు దంతులౌనె</t>
         </is>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
           <t>[('భ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('ల', '|'), ('బ', 'U'), ('ట్ట', '|'), ('లు', '|'), ('కా', 'U'), ('గా', 'U'), ('నె', '|'), ('మ', '|'), ('డి', '|'), ('గ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('మ', '|'), ('డ', '|'), ('త', '|'), ('లౌ', 'U'), ('నె', '|'), ('అ', '|'), ('ల', '|'), ('రా', 'U'), ('చ', '|'), ('కూ', 'U'), ('తు', '|'), ('రు', '|'), ('న', '|'), ('ధ', '|'), ('రం', 'U'), ('బు', '|'), ('కా', 'U'), ('గా', 'U'), ('నె', '|'), ('తే', 'U'), ('నె', '|'), ('జి', 'U'), ('ల్కు', '|'), ('నె', '|'), ('య', '|'), ('ను', '|'), ('పా', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('అ', 'U'), ('ల్ల', '|'), ('యే', 'U'), ('లే', 'U'), ('శ్వ', '|'), ('రో', 'U'), ('పా', 'U'), ('ధ్యా', 'U'), ('యు', '|'), ('బు', 'U'), ('ఱ్ఱ', '|'), ('యు', '|'), ('రా', 'U'), ('చూ', 'U'), ('రి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ఫి', '|'), ('రం', 'U'), ('గి', '|'), ('యౌ', 'U'), ('నె', '|'), ('అ', '|'), ('ల', '|'), ('తా', 'U'), ('ళ్ళ', '|'), ('పా', 'U'), ('క', '|'), ('చి', 'U'), ('న్న', 'U'), ('న్న', '|'), ('రో', 'U'), ('మ', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('దం', 'U'), ('బు', '|'), ('ఱ', '|'), ('దం', 'U'), ('డె', '|'), ('కు', '|'), ('దం', 'U'), ('తు', '|'), ('లౌ', 'U'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>హుంకరించిన నెటువంటి మంకునైనఁ । దిట్టవలయును గవులకు దిట్టమదియె
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>హుంకరించిన నెటువంటి మంకునైనఁ । దిట్టవలయును గవులకు దిట్టమదియె
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
           <t>[('హుం', 'U'), ('క', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('నె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('మం', 'U'), ('కు', '|'), ('నై', 'U'), ('న', '|'), ('ది', 'U'), ('ట్ట', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', '|'), ('గ', '|'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('ది', 'U'), ('ట్ట', '|'), ('మ', '|'), ('ది', '|'), ('యె', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
         <is>
           <t>వెల్లుల్లి వనములో వెలయంగ జోఱీఁగ । పికము పాడూరను బెస్త రాజు
 సాలె జేండ్రులలోన సాతాని పండితుం । డంధులలోన నేకాక్షి శ్రేష్ఠుఁ
@@ -6457,63 +5896,57 @@
 గాఁపు మంత్రులలోనఁ గాటేరి దైవంబు । కొక్కెరాయలలోనఁ గొంగ ఘనము</t>
         </is>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
           <t>[('వె', 'U'), ('ల్లు', 'U'), ('ల్లి', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లో', 'U'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గ', '|'), ('జో', 'U'), ('ఱీ', 'U'), ('గ', '|'), ('పి', '|'), ('క', '|'), ('ము', '|'), ('పా', 'U'), ('డూ', 'U'), ('ర', '|'), ('ను', '|'), ('బె', 'U'), ('స్త', '|'), ('రా', 'U'), ('జు', '|'), ('సా', 'U'), ('లె', '|'), ('జేం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('పం', 'U'), ('డి', '|'), ('తుం', 'U'), ('డం', 'U'), ('ధు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('కా', 'U'), ('క్షి', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('డ', '|'), ('తి', '|'), ('లో', 'U'), ('భి', '|'), ('రా', 'U'), ('జ', '|'), ('న', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('వా', 'U'), ('డె', '|'), ('పో', 'U'), ('పం', 'U'), ('డి', '|'), ('త', '|'), ('వ', 'U'), ('ర్యు', '|'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('గా', 'U'), ('పు', '|'), ('మం', 'U'), ('త్రు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గా', 'U'), ('టే', 'U'), ('రి', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('కొ', 'U'), ('క్కె', '|'), ('రా', 'U'), ('య', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గొం', 'U'), ('గ', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గుడిసెవేటుల నిల్లాలు గుత్తులంజె । గనుక నీ రీతిఁ బెక్కులు గలవు తలప
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>గుడిసెవేటుల నిల్లాలు గుత్తులంజె । గనుక నీ రీతిఁ బెక్కులు గలవు తలప
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('డి', '|'), ('సె', '|'), ('వే', 'U'), ('టు', '|'), ('ల', '|'), ('ని', 'U'), ('ల్లా', 'U'), ('లు', '|'), ('గు', 'U'), ('త్తు', '|'), ('లం', 'U'), ('జె', '|'), ('గ', '|'), ('ను', '|'), ('క', '|'), ('నీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('బె', 'U'), ('క్కు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
         <is>
           <t>పెట్టి పోసిననాఁడె చుట్టాల రాకడ । కలిమివేళనె వారకాంత వలపు
 సేవ చేసిననాఁడె క్షితినాథు మన్నన । వయసు గల్గిననాఁడె వనిత రక్తి
@@ -6521,64 +5954,58 @@
 పోడిమి గలనాడె పొరుగింటి పోరచి । మగుడింపఁగలనాఁడె తగవు సూటి</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('ట్టి', '|'), ('పో', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('డె', '|'), ('చు', 'U'), ('ట్టా', 'U'), ('ల', '|'), ('రా', 'U'), ('క', '|'), ('డ', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('వే', 'U'), ('ళ', '|'), ('నె', '|'), ('వా', 'U'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('సే', 'U'), ('వ', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('డె', 'U'), ('క్షి', '|'), ('తి', '|'), ('నా', 'U'), ('థు', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('వ', '|'), ('య', '|'), ('సు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నా', 'U'), ('డె', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('ర', 'U'), ('క్తి', '|'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('డె', '|'), ('వె', '|'), ('ను', '|'), ('వెం', 'U'), ('ట', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('ప', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('నా', 'U'), ('డె', '|'), ('మా', 'U'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('ను', '|'), ('ట', '|'), ('పో', 'U'), ('డి', '|'), ('మి', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('డె', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('టి', '|'), ('పో', 'U'), ('ర', '|'), ('చి', '|'), ('మ', '|'), ('గు', '|'), ('డిం', 'U'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('డె', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('సూ', 'U'), ('టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
         <is>
           <t>యాత్మశక్తి తొలగిన యవసరమునఁ । దనకు నెవ్వరు గానిది తథ్యమరయ
 బలిమిచే నవయవములు పనికిరావు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
           <t>[('యా', 'U'), ('త్మ', '|'), ('శ', 'U'), ('క్తి', '|'), ('తొ', '|'), ('ల', '|'), ('గి', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('గా', 'U'), ('ని', '|'), ('ది', '|'), ('త', 'U'), ('థ్య', '|'), ('మ', '|'), ('ర', '|'), ('య', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('చే', 'U'), ('న', '|'), ('వ', '|'), ('య', '|'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('వు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
         <is>
           <t>చెఱువులో నీరు నిల్చిన బానయోగ్యమౌ- । నది యబ్ధి జేర బానార్హమగునె
 యుదక మల్పంబైన నుచ్చులో బడు చేప । చెఱువు నిండినవేళ చిక్కదట్లు
@@ -6586,64 +6013,58 @@
 వహ్ని యల్పంబైన వలన నేనునగూడ । దరియు ధాడింప మేడంత గాల్చు</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ఱు', '|'), ('వు', '|'), ('లో', 'U'), ('నీ', 'U'), ('రు', '|'), ('ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('బా', 'U'), ('న', '|'), ('యో', 'U'), ('గ్య', '|'), ('మౌ', 'U'), ('న', '|'), ('ది', '|'), ('య', 'U'), ('బ్ధి', '|'), ('జే', 'U'), ('ర', '|'), ('బా', 'U'), ('నా', 'U'), ('ర్హ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('యు', '|'), ('ద', '|'), ('క', '|'), ('మ', 'U'), ('ల్పం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', 'U'), ('చ్చు', '|'), ('లో', 'U'), ('బ', '|'), ('డు', '|'), ('చే', 'U'), ('ప', '|'), ('చె', '|'), ('ఱు', '|'), ('వు', '|'), ('నిం', 'U'), ('డి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('చి', 'U'), ('క్క', '|'), ('ద', 'U'), ('ట్లు', '|'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('యు', '|'), ('ధాం', 'U'), ('డం', 'U'), ('బు', '|'), ('చ', 'U'), ('ట్టె', '|'), ('డౌ', 'U'), ('నో', 'U'), ('ర్చి', '|'), ('న', '|'), ('న', '|'), ('వ', '|'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('న', 'U'), ('ల్ప', '|'), ('భు', 'U'), ('క్తి', '|'), ('వ', 'U'), ('హ్ని', '|'), ('య', 'U'), ('ల్పం', 'U'), ('బై', 'U'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('నే', 'U'), ('ను', '|'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('రి', '|'), ('యు', '|'), ('ధా', 'U'), ('డిం', 'U'), ('ప', '|'), ('మే', 'U'), ('డం', 'U'), ('త', '|'), ('గా', 'U'), ('ల్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
         <is>
           <t>నాక్రమింపగ దగినచో నరి వధింప । దగు ఫలాపేక్ష కొద్దియే రర్మమునకు
 వసుధ తత్త్వంబు పరికింపవలయు జూడ
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('క్ర', '|'), ('మిం', 'U'), ('ప', '|'), ('గ', '|'), ('ద', '|'), ('గి', '|'), ('న', '|'), ('చో', 'U'), ('న', '|'), ('రి', '|'), ('వ', '|'), ('ధిం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('ఫ', '|'), ('లా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('కొ', 'U'), ('ద్ది', '|'), ('యే', 'U'), ('ర', '|'), ('ర్మ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('త', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('జూ', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
         <is>
           <t>చేరువ పగయును దూరపు మైత్రియు । గావించెనేనియుఁ గార్యహాని
 స్వనృపుతో వైర మన్యనృపాలమైత్రి । యొనరించెనేనిఁ గీడొదవకున్నె
@@ -6651,64 +6072,58 @@
 బాసకు లోనైనఁ బ్రతిబాషలాడినఁ । బొలఁతితో భాషింపఁ బోవఁదగదు</t>
         </is>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('రు', '|'), ('వ', '|'), ('ప', '|'), ('గ', '|'), ('యు', '|'), ('ను', '|'), ('దూ', 'U'), ('ర', '|'), ('పు', '|'), ('మై', 'U'), ('త్రి', '|'), ('యు', '|'), ('గా', 'U'), ('విం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('గా', 'U'), ('ర్య', '|'), ('హా', 'U'), ('ని', 'U'), ('స్వ', '|'), ('నృ', '|'), ('పు', '|'), ('తో', 'U'), ('వై', 'U'), ('ర', '|'), ('మ', 'U'), ('న్య', '|'), ('నృ', '|'), ('పా', 'U'), ('ల', '|'), ('మై', 'U'), ('త్రి', '|'), ('యొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('గీ', 'U'), ('డొ', '|'), ('ద', '|'), ('వ', '|'), ('కు', 'U'), ('న్నె', 'U'), ('త్యా', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నా', 'U'), ('త్మ', '|'), ('భో', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('ని', '|'), ('వి', 'U'), ('త్తా', 'U'), ('ర్జ', '|'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('బా', 'U'), ('స', '|'), ('కు', '|'), ('లో', 'U'), ('నై', 'U'), ('న', 'U'), ('బ్ర', '|'), ('తి', '|'), ('బా', 'U'), ('ష', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('బొ', '|'), ('ల', '|'), ('తి', '|'), ('తో', 'U'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('బో', 'U'), ('వ', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
         <is>
           <t>యిట్టి నయమార్గ మెఱుగక యిచ్చ వచ్చి- । నట్లు చరియించువారికి హాని జెందు
 నాడికలు గల్గు నిది నిక్క మరసిచూడ
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యి', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('హా', 'U'), ('ని', '|'), ('జెం', 'U'), ('దు', '|'), ('నా', 'U'), ('డి', '|'), ('క', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ని', '|'), ('ది', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
         <is>
           <t>సూర్యుఁడు దశశతాంశువులఁ బో దఱిమినఁ । గలుగవే గుహల చీకటులుఁ డాగ
 ఝుంఝూనిలము దాడి సలుప దీపమునకుఁ । గలుగదే వసియింపఁ గలశమొకటి
@@ -6716,64 +6131,58 @@
 గరుడుండు వెనుదాక గాకోదరము డాఁగ । గలుగదే వాల్మీకబిల మొకండు</t>
         </is>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('ర్యు', '|'), ('డు', '|'), ('ద', '|'), ('శ', '|'), ('శ', '|'), ('తాం', 'U'), ('శు', '|'), ('వు', '|'), ('ల', '|'), ('బో', 'U'), ('ద', '|'), ('ఱి', '|'), ('మి', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('వే', 'U'), ('గు', '|'), ('హ', '|'), ('ల', '|'), ('చీ', 'U'), ('క', '|'), ('టు', '|'), ('లు', '|'), ('డా', 'U'), ('గ', '|'), ('ఝుం', 'U'), ('ఝూ', 'U'), ('ని', '|'), ('ల', '|'), ('ము', '|'), ('దా', 'U'), ('డి', '|'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('దే', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('శ', '|'), ('మొ', '|'), ('క', '|'), ('టి', '|'), ('వ', '|'), ('ని', '|'), ('సా', 'U'), ('ళు', '|'), ('వం', 'U'), ('బు', '|'), ('గు', 'U'), ('వ్వ', '|'), ('ను', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద', '|'), ('ఱి', '|'), ('మి', '|'), ('న', '|'), ('ద', '|'), ('రు', '|'), ('కో', 'U'), ('ట', '|'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('దె', '|'), ('దా', 'U'), ('ని', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('గ', '|'), ('రు', '|'), ('డుం', 'U'), ('డు', '|'), ('వె', '|'), ('ను', '|'), ('దా', 'U'), ('క', '|'), ('గా', 'U'), ('కో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('డా', 'U'), ('గ', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('దే', 'U'), ('వా', 'U'), ('ల్మీ', 'U'), ('క', '|'), ('బి', '|'), ('ల', '|'), ('మొ', '|'), ('కం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
         <is>
           <t>బలము గలవాడు దుర్బలు బాఱఁ దఱుమ । దైవమొక ప్రాపు గల్పింపఁ దలఁపకున్నె
 పొరలునే ప్రొద్దహంకారమున నరుండు
 మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('ము', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లు', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద', '|'), ('ఱు', '|'), ('మ', '|'), ('దై', 'U'), ('వ', '|'), ('మొ', '|'), ('క', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('కు', 'U'), ('న్నె', '|'), ('పొ', '|'), ('ర', '|'), ('లు', '|'), ('నే', 'U'), ('ప్రొ', 'U'), ('ద్ద', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('రుం', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
         <is>
           <t>తండ్రి మధ్వాచారి తనయు డారాధ్యుండు । తల్లి రామాన్జ మతస్థురాలు
 తనది కూచిమతంబు తమ్ముఁడు బౌద్ధుండు । సర్వేశ్వరమతంబు సడ్డకునిది
@@ -6781,63 +6190,57 @@
 ఆఁడుబిడ్డ సుకారి యల్లుఁడు పింజారి । మఱదలు కోడలు మారువాడి</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
           <t>[('తం', 'U'), ('డ్రి', '|'), ('మ', 'U'), ('ధ్వా', 'U'), ('చా', 'U'), ('రి', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డా', 'U'), ('రా', 'U'), ('ధ్యుం', 'U'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('రా', 'U'), ('మా', 'U'), ('న్జ', '|'), ('మ', '|'), ('త', 'U'), ('స్థు', '|'), ('రా', 'U'), ('లు', '|'), ('త', '|'), ('న', '|'), ('ది', '|'), ('కూ', 'U'), ('చి', '|'), ('మ', '|'), ('తం', 'U'), ('బు', '|'), ('త', 'U'), ('మ్ము', '|'), ('డు', '|'), ('బౌ', 'U'), ('ద్ధుం', 'U'), ('డు', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('మ', '|'), ('తం', 'U'), ('బు', '|'), ('స', 'U'), ('డ్డ', '|'), ('కు', '|'), ('ని', '|'), ('ది', '|'), ('ఆ', 'U'), ('లు', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('జా', 'U'), ('తి', '|'), ('ద', 'U'), ('క్క', '|'), ('జం', 'U'), ('గ', '|'), ('ము', '|'), ('రా', 'U'), ('లు', '|'), ('బా', 'U'), ('వ', '|'), ('గా', 'U'), ('రి', '|'), ('ది', '|'), ('లిం', 'U'), ('గ', '|'), ('బ', '|'), ('లి', '|'), ('జ', '|'), ('కు', '|'), ('ల', '|'), ('ము', '|'), ('ఆ', 'U'), ('డు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('సు', '|'), ('కా', 'U'), ('రి', '|'), ('య', 'U'), ('ల్లు', '|'), ('డు', '|'), ('పిం', 'U'), ('జా', 'U'), ('రి', '|'), ('మ', '|'), ('ఱ', '|'), ('ద', '|'), ('లు', '|'), ('కో', 'U'), ('డ', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('వా', 'U'), ('డి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గలియుగమ్మున వర్ణసంకరము ప్రబలి । యుత్తమకులంబు లొకమూల నొత్తిగిల్లె
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>గలియుగమ్మున వర్ణసంకరము ప్రబలి । యుత్తమకులంబు లొకమూల నొత్తిగిల్లె
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లి', '|'), ('యు', '|'), ('గ', 'U'), ('మ్ము', '|'), ('న', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('సం', 'U'), ('క', '|'), ('ర', '|'), ('ము', 'U'), ('ప్ర', '|'), ('బ', '|'), ('లి', '|'), ('యు', 'U'), ('త్త', '|'), ('మ', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లొ', '|'), ('క', '|'), ('మూ', 'U'), ('ల', '|'), ('నొ', 'U'), ('త్తి', '|'), ('గి', 'U'), ('ల్లె', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
         <is>
           <t>తల్లి ఱంకునఁ దండ్రి ధనము పోయినయట్లు । మూలనిక్షేపంబు మునిఁగినట్లు
 కూఁతురి ముడుపెల్లఁ గొల్లవోయినయట్లు । కాణాచివల్లెలు కాలినట్లు
@@ -6845,63 +6248,57 @@
 చెల్లెపైఁ బడి దొంగ చెఱచిపోయినయట్లు । కొడుకు నప్పుడు తలగొట్టినట్లు</t>
         </is>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ల్లి', '|'), ('ఱం', 'U'), ('కు', '|'), ('న', '|'), ('దం', 'U'), ('డ్రి', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('మూ', 'U'), ('ల', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పం', 'U'), ('బు', '|'), ('ము', '|'), ('ని', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కూ', 'U'), ('తు', '|'), ('రి', '|'), ('ము', '|'), ('డు', '|'), ('పె', 'U'), ('ల్ల', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వో', 'U'), ('యి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('కా', 'U'), ('ణా', 'U'), ('చి', '|'), ('వ', 'U'), ('ల్లె', '|'), ('లు', '|'), ('కా', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('లి', '|'), ('గ', '|'), ('డ', '|'), ('నె', 'U'), ('ల్ల', '|'), ('దం', 'U'), ('డు', '|'), ('గ', '|'), ('కై', 'U'), ('న', 'U'), ('ట్లు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('త', 'U'), ('ద్ది', '|'), ('న', '|'), ('మే', 'U'), ('మొ', '|'), ('త', 'U'), ('ప్పి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చె', 'U'), ('ల్లె', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('దొం', 'U'), ('గ', '|'), ('చె', '|'), ('ఱ', '|'), ('చి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('త', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దిగులుపడి చూచి మూర్ఛిల్లి తెప్పరిల్లి । కవుల కియ్యంగవద్దని కన్ను మీటు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>దిగులుపడి చూచి మూర్ఛిల్లి తెప్పరిల్లి । కవుల కియ్యంగవద్దని కన్ను మీటు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('గు', '|'), ('లు', '|'), ('ప', '|'), ('డి', '|'), ('చూ', 'U'), ('చి', '|'), ('మూ', 'U'), ('ర్ఛి', 'U'), ('ల్లి', '|'), ('తె', 'U'), ('ప్ప', '|'), ('రి', 'U'), ('ల్లి', '|'), ('క', '|'), ('వు', '|'), ('ల', '|'), ('కి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('మీ', 'U'), ('టు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
         <is>
           <t>దూదేకుల హుస్సేను దొమ్మరి గోపాలు । పట్ర మంగఁడు గాండ్ల బాలిగాడు
 బయశేని నాగఁడు పటసాలె నారాయఁ । డగముడి లచ్చిగాఁ డా ముకుందు
@@ -6909,63 +6306,57 @@
 కోమటి శంభుడు కుమ్మరి చెంగడు । మంగ లెల్లడు బోయ సింగడొకడు</t>
         </is>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
           <t>[('దూ', 'U'), ('దే', 'U'), ('కు', '|'), ('ల', '|'), ('హు', 'U'), ('స్సే', 'U'), ('ను', '|'), ('దొ', 'U'), ('మ్మ', '|'), ('రి', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('ప', 'U'), ('ట్ర', '|'), ('మం', 'U'), ('గ', '|'), ('డు', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('బా', 'U'), ('లి', '|'), ('గా', 'U'), ('డు', '|'), ('బ', '|'), ('య', '|'), ('శే', 'U'), ('ని', '|'), ('నా', 'U'), ('గ', '|'), ('డు', '|'), ('ప', '|'), ('ట', '|'), ('సా', 'U'), ('లె', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('డ', '|'), ('గ', '|'), ('ము', '|'), ('డి', '|'), ('ల', 'U'), ('చ్చి', '|'), ('గా', 'U'), ('డా', 'U'), ('ము', '|'), ('కుం', 'U'), ('దు', '|'), ('చా', 'U'), ('క', '|'), ('లి', '|'), ('మ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('సా', 'U'), ('తా', 'U'), ('ని', '|'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ల', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('కా', 'U'), ('ట', '|'), ('డు', '|'), ('బె', 'U'), ('స్త', '|'), ('గు', 'U'), ('ర్వి', '|'), ('గా', 'U'), ('డు', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('శం', 'U'), ('భు', '|'), ('డు', '|'), ('కు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('చెం', 'U'), ('గ', '|'), ('డు', '|'), ('మం', 'U'), ('గ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('డు', '|'), ('బో', 'U'), ('య', '|'), ('సిం', 'U'), ('గ', '|'), ('డొ', '|'), ('క', '|'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కన్నవారెల్లఁ బండితుల్ కవులుఁ గాగ । వేదశాస్త్రంబు లేడను విప్రులేడ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>కన్నవారెల్లఁ బండితుల్ కవులుఁ గాగ । వేదశాస్త్రంబు లేడను విప్రులేడ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్న', '|'), ('వా', 'U'), ('రె', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('డి', '|'), ('తుల్', 'U'), ('క', '|'), ('వు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('వి', 'U'), ('ప్రు', '|'), ('లే', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B204" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
         <is>
           <t>బడవాకుఁ బ్రతి యెన్న బహుమతు లేనూరు । దళవాయి కొక్క యూర ధర్మచేట
 పడుపుతొత్తుకు మేలుపౌజు కమ్మలు । తాటాకు దుద్దులు తల్లిచెవుల
@@ -6973,63 +6364,57 @@
 బైనీని సుద్దికి బారిశాలువజోడు । విద్వాంసులకు బేడ వెలితిగుడ్డ</t>
         </is>
       </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('డ', '|'), ('వా', 'U'), ('కు', 'U'), ('బ్ర', '|'), ('తి', '|'), ('యె', 'U'), ('న్న', '|'), ('బ', '|'), ('హు', '|'), ('మ', '|'), ('తు', '|'), ('లే', 'U'), ('నూ', 'U'), ('రు', '|'), ('ద', '|'), ('ళ', '|'), ('వా', 'U'), ('యి', '|'), ('కొ', 'U'), ('క్క', '|'), ('యూ', 'U'), ('ర', '|'), ('ధ', '|'), ('ర్మ', '|'), ('చే', 'U'), ('ట', '|'), ('ప', '|'), ('డు', '|'), ('పు', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కు', '|'), ('మే', 'U'), ('లు', '|'), ('పౌ', 'U'), ('జు', '|'), ('క', 'U'), ('మ్మ', '|'), ('లు', '|'), ('తా', 'U'), ('టా', 'U'), ('కు', '|'), ('దు', 'U'), ('ద్దు', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('దం', 'U'), ('డె', '|'), ('దా', 'U'), ('స', 'U'), ('ర్ల', '|'), ('కు', '|'), ('దా', 'U'), ('జీ', 'U'), ('త', '|'), ('వా', 'U'), ('జ', '|'), ('ము', '|'), ('క', '|'), ('వి', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('గ', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', '|'), ('మ', 'U'), ('న్ను', '|'), ('బై', 'U'), ('నీ', 'U'), ('ని', '|'), ('సు', 'U'), ('ద్ది', '|'), ('కి', '|'), ('బా', 'U'), ('రి', '|'), ('శా', 'U'), ('లు', '|'), ('వ', '|'), ('జో', 'U'), ('డు', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('ల', '|'), ('కు', '|'), ('బే', 'U'), ('డ', '|'), ('వె', '|'), ('లి', '|'), ('తి', '|'), ('గు', 'U'), ('డ్డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఘనము నీచం బెఱుంగక కలియుగమున । నవని నడుతురు మూఢులైనట్టి దొరలు
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ఘనము నీచం బెఱుంగక కలియుగమున । నవని నడుతురు మూఢులైనట్టి దొరలు
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('చం', 'U'), ('బె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('న', '|'), ('డు', '|'), ('తు', '|'), ('రు', '|'), ('మూ', 'U'), ('ఢు', '|'), ('లై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('దొ', '|'), ('ర', '|'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B206" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
         <is>
           <t>వసుధాధిపతికి విశ్వాసగుణంబు జా- । రునకు సత్యంబు చోరునకు భయము
 లంజెకు మోమోట పంజకు ధైర్య మెం- । గిలి కెగ్గు మద్యపాయులకు సిగ్గు
@@ -7037,63 +6422,57 @@
 పలుగాకులకు మేలు పందగొడ్డుకుఁ బాలు । మానికిఁ గఱవు కోమటికి బరువు</t>
         </is>
       </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('కి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('స', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('జా', 'U'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('చో', 'U'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('లం', 'U'), ('జె', '|'), ('కు', '|'), ('మో', 'U'), ('మో', 'U'), ('ట', '|'), ('పం', 'U'), ('జ', '|'), ('కు', '|'), ('ధై', 'U'), ('ర్య', '|'), ('మెం', 'U'), ('గి', '|'), ('లి', '|'), ('కె', 'U'), ('గ్గు', '|'), ('మ', 'U'), ('ద్య', '|'), ('పా', 'U'), ('యు', '|'), ('ల', '|'), ('కు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('ద్ర', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('యు', '|'), ('జా', 'U'), ('రి', '|'), ('ణి', 'U'), ('స్త్రీ', 'U'), ('కి', '|'), ('వా', 'U'), ('వి', '|'), ('ప', '|'), ('లు', '|'), ('గా', 'U'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('మే', 'U'), ('లు', '|'), ('పం', 'U'), ('ద', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('కు', '|'), ('బా', 'U'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('కి', '|'), ('గ', '|'), ('ఱ', '|'), ('వు', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మేకమెడచన్నులకుఁ బాలు మేడి పూలు । లేవు త్రిభువనములను గాలించి చూడ
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>మేకమెడచన్నులకుఁ బాలు మేడి పూలు । లేవు త్రిభువనములను గాలించి చూడ
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
           <t>[('మే', 'U'), ('క', '|'), ('మె', '|'), ('డ', '|'), ('చ', 'U'), ('న్ను', '|'), ('ల', '|'), ('కు', '|'), ('బా', 'U'), ('లు', '|'), ('మే', 'U'), ('డి', '|'), ('పూ', 'U'), ('లు', '|'), ('లే', 'U'), ('వు', 'U'), ('త్రి', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('గా', 'U'), ('లిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B208" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
         <is>
           <t>వ్యాసాదులగు మౌనివర్యులు తపసెల్లఁ । బోగొట్టుకొనుట సంభోగమునకె
 జలజాతభవ శివాదులు గూడఁ భ్రమగొని । మురియుట యీ పాడు భోగమునకె
@@ -7101,63 +6480,57 @@
 ఏకచక్రమ్ముగ నేలిన రాజైన । గడ కేడుజేనల కాటి కొరకె</t>
         </is>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
           <t>[('వ్యా', 'U'), ('సా', 'U'), ('దు', '|'), ('ల', '|'), ('గు', '|'), ('మౌ', 'U'), ('ని', '|'), ('వ', 'U'), ('ర్యు', '|'), ('లు', '|'), ('త', '|'), ('ప', '|'), ('సె', 'U'), ('ల్ల', '|'), ('బో', 'U'), ('గొ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ను', '|'), ('ట', '|'), ('సం', 'U'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('కె', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వ', '|'), ('శి', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('గూ', 'U'), ('డ', 'U'), ('భ్ర', '|'), ('మ', '|'), ('గొ', '|'), ('ని', '|'), ('ము', '|'), ('రి', '|'), ('యు', '|'), ('ట', '|'), ('యీ', 'U'), ('పా', 'U'), ('డు', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('కె', '|'), ('నే', 'U'), ('ర్తు', '|'), ('మం', 'U'), ('చ', '|'), ('ని', '|'), ('నె', 'U'), ('ఱ్ఱ', '|'), ('నీ', 'U'), ('ల్గు', '|'), ('చు', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('కో', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('కూ', 'U'), ('టి', '|'), ('కొ', '|'), ('ర', '|'), ('కె', '|'), ('ఏ', 'U'), ('క', '|'), ('చ', 'U'), ('క్ర', 'U'), ('మ్ము', '|'), ('గ', '|'), ('నే', 'U'), ('లి', '|'), ('న', '|'), ('రా', 'U'), ('జై', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('కే', 'U'), ('డు', '|'), ('జే', 'U'), ('న', '|'), ('ల', '|'), ('కా', 'U'), ('టి', '|'), ('కొ', '|'), ('ర', '|'), ('కె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కీర్తి యపకీర్తి దక్కఁ దక్కినవి నిల్వఁ- । బోవు శాశ్వతమౌనట్లు పుడమిమీద
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>కీర్తి యపకీర్తి దక్కఁ దక్కినవి నిల్వఁ- । బోవు శాశ్వతమౌనట్లు పుడమిమీద
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
           <t>[('కీ', 'U'), ('ర్తి', '|'), ('య', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('ద', 'U'), ('క్క', '|'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('వి', '|'), ('ని', 'U'), ('ల్వ', '|'), ('బో', 'U'), ('వు', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('మౌ', 'U'), ('న', 'U'), ('ట్లు', '|'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('మీ', 'U'), ('ద', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B210" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
         <is>
           <t>సుంకరులకు వర్ణసంకరులకుఁ దన । పొత్తొసంగెడి తొత్తుముండలకును
 సారాయినీళ్ళకు జాతరగాండ్లకు । బంగుభాయీలకు బందెనకును
@@ -7165,48 +6538,45 @@
 కలిమిదండుగులకు గారడీవిద్యకుఁ । దోడఁబోతుల కాటదొమ్మరులకు</t>
         </is>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
           <t>[('సుం', 'U'), ('క', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('సం', 'U'), ('క', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('ద', '|'), ('న', '|'), ('పొ', 'U'), ('త్తొ', '|'), ('సం', 'U'), ('గె', '|'), ('డి', '|'), ('తొ', 'U'), ('త్తు', '|'), ('ముం', 'U'), ('డ', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('సా', 'U'), ('రా', 'U'), ('యి', '|'), ('నీ', 'U'), ('ళ్ళ', '|'), ('కు', '|'), ('జా', 'U'), ('త', '|'), ('ర', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('బం', 'U'), ('గు', '|'), ('భా', 'U'), ('యీ', 'U'), ('ల', '|'), ('కు', '|'), ('బం', 'U'), ('దె', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('బ', '|'), ('డ', '|'), ('వా', 'U'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('లే', 'U'), ('ని', '|'), ('భ', '|'), ('డ', '|'), ('వా', 'U'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('ఱం', 'U'), ('కు', '|'), ('రా', 'U'), ('ట్నా', 'U'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('శుం', 'U'), ('ఠ', '|'), ('రం', 'U'), ('డ', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('దం', 'U'), ('డు', '|'), ('గు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('ర', '|'), ('డీ', 'U'), ('వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('దో', 'U'), ('డ', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('కా', 'U'), ('ట', '|'), ('దొ', 'U'), ('మ్మ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లోభితనమున నేడ్చె నిద్రాభవాని । గడన వీండ్లకె కాక సత్కవులకౌనె
+మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>లోభితనమున నేడ్చె నిద్రాభవాని । గడన వీండ్లకె కాక సత్కవులకౌనె
-మదరిపువిఫాల మునిజనహృదయలోల । వేణుగోపాల భక్తసంత్రాణశీల!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>venugopaala</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
-        <is>
-          <t>venugopaala</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
         <is>
           <t>[('లో', 'U'), ('భి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('డ్చె', '|'), ('ని', '|'), ('ద్రా', 'U'), ('భ', '|'), ('వా', 'U'), ('ని', '|'), ('గ', '|'), ('డ', '|'), ('న', '|'), ('వీం', 'U'), ('డ్ల', '|'), ('కె', '|'), ('కా', 'U'), ('క', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('ల', '|'), ('కౌ', 'U'), ('నె', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>

--- a/dataset/lg/venugopaala.xlsx
+++ b/dataset/lg/venugopaala.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('స', '|'), ('దా', 'U'), ('హృ', 'U'), ('త్కం', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డ', '|'), ('నా', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('ని', '|'), ('గా', 'U'), ('ను', '|'), ('ఏ', 'U'), ('వే', 'U'), ('ళ', '|'), ('ని', '|'), ('ను', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నా', 'U'), ('దృ', '|'), ('ఢ', '|'), ('చి', 'U'), ('త్తు', '|'), ('డై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('ధ్రు', '|'), ('వు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్ను', '|'), ('సం', 'U'), ('స్తు', '|'), ('తి', '|'), ('చే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('వే', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('స', 'U'), ('ర్ప', '|'), ('వి', '|'), ('భు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('నీ', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('స', '|'), ('హ', '|'), ('స్రా', 'U'), ('క్ష', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('స', '|'), ('వు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('స', '|'), ('దా', 'U'), ('హృ', 'U'), ('త్కం', 'U'), ('జ', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డ', '|'), ('నా', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('ని', '|'), ('గా', 'U'), ('ను', '|'), ('ఏ', 'U'), ('వే', 'U'), ('ళ', '|'), ('ని', '|'), ('ను', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నా', 'U'), ('దృ', '|'), ('ఢ', '|'), ('చి', 'U'), ('త్తు', '|'), ('డై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('ధ్రు', '|'), ('వు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్ను', '|'), ('సం', 'U'), ('స్తు', '|'), ('తి', '|'), ('చే', 'U'), ('యు', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('వే', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('స', 'U'), ('ర్ప', '|'), ('వి', '|'), ('భు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('నీ', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('స', '|'), ('హ', '|'), ('స్రా', 'U'), ('క్ష', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('స', '|'), ('వు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('దం', 'U'), ('డ', '|'), ('క', '|'), ('మం', 'U'), ('డ', '|'), ('లు', '|'), ('ధా', 'U'), ('రు', '|'), ('లై', 'U'), ('కా', 'U'), ('షా', 'U'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('భూ', 'U'), ('తి', '|'), ('గం', 'U'), ('పె', '|'), ('డు', '|'), ('పూ', 'U'), ('సి', '|'), ('పు', '|'), ('లి', '|'), ('చ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('ను', '|'), ('బూ', 'U'), ('ని', '|'), ('ము', 'U'), ('క్కు', '|'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('డు', '|'), ('తీ', 'U'), ('సి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్చి', '|'), ('భు', '|'), ('జ', '|'), ('ము', '|'), ('గా', 'U'), ('ల్చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('వా', 'U'), ('యు', '|'), ('వుల్', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('ప్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('మూ', 'U'), ('త', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|')]</t>
+          <t>[('దం', 'U'), ('డ', '|'), ('క', '|'), ('మం', 'U'), ('డ', '|'), ('లు', '|'), ('ధా', 'U'), ('రు', '|'), ('లై', 'U'), ('కా', 'U'), ('షా', 'U'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('భూ', 'U'), ('తి', '|'), ('గం', 'U'), ('పె', '|'), ('డు', '|'), ('పూ', 'U'), ('సి', '|'), ('పు', '|'), ('లి', '|'), ('చ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('ను', '|'), ('బూ', 'U'), ('ని', '|'), ('ము', 'U'), ('క్కు', '|'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('డు', '|'), ('తీ', 'U'), ('సి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('లు', '|'), ('తీ', 'U'), ('ర్చి', '|'), ('భు', '|'), ('జ', '|'), ('ము', '|'), ('గా', 'U'), ('ల్చి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|'), ('వా', 'U'), ('యు', '|'), ('వు', 'U'), ('ల్బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('ప్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('మూ', 'U'), ('త', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ధ', '|'), ('వ', '|'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('య', '|'), ('రి', '|'), ('ది', '|'), ('వ', '|'), ('జ్ర', '|'), ('పు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('లు', '|'), ('రు', '|'), ('కు', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కు', '|'), ('వి', '|'), ('టు', '|'), ('డుం', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', '|'), ('గ్రు', 'U'), ('డ్డి', '|'), ('ముం', 'U'), ('డ', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('య', 'U'), ('ద్దం', 'U'), ('బే', 'U'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('వి', '|'), ('గు', '|'), ('డి', '|'), ('సె', '|'), ('కు', '|'), ('బల్', 'U'), ('చాం', 'U'), ('ది', '|'), ('నే', 'U'), ('ల', '|'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('బ', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బే', 'U'), ('ల', '|'), ('బ', '|'), ('ధి', '|'), ('రు', '|'), ('న', '|'), ('క', '|'), ('ల', '|'), ('వీ', 'U'), ('ణ', '|'), ('పా', 'U'), ('ట', '|'), ('లే', 'U'), ('ల', '|'), ('కు', 'U'), ('క్క', '|'), ('పో', 'U'), ('తు', '|'), ('కు', '|'), ('జ', '|'), ('రీ', 'U'), ('కు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('జీ', 'U'), ('నే', 'U'), ('ల', '|'), ('పూ', 'U'), ('ట', '|'), ('కూ', 'U'), ('ళ్ళ', 'U'), ('మ్మ', '|'), ('కు', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('ల', '|')]</t>
+          <t>[('వి', '|'), ('ధ', '|'), ('వ', '|'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('య', '|'), ('రి', '|'), ('ది', '|'), ('వ', '|'), ('జ్ర', '|'), ('పు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('లు', '|'), ('రు', '|'), ('కు', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కు', '|'), ('వి', '|'), ('టు', '|'), ('డుం', 'U'), ('డ', '|'), ('నే', 'U'), ('ల', '|'), ('గ్రు', 'U'), ('డ్డి', '|'), ('ముం', 'U'), ('డ', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('య', 'U'), ('ద్దం', 'U'), ('బే', 'U'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('వి', '|'), ('గు', '|'), ('డి', '|'), ('సె', '|'), ('కు', '|'), ('బ', 'U'), ('ల్చాం', 'U'), ('ది', '|'), ('నే', 'U'), ('ల', '|'), ('యూ', 'U'), ('ర', '|'), ('బం', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('బ', 'U'), ('న్నీ', 'U'), ('రు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బే', 'U'), ('ల', '|'), ('బ', '|'), ('ధి', '|'), ('రు', '|'), ('న', '|'), ('క', '|'), ('ల', '|'), ('వీ', 'U'), ('ణ', '|'), ('పా', 'U'), ('ట', '|'), ('లే', 'U'), ('ల', '|'), ('కు', 'U'), ('క్క', '|'), ('పో', 'U'), ('తు', '|'), ('కు', '|'), ('జ', '|'), ('రీ', 'U'), ('కు', 'U'), ('చ్చు', '|'), ('ల', '|'), ('జీ', 'U'), ('నే', 'U'), ('ల', '|'), ('పూ', 'U'), ('ట', '|'), ('కూ', 'U'), ('ళ్ళ', 'U'), ('మ్మ', '|'), ('కు', '|'), ('బు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('లి', '|'), ('ని', '|'), ('వం', 'U'), ('చు', '|'), ('కో', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('త', '|'), ('గ', '|'), ('వ', 'U'), ('ర్ల', '|'), ('బ్ర', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('రో', 'U'), ('త', '|'), ('న', 'U'), ('ర్త', '|'), ('నాం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('వె', 'U'), ('న్క', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('తా', 'U'), ('ళ', '|'), ('ముల్', 'U'), ('వా', 'U'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('రో', 'U'), ('త', 'U'), ('వ్య', '|'), ('భి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('న', '|'), ('బు', '|'), ('రు', '|'), ('ష', 'U'), ('త్వ', '|'), ('ము', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('రో', 'U'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('స', '|'), ('రి', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('రో', 'U'), ('త', '|')]</t>
+          <t>[('ఆ', 'U'), ('లి', '|'), ('ని', '|'), ('వం', 'U'), ('చు', '|'), ('కో', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('త', '|'), ('గ', '|'), ('వ', 'U'), ('ర్ల', '|'), ('బ్ర', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('రో', 'U'), ('త', '|'), ('న', 'U'), ('ర్త', '|'), ('నాం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('వె', 'U'), ('న్క', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('తా', 'U'), ('ళ', '|'), ('ము', 'U'), ('ల్వా', 'U'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ని', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('రో', 'U'), ('త', 'U'), ('వ్య', '|'), ('భి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('న', '|'), ('బు', '|'), ('రు', '|'), ('ష', 'U'), ('త్వ', '|'), ('ము', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('రో', 'U'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('స', '|'), ('రి', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('రో', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('లెం', 'U'), ('క', '|'), ('డే', 'U'), ('ద', '|'), ('గు', '|'), ('నే', 'U'), ('టు', '|'), ('ప్ర', 'U'), ('శ్న', '|'), ('సె', 'U'), ('ప్ప', '|'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('పా', 'U'), ('పి', '|'), ('గా', 'U'), ('డు', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('ముల్', 'U'), ('సె', 'U'), ('ప్ప', '|'), ('బో', 'U'), ('గ', '|'), ('ము', '|'), ('చి', '|'), ('నెం', 'U'), ('క', '|'), ('డె', '|'), ('స', '|'), ('రి', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('యి', 'U'), ('ద్దె', '|'), ('కు', '|'), ('సా', 'U'), ('క', '|'), ('లె', 'U'), ('ల్లి', '|'), ('చా', 'U'), ('త్ర', '|'), ('పు', '|'), ('రం', 'U'), ('డా', 'U'), ('ల', '|'), ('సా', 'U'), ('తా', 'U'), ('న', '|'), ('నం', 'U'), ('త', 'U'), ('మ్మ', '|'), ('సిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('పె', '|'), ('ద', 'U'), ('క్క', '|'), ('యీ', 'U'), ('ణె', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('ను', '|'), ('కో', 'U'), ('మ', '|'), ('టీ', 'U'), ('రే', 'U'), ('శ', '|'), ('మే', 'U'), ('స', '|'), ('రి', '|'), ('మ', '|'), ('తి', '|'), ('ర', '|'), ('తా', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('ఱు', '|'), ('మ', '|'), ('ను', '|'), ('ము', '|'), ('ల', 'U'), ('చ్చి', '|')]</t>
+          <t>[('ఏ', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('లెం', 'U'), ('క', '|'), ('డే', 'U'), ('ద', '|'), ('గు', '|'), ('నే', 'U'), ('టు', '|'), ('ప్ర', 'U'), ('శ్న', '|'), ('సె', 'U'), ('ప్ప', '|'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('పా', 'U'), ('పి', '|'), ('గా', 'U'), ('డు', '|'), ('క', '|'), ('యి', '|'), ('త', '|'), ('ము', 'U'), ('ల్సె', 'U'), ('ప్ప', '|'), ('బో', 'U'), ('గ', '|'), ('ము', '|'), ('చి', '|'), ('నెం', 'U'), ('క', '|'), ('డె', '|'), ('స', '|'), ('రి', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('యి', 'U'), ('ద్దె', '|'), ('కు', '|'), ('సా', 'U'), ('క', '|'), ('లె', 'U'), ('ల్లి', '|'), ('చా', 'U'), ('త్ర', '|'), ('పు', '|'), ('రం', 'U'), ('డా', 'U'), ('ల', '|'), ('సా', 'U'), ('తా', 'U'), ('న', '|'), ('నం', 'U'), ('త', 'U'), ('మ్మ', '|'), ('సిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్క', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('పె', '|'), ('ద', 'U'), ('క్క', '|'), ('యీ', 'U'), ('ణె', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('ను', '|'), ('కో', 'U'), ('మ', '|'), ('టీ', 'U'), ('రే', 'U'), ('శ', '|'), ('మే', 'U'), ('స', '|'), ('రి', '|'), ('మ', '|'), ('తి', '|'), ('ర', '|'), ('తా', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('ఱు', '|'), ('మ', '|'), ('ను', '|'), ('ము', '|'), ('ల', 'U'), ('చ్చి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('కొం', 'U'), ('డ', '|'), ('సి', '|'), ('గల్', 'U'), ('త', '|'), ('ల', '|'), ('గు', 'U'), ('డ్డ', '|'), ('లు', '|'), ('పా', 'U'), ('కో', 'U'), ('ళ్ళు', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('క', '|'), ('ఠా', 'U'), ('ర్లు', '|'), ('కా', 'U'), ('సె', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('గం', 'U'), ('పె', '|'), ('డే', 'U'), ('సి', '|'), ('జం', 'U'), ('దె', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('వా', 'U'), ('ర్లు', '|'), ('జ', '|'), ('ల', '|'), ('తా', 'U'), ('రు', '|'), ('డా', 'U'), ('లు', '|'), ('వా', 'U'), ('ర్లు', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('తి', '|'), ('రు', '|'), ('చూ', 'U'), ('ర్ణ', '|'), ('చి', 'U'), ('న్నె', '|'), ('లు', '|'), ('కు', 'U'), ('ట్టా', 'U'), ('లు', '|'), ('జొ', 'U'), ('ల్లు', '|'), ('వీ', 'U'), ('డె', 'U'), ('మ్ము', '|'), ('లు', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('డీ', 'U'), ('లు', '|'), ('వె', '|'), ('దు', '|'), ('రా', 'U'), ('కు', '|'), ('త', '|'), ('ర', '|'), ('హా', 'U'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('కో', 'U'), ('ర్లు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('దొ', '|'), ('ర', '|'), ('గా', 'U'), ('ర్ల', '|'), ('టం', 'U'), ('చు', '|'), ('బే', 'U'), ('ర్లు', '|')]</t>
+          <t>[('కొం', 'U'), ('డ', '|'), ('సి', '|'), ('గ', 'U'), ('ల్త', '|'), ('ల', '|'), ('గు', 'U'), ('డ్డ', '|'), ('లు', '|'), ('పా', 'U'), ('కో', 'U'), ('ళ్ళు', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('క', '|'), ('ఠా', 'U'), ('ర్లు', '|'), ('కా', 'U'), ('సె', '|'), ('కో', 'U'), ('క', '|'), ('లు', '|'), ('గం', 'U'), ('పె', '|'), ('డే', 'U'), ('సి', '|'), ('జం', 'U'), ('దె', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('వా', 'U'), ('ర్లు', '|'), ('జ', '|'), ('ల', '|'), ('తా', 'U'), ('రు', '|'), ('డా', 'U'), ('లు', '|'), ('వా', 'U'), ('ర్లు', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('తి', '|'), ('రు', '|'), ('చూ', 'U'), ('ర్ణ', '|'), ('చి', 'U'), ('న్నె', '|'), ('లు', '|'), ('కు', 'U'), ('ట్టా', 'U'), ('లు', '|'), ('జొ', 'U'), ('ల్లు', '|'), ('వీ', 'U'), ('డె', 'U'), ('మ్ము', '|'), ('లు', '|'), ('వ', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('డీ', 'U'), ('లు', '|'), ('వె', '|'), ('దు', '|'), ('రా', 'U'), ('కు', '|'), ('త', '|'), ('ర', '|'), ('హా', 'U'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('కో', 'U'), ('ర్లు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('దొ', '|'), ('ర', '|'), ('గా', 'U'), ('ర్ల', '|'), ('టం', 'U'), ('చు', '|'), ('బే', 'U'), ('ర్లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('గో', 'U'), ('వు', '|'), ('ల', '|'), ('న', '|'), ('ఱ', '|'), ('కం', 'U'), ('గ', '|'), ('గో', 'U'), ('సి', '|'), ('వం', 'U'), ('డు', '|'), ('క', '|'), ('తి', '|'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('మా', 'U'), ('ది', '|'), ('గ', '|'), ('లు', '|'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('ర', '|'), ('యి', '|'), ('రి', '|'), ('మా', 'U'), ('నా', 'U'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ముల్', 'U'), ('మా', 'U'), ('ని', '|'), ('ప్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('మం', 'U'), ('కు', '|'), ('గు', '|'), ('లా', 'U'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్రు', '|'), ('లై', 'U'), ('రి', '|'), ('అ', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('పు', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('సం', 'U'), ('క', '|'), ('రు', '|'), ('లు', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('లై', 'U'), ('రి', '|'), ('బా', 'U'), ('జా', 'U'), ('రి', '|'), ('ఱం', 'U'), ('కు', '|'), ('కై', 'U'), ('బం', 'U'), ('చా', 'U'), ('య', '|'), ('తీ', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('పా', 'U'), ('త', '|'), ('లం', 'U'), ('జె', '|'), ('లు', '|'), ('వీ', 'U'), ('ర', '|'), ('మా', 'U'), ('త', '|'), ('లై', 'U'), ('రి', '|')]</t>
+          <t>[('గో', 'U'), ('వు', '|'), ('ల', '|'), ('న', '|'), ('ఱ', '|'), ('కం', 'U'), ('గ', '|'), ('గో', 'U'), ('సి', '|'), ('వం', 'U'), ('డు', '|'), ('క', '|'), ('తి', '|'), ('ను', '|'), ('మా', 'U'), ('ల', '|'), ('మా', 'U'), ('ది', '|'), ('గ', '|'), ('లు', '|'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('ర', '|'), ('యి', '|'), ('రి', '|'), ('మా', 'U'), ('నా', 'U'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('ని', '|'), ('ప్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('మం', 'U'), ('కు', '|'), ('గు', '|'), ('లా', 'U'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్రు', '|'), ('లై', 'U'), ('రి', '|'), ('అ', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('పు', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('సం', 'U'), ('క', '|'), ('రు', '|'), ('లు', '|'), ('వి', 'U'), ('ద్వాం', 'U'), ('సు', '|'), ('లై', 'U'), ('రి', '|'), ('బా', 'U'), ('జా', 'U'), ('రి', '|'), ('ఱం', 'U'), ('కు', '|'), ('కై', 'U'), ('బం', 'U'), ('చా', 'U'), ('య', '|'), ('తీ', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('పా', 'U'), ('త', '|'), ('లం', 'U'), ('జె', '|'), ('లు', '|'), ('వీ', 'U'), ('ర', '|'), ('మా', 'U'), ('త', '|'), ('లై', 'U'), ('రి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('దొ', '|'), ('ర', '|'), ('వ', 'U'), ('ద్ద', '|'), ('నెం', 'U'), ('త', '|'), ('చౌ', 'U'), ('ద', '|'), ('రి', '|'), ('యై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('వి', '|'), ('తా', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ధ', '|'), ('క', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('రం', 'U'), ('భై', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('ముల్', 'U'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('దా', 'U'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('ఖ', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లో', 'U'), ('నా', 'U'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('తా', 'U'), ('జె', 'U'), ('ప్పు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('బె', 'U'), ('త్త', '|'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మిం', 'U'), ('త', '|'), ('ని', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|')]</t>
+          <t>[('దొ', '|'), ('ర', '|'), ('వ', 'U'), ('ద్ద', '|'), ('నెం', 'U'), ('త', '|'), ('చౌ', 'U'), ('ద', '|'), ('రి', '|'), ('యై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('న', '|'), ('వి', '|'), ('తా', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ధ', '|'), ('క', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('రం', 'U'), ('భై', 'U'), ('న', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('దా', 'U'), ('బి', '|'), ('గిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('ఖ', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లో', 'U'), ('నా', 'U'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('తా', 'U'), ('జె', 'U'), ('ప్పు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('బె', 'U'), ('త్త', '|'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మిం', 'U'), ('త', '|'), ('ని', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('చె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('వ', '|'), ('మం', 'U'), ('త్రై', 'U'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('లే', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
+          <t>[('చె', '|'), ('లు', '|'), ('ల', '|'), ('తో', 'U'), ('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', 'U'), ('ల్చె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('వ', '|'), ('మం', 'U'), ('త్రై', 'U'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('లే', 'U'), ('దు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('జు', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('పెం', 'U'), ('చ', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('అ', '|'), ('ని', '|'), ('మొ', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('ఱు', '|'), ('కా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మం', 'U'), ('త్రు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('బొం', 'U'), ('కు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('యి', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తా', 'U'), ('మి', 'U'), ('య్య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('క', '|'), ('వు', '|'), ('ల', '|'), ('మం', 'U'), ('చ', '|'), ('ని', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('న', 'U'), ('ల్లి', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('ని', 'U'), ('క్కి', '|'), ('త', '|'), ('ల', '|'), ('లు', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('ర్వి', '|'), ('క', 'U'), ('ల్ప', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
+          <t>[('రా', 'U'), ('జు', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('బొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('పెం', 'U'), ('చ', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('అ', '|'), ('ని', '|'), ('మొ', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('ఱు', '|'), ('కా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('మం', 'U'), ('త్రు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('బొం', 'U'), ('కు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('యి', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తా', 'U'), ('మి', 'U'), ('య్య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('క', '|'), ('వు', '|'), ('ల', '|'), ('మం', 'U'), ('చ', '|'), ('ని', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('న', 'U'), ('ల్లి', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('మ', '|'), ('ని', '|'), ('ని', 'U'), ('క్కి', '|'), ('త', '|'), ('ల', '|'), ('లు', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('ర్వి', '|'), ('క', 'U'), ('ల్ప', '|'), ('స', '|'), ('మా', 'U'), ('ధి', '|'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('వం', 'U'), ('క', '|'), ('ర', '|'), ('పా', 'U'), ('గా', 'U'), ('లు', '|'), ('వం', 'U'), ('పు', '|'), ('ము', 'U'), ('చ్చె', '|'), ('ల', '|'), ('జో', 'U'), ('ళ్ళు', '|'), ('చె', '|'), ('వి', '|'), ('సం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('రు', '|'), ('మా', 'U'), ('ళ్ళు', '|'), ('మీ', 'U'), ('గా', 'U'), ('ళ్ళ', '|'), ('పై', 'U'), ('బిం', 'U'), ('జె', '|'), ('బా', 'U'), ('గై', 'U'), ('న', '|'), ('దో', 'U'), ('వ', '|'), ('తుల్', 'U'), ('జి', '|'), ('గి', '|'), ('త', '|'), ('రం', 'U'), ('బై', 'U'), ('న', '|'), ('పా', 'U'), ('ర్శీ', 'U'), ('మొ', '|'), ('హ', 'U'), ('ర్లు', '|'), ('చే', 'U'), ('ప', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('బు', 'U'), ('స్తి', '|'), ('మీ', 'U'), ('స', '|'), ('ముల్', 'U'), ('కం', 'U'), ('ఠ', '|'), ('దా', 'U'), ('వ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('డు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('దొ', '|'), ('ర', '|'), ('యొ', 'U'), ('ద్ద', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('ర', 'U'), ('చ్చ', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('శి', '|'), ('ఫా', 'U'), ('ర', '|'), ('సు', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|')]</t>
+          <t>[('వం', 'U'), ('క', '|'), ('ర', '|'), ('పా', 'U'), ('గా', 'U'), ('లు', '|'), ('వం', 'U'), ('పు', '|'), ('ము', 'U'), ('చ్చె', '|'), ('ల', '|'), ('జో', 'U'), ('ళ్ళు', '|'), ('చె', '|'), ('వి', '|'), ('సం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('రు', '|'), ('మా', 'U'), ('ళ్ళు', '|'), ('మీ', 'U'), ('గా', 'U'), ('ళ్ళ', '|'), ('పై', 'U'), ('బిం', 'U'), ('జె', '|'), ('బా', 'U'), ('గై', 'U'), ('న', '|'), ('దో', 'U'), ('వ', '|'), ('తు', 'U'), ('ల్జి', '|'), ('గి', '|'), ('త', '|'), ('రం', 'U'), ('బై', 'U'), ('న', '|'), ('పా', 'U'), ('ర్శీ', 'U'), ('మొ', '|'), ('హ', 'U'), ('ర్లు', '|'), ('చే', 'U'), ('ప', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('బు', 'U'), ('స్తి', '|'), ('మీ', 'U'), ('స', '|'), ('ము', 'U'), ('ల్కం', 'U'), ('ఠ', '|'), ('దా', 'U'), ('వ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('క', '|'), ('డు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('దొ', '|'), ('ర', '|'), ('యొ', 'U'), ('ద్ద', '|'), ('ద', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('ర', 'U'), ('చ్చ', '|'), ('గాం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('శి', '|'), ('ఫా', 'U'), ('ర', '|'), ('సు', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('వి', '|'), ('భ', '|'), ('టు', '|'), ('ల', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('రా', 'U'), ('య', '|'), ('సాల్', 'U'), ('పిం', 'U'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('తి', '|'), ('ను', '|'), ('వా', 'U'), ('య', '|'), ('సా', 'U'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
+          <t>[('క', '|'), ('వి', '|'), ('భ', '|'), ('టు', '|'), ('ల', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('రా', 'U'), ('య', '|'), ('సా', 'U'), ('ల్పిం', 'U'), ('డ', '|'), ('ము', '|'), ('లు', '|'), ('తి', '|'), ('ను', '|'), ('వా', 'U'), ('య', '|'), ('సా', 'U'), ('లు', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[('వా', 'U'), ('గ్భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('వి', '|'), ('ను', '|'), ('ట', '|'), ('హ', 'U'), ('స్త', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('క', 'U'), ('ర్చ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('నే', 'U'), ('త్ర', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('నీ', 'U'), ('టు', '|'), ('గ', '|'), ('ను', '|'), ('ట', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ని', 'U'), ('న్మ', '|'), ('ది', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('మూ', 'U'), ('ర్ధ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నిన్', 'U'), ('మ్రొ', 'U'), ('క్కు', '|'), ('ట', '|'), ('ర', '|'), ('య', '|'), ('అం', 'U'), ('ఘ్రి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('ప్ర', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బే', 'U'), ('గు', '|'), ('ట', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('చ', '|'), ('రి', '|'), ('త', '|')]</t>
+          <t>[('వా', 'U'), ('గ్భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('వి', '|'), ('ను', '|'), ('ట', '|'), ('హ', 'U'), ('స్త', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('క', 'U'), ('ర్చ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('నే', 'U'), ('త్ర', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('నీ', 'U'), ('టు', '|'), ('గ', '|'), ('ను', '|'), ('ట', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ని', 'U'), ('న్మ', '|'), ('ది', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('మూ', 'U'), ('ర్ధ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ని', 'U'), ('న్మ్రొ', 'U'), ('క్కు', '|'), ('ట', '|'), ('ర', '|'), ('య', '|'), ('అం', 'U'), ('ఘ్రి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('నీ', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('ల', '|'), ('య', '|'), ('ప్ర', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బే', 'U'), ('గు', '|'), ('ట', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('చ', '|'), ('రి', '|'), ('త', '|')]</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[('వి', 'U'), ('ద్యా', 'U'), ('ధి', '|'), ('కు', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('ని', '|'), ('లి', '|'), ('పె', '|'), ('నా', 'U'), ('యిం', 'U'), ('ద', '|'), ('ఱే', 'U'), ('మి', '|'), ('టి', '|'), ('కం', 'U'), ('చు', '|'), ('గుం', 'U'), ('దు', '|'), ('చుం', 'U'), ('డు', '|'), ('మో', 'U'), ('మీ', 'U'), ('ను', '|'), ('కు', '|'), ('గ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నొ', 'U'), ('డ్ల', '|'), ('గిం', 'U'), ('జ', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('స', '|'), ('ర', '|'), ('వి', '|'), ('వ్రా', 'U'), ('యు', '|'), ('తిం', 'U'), ('డి', '|'), ('కి', '|'), ('జే', 'U'), ('టు', '|'), ('గా', 'U'), ('బం', 'U'), ('డి', '|'), ('తు', '|'), ('లే', 'U'), ('ల', '|'), ('తె', 'U'), ('ప్పు', '|'), ('న', '|'), ('సె', '|'), ('ల', '|'), ('వి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('బా', 'U'), ('రి', '|'), ('శా', 'U'), ('ల్వ', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('బ', '|'), ('హు', '|'), ('మ', '|'), ('తి', '|'), ('ని', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('క', '|'), ('సీ', 'U'), ('మ', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చు', '|')]</t>
+          <t>[('వి', 'U'), ('ద్యా', 'U'), ('ధి', '|'), ('కు', '|'), ('ల', '|'), ('రా', 'U'), ('జు', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', '|'), ('ని', '|'), ('లి', '|'), ('పె', '|'), ('నా', 'U'), ('యిం', 'U'), ('ద', '|'), ('ఱే', 'U'), ('మి', '|'), ('టి', '|'), ('కం', 'U'), ('చు', '|'), ('గుం', 'U'), ('దు', '|'), ('చుం', 'U'), ('డు', '|'), ('మో', 'U'), ('మీ', 'U'), ('ను', '|'), ('కు', '|'), ('గ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నొ', 'U'), ('డ్ల', '|'), ('గిం', 'U'), ('జ', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రా', 'U'), ('త', '|'), ('ము', 'U'), ('ల్స', '|'), ('ర', '|'), ('వి', '|'), ('వ్రా', 'U'), ('యు', '|'), ('తిం', 'U'), ('డి', '|'), ('కి', '|'), ('జే', 'U'), ('టు', '|'), ('గా', 'U'), ('బం', 'U'), ('డి', '|'), ('తు', '|'), ('లే', 'U'), ('ల', '|'), ('తె', 'U'), ('ప్పు', '|'), ('న', '|'), ('సె', '|'), ('ల', '|'), ('వి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('బా', 'U'), ('రి', '|'), ('శా', 'U'), ('ల్వ', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('బ', '|'), ('హు', '|'), ('మ', '|'), ('తి', '|'), ('ని', 'U'), ('మ్మ', 'U'), ('న్న', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('క', '|'), ('సీ', 'U'), ('మ', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[('వం', 'U'), ('డ', '|'), ('లే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('వ', 'U'), ('క్క', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('యా', 'U'), ('రి', '|'), ('పొ', 'U'), ('య్యె', '|'), ('డి', '|'), ('ది', 'U'), ('వ్వె', '|'), ('క', '|'), ('ధి', '|'), ('క', '|'), ('దీ', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ట్ట', '|'), ('ని', 'U'), ('ల్వ', '|'), ('ని', '|'), ('చె', 'U'), ('ర్వు', '|'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నిం', 'U'), ('డు', '|'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('బి', 'U'), ('డ్డ', '|'), ('బా', 'U'), ('రె', '|'), ('డుం', 'U'), ('డు', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('నొం', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ట్టు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('తీ', 'U'), ('గి', '|'), ('డు', '|'), ('జా', 'U'), ('డ్య', '|'), ('మె', 'U'), ('చ్చు', '|'), ('ముం', 'U'), ('ద', '|'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('ని', 'U'), ('చ్చు', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('దొ', '|'), ('రల్', 'U'), ('గ', '|'), ('ని', '|'), ('చ', '|'), ('న', '|'), ('వి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('పొ', '|'), ('యి', '|'), ('సా', 'U'), ('ల', '|'), ('కే', 'U'), ('పా', 'U'), ('లు', '|'), ('పొం', 'U'), ('గు', '|'), ('టె', 'U'), ('ల్ల', '|')]</t>
+          <t>[('వం', 'U'), ('డ', '|'), ('లే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('వ', 'U'), ('క్క', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('యా', 'U'), ('రి', '|'), ('పొ', 'U'), ('య్యె', '|'), ('డి', '|'), ('ది', 'U'), ('వ్వె', '|'), ('క', '|'), ('ధి', '|'), ('క', '|'), ('దీ', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ట్ట', '|'), ('ని', 'U'), ('ల్వ', '|'), ('ని', '|'), ('చె', 'U'), ('ర్వు', '|'), ('గ', '|'), ('డి', '|'), ('య', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నిం', 'U'), ('డు', '|'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('బి', 'U'), ('డ్డ', '|'), ('బా', 'U'), ('రె', '|'), ('డుం', 'U'), ('డు', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('నొం', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ట్టు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('తీ', 'U'), ('గి', '|'), ('డు', '|'), ('జా', 'U'), ('డ్య', '|'), ('మె', 'U'), ('చ్చు', '|'), ('ముం', 'U'), ('ద', '|'), ('టి', '|'), ('క', 'U'), ('న్న', '|'), ('ని', 'U'), ('చ్చు', '|'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('దొ', '|'), ('ర', 'U'), ('ల్గ', '|'), ('ని', '|'), ('చ', '|'), ('న', '|'), ('వి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('పొ', '|'), ('యి', '|'), ('సా', 'U'), ('ల', '|'), ('కే', 'U'), ('పా', 'U'), ('లు', '|'), ('పొం', 'U'), ('గు', '|'), ('టె', 'U'), ('ల్ల', '|')]</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('సొం', 'U'), ('పు', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('వి', 'U'), ('ద్య', '|'), ('బల్', 'U'), ('చౌ', 'U'), ('క', '|'), ('నా', 'U'), ('యె', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('ను', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('బా', 'U'), ('ర', '|'), ('మా', 'U'), ('ర్థి', '|'), ('క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('భ', 'U'), ('స్మ', '|'), ('మా', 'U'), ('యె', '|'), ('భూ', 'U'), ('త', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('కు', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('మెం', 'U'), ('డా', 'U'), ('యె', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('పో', 'U'), ('యె', '|'), ('వ', 'U'), ('ర్ణా', 'U'), ('శ్ర', '|'), ('మా', 'U'), ('చా', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('హీ', 'U'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హె', 'U'), ('చ్చు', '|'), ('లా', 'U'), ('యె', '|')]</t>
+          <t>[('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('సొం', 'U'), ('పు', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('సం', 'U'), ('గీ', 'U'), ('త', '|'), ('వి', 'U'), ('ద్య', '|'), ('బ', 'U'), ('ల్చౌ', 'U'), ('క', '|'), ('నా', 'U'), ('యె', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('ను', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('బా', 'U'), ('ర', '|'), ('మా', 'U'), ('ర్థి', '|'), ('క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('భ', 'U'), ('స్మ', '|'), ('మా', 'U'), ('యె', '|'), ('భూ', 'U'), ('త', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('కు', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధు', '|'), ('లు', '|'), ('మెం', 'U'), ('డా', 'U'), ('యె', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('పో', 'U'), ('యె', '|'), ('వ', 'U'), ('ర్ణా', 'U'), ('శ్ర', '|'), ('మా', 'U'), ('చా', 'U'), ('ర', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('హీ', 'U'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('హె', 'U'), ('చ్చు', '|'), ('లా', 'U'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[('క', 'U'), ('న్నం', 'U'), ('బు', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('త', 'U'), ('స్క', '|'), ('రు', '|'), ('డిం', 'U'), ('టి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('వా', 'U'), ('డ', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('ముం', 'U'), ('త', '|'), ('వై', 'U'), ('చి', '|'), ('చ', '|'), ('ను', '|'), ('నె', '|'), ('తె', '|'), ('ర', '|'), ('వా', 'U'), ('టు', '|'), ('కా', 'U'), ('డు', '|'), ('చిం', 'U'), ('తిం', 'U'), ('చు', '|'), ('నే', 'U'), ('క', 'U'), ('ట్టి', '|'), ('న', '|'), ('బ', 'U'), ('ట్ట', '|'), ('నూ', 'U'), ('డ్చి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('భం', 'U'), ('గ', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('వ', '|'), ('ల', '|'), ('బ', 'U'), ('డ్డ', '|'), ('మె', '|'), ('క', '|'), ('ము', '|'), ('చూల్', 'U'), ('వ', '|'), ('హి', '|'), ('యిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('వి', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('నే', 'U'), ('వే', 'U'), ('ట', '|'), ('కా', 'U'), ('డు', '|'), ('జా', 'U'), ('రుం', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('శ', 'U'), ('య్య', '|'), ('పై', 'U'), ('దా', 'U'), ('రి', '|'), ('చి', '|'), ('వా', 'U'), ('వి', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('చ', '|'), ('ను', '|'), ('నె', '|')]</t>
+          <t>[('క', 'U'), ('న్నం', 'U'), ('బు', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('త', 'U'), ('స్క', '|'), ('రు', '|'), ('డిం', 'U'), ('టి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('వా', 'U'), ('డ', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('ముం', 'U'), ('త', '|'), ('వై', 'U'), ('చి', '|'), ('చ', '|'), ('ను', '|'), ('నె', '|'), ('తె', '|'), ('ర', '|'), ('వా', 'U'), ('టు', '|'), ('కా', 'U'), ('డు', '|'), ('చిం', 'U'), ('తిం', 'U'), ('చు', '|'), ('నే', 'U'), ('క', 'U'), ('ట్టి', '|'), ('న', '|'), ('బ', 'U'), ('ట్ట', '|'), ('నూ', 'U'), ('డ్చి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('భం', 'U'), ('గ', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('వ', '|'), ('ల', '|'), ('బ', 'U'), ('డ్డ', '|'), ('మె', '|'), ('క', '|'), ('ము', '|'), ('చూ', 'U'), ('ల్వ', '|'), ('హి', '|'), ('యిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('వి', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('నే', 'U'), ('వే', 'U'), ('ట', '|'), ('కా', 'U'), ('డు', '|'), ('జా', 'U'), ('రుం', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('శ', 'U'), ('య్య', '|'), ('పై', 'U'), ('దా', 'U'), ('రి', '|'), ('చి', '|'), ('వా', 'U'), ('వి', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('చ', '|'), ('ను', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[('క', 'U'), ('న్న', '|'), ('వా', 'U'), ('రె', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('డి', '|'), ('తుల్', 'U'), ('క', '|'), ('వు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('వి', '|'), ('ప్రు', '|'), ('లే', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
+          <t>[('క', 'U'), ('న్న', '|'), ('వా', 'U'), ('రె', 'U'), ('ల్ల', '|'), ('బం', 'U'), ('డి', '|'), ('తు', 'U'), ('ల్క', '|'), ('వు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('లే', 'U'), ('డ', '|'), ('ను', '|'), ('వి', '|'), ('ప్రు', '|'), ('లే', 'U'), ('డ', '|'), ('మ', '|'), ('ద', '|'), ('రి', '|'), ('పు', '|'), ('వి', '|'), ('ఫా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('న', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('లో', 'U'), ('ల', '|'), ('వే', 'U'), ('ణు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('శీ', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
